--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teams (Needs Verifying)" sheetId="1" r:id="rId1"/>
-    <sheet name="Categories (Needs Verifying)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Categories (Needs Verifying)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="687">
   <si>
     <t>INDEPENDENT</t>
   </si>
@@ -262,6 +263,1830 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>HU1.47</t>
+  </si>
+  <si>
+    <t>Amber Furgeson</t>
+  </si>
+  <si>
+    <t>Vague</t>
+  </si>
+  <si>
+    <t>Andy Donald</t>
+  </si>
+  <si>
+    <t>Watt Gamers</t>
+  </si>
+  <si>
+    <t>Josh Clark</t>
+  </si>
+  <si>
+    <t>Hugs</t>
+  </si>
+  <si>
+    <t>Big Bad Jon Scholes</t>
+  </si>
+  <si>
+    <t>Vague Vets</t>
+  </si>
+  <si>
+    <t>Kerim Dickson</t>
+  </si>
+  <si>
+    <t>KoT Exiles</t>
+  </si>
+  <si>
+    <t>Callum Hayden</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
+  <si>
+    <t>HU1.49</t>
+  </si>
+  <si>
+    <t>Simon Morley</t>
+  </si>
+  <si>
+    <t>Chris Dieck</t>
+  </si>
+  <si>
+    <t>Wilf Watson-James</t>
+  </si>
+  <si>
+    <t>Damien Mcllroy</t>
+  </si>
+  <si>
+    <t>Tasmin Cotton</t>
+  </si>
+  <si>
+    <t>Group 3</t>
+  </si>
+  <si>
+    <t>HU1.51</t>
+  </si>
+  <si>
+    <t>Louise Cooper</t>
+  </si>
+  <si>
+    <t>WARP Soc</t>
+  </si>
+  <si>
+    <t>jamie fryer</t>
+  </si>
+  <si>
+    <t>sunderland</t>
+  </si>
+  <si>
+    <t>Spike 'sirname'</t>
+  </si>
+  <si>
+    <t>NODD Soc</t>
+  </si>
+  <si>
+    <t>Tom Hunt</t>
+  </si>
+  <si>
+    <t>Martin Howe</t>
+  </si>
+  <si>
+    <t>LSU RawSoc</t>
+  </si>
+  <si>
+    <t>HU2.30</t>
+  </si>
+  <si>
+    <t>Alan Bently</t>
+  </si>
+  <si>
+    <t>Toby Woolhouse</t>
+  </si>
+  <si>
+    <t>Bradford Dragons</t>
+  </si>
+  <si>
+    <t>Tharon Nithiroongrujakorn</t>
+  </si>
+  <si>
+    <t>David Nutbourne</t>
+  </si>
+  <si>
+    <t>Rob Ruthven</t>
+  </si>
+  <si>
+    <t>GUGs</t>
+  </si>
+  <si>
+    <t>Greg Wilgar</t>
+  </si>
+  <si>
+    <t>BWRPS Banger</t>
+  </si>
+  <si>
+    <t>HU2.32</t>
+  </si>
+  <si>
+    <t>Duncan Adamson</t>
+  </si>
+  <si>
+    <t>Hamilton Morrin</t>
+  </si>
+  <si>
+    <t>Faye Sewell</t>
+  </si>
+  <si>
+    <t>Muhammad Aqqid Saparin</t>
+  </si>
+  <si>
+    <t>Sabers</t>
+  </si>
+  <si>
+    <t>michael smith</t>
+  </si>
+  <si>
+    <t>Dan Geoghan (2nd)</t>
+  </si>
+  <si>
+    <t>HU2.34</t>
+  </si>
+  <si>
+    <t>Rachel Brown</t>
+  </si>
+  <si>
+    <t>Hussars</t>
+  </si>
+  <si>
+    <t>Luci Bracegirdle</t>
+  </si>
+  <si>
+    <t>Victor Martin-Alonso</t>
+  </si>
+  <si>
+    <t>Adam Parkes Bowen</t>
+  </si>
+  <si>
+    <t>Alexander Petrie</t>
+  </si>
+  <si>
+    <t>Sarah Hancock</t>
+  </si>
+  <si>
+    <t>HU2.08</t>
+  </si>
+  <si>
+    <t>Jack Reid</t>
+  </si>
+  <si>
+    <t>Gareth Johnson</t>
+  </si>
+  <si>
+    <t>Simon Maher</t>
+  </si>
+  <si>
+    <t>Miskatonic</t>
+  </si>
+  <si>
+    <t>Kieran Horan 3rd</t>
+  </si>
+  <si>
+    <t>Myke Edwards (3rd)</t>
+  </si>
+  <si>
+    <t>Joshua Montesdeoca</t>
+  </si>
+  <si>
+    <t>Rhodri Harris</t>
+  </si>
+  <si>
+    <t>Chris Kimmons (2nd)</t>
+  </si>
+  <si>
+    <t>Mr Alzis</t>
+  </si>
+  <si>
+    <t>Stephen Thomson</t>
+  </si>
+  <si>
+    <t>HU2.33</t>
+  </si>
+  <si>
+    <t>Sally Connolly</t>
+  </si>
+  <si>
+    <t>Niall Forman</t>
+  </si>
+  <si>
+    <t>Josh Lowe</t>
+  </si>
+  <si>
+    <t>Christian Kirchel</t>
+  </si>
+  <si>
+    <t>WARGS Vets</t>
+  </si>
+  <si>
+    <t>Connor Morris</t>
+  </si>
+  <si>
+    <t>Harriet Lowe</t>
+  </si>
+  <si>
+    <t>HU3.93</t>
+  </si>
+  <si>
+    <t>Sam Howell</t>
+  </si>
+  <si>
+    <t>mikael 'Shiny' Rosbrook</t>
+  </si>
+  <si>
+    <t>Cath Hawkins</t>
+  </si>
+  <si>
+    <t>Mark 'sirname'</t>
+  </si>
+  <si>
+    <t>Nathan Palmer</t>
+  </si>
+  <si>
+    <t>Matt Hall</t>
+  </si>
+  <si>
+    <t>HU2.86</t>
+  </si>
+  <si>
+    <t>Sarah Ransome</t>
+  </si>
+  <si>
+    <t>Nye Harrow</t>
+  </si>
+  <si>
+    <t>Robert Bosley</t>
+  </si>
+  <si>
+    <t>Stephanie Ivey</t>
+  </si>
+  <si>
+    <t>Simon Green</t>
+  </si>
+  <si>
+    <t>Derby Imagineers</t>
+  </si>
+  <si>
+    <t>Joe Charlton</t>
+  </si>
+  <si>
+    <t>HU3.94</t>
+  </si>
+  <si>
+    <t>Kieran Harwood</t>
+  </si>
+  <si>
+    <t>Philip Higgs</t>
+  </si>
+  <si>
+    <t>John Moller</t>
+  </si>
+  <si>
+    <t>Duncan Mclean</t>
+  </si>
+  <si>
+    <t>Kiah Greenwood (2nd)</t>
+  </si>
+  <si>
+    <t>Q0.15</t>
+  </si>
+  <si>
+    <t>Margaret Eve</t>
+  </si>
+  <si>
+    <t>Sussex</t>
+  </si>
+  <si>
+    <t>Paul Mathieson</t>
+  </si>
+  <si>
+    <t>Paisley Hobbits</t>
+  </si>
+  <si>
+    <t>Rob Lovett</t>
+  </si>
+  <si>
+    <t>Jacob Sacker</t>
+  </si>
+  <si>
+    <t>Barrie Parnell</t>
+  </si>
+  <si>
+    <t>Will Tolson</t>
+  </si>
+  <si>
+    <t>Q.0.16</t>
+  </si>
+  <si>
+    <t>Alex Wolfe</t>
+  </si>
+  <si>
+    <t>Andrew Borke</t>
+  </si>
+  <si>
+    <t>Oscar Boardman</t>
+  </si>
+  <si>
+    <t>Andrew Gill</t>
+  </si>
+  <si>
+    <t>Clara Asmussen</t>
+  </si>
+  <si>
+    <t>HU3.96</t>
+  </si>
+  <si>
+    <t>Jak Thraves</t>
+  </si>
+  <si>
+    <t>Craig McDowall</t>
+  </si>
+  <si>
+    <t>Roman Roth</t>
+  </si>
+  <si>
+    <t>Rupert Berry</t>
+  </si>
+  <si>
+    <t>Cara Gaffney</t>
+  </si>
+  <si>
+    <t>marcus hartley</t>
+  </si>
+  <si>
+    <t>HU3.95</t>
+  </si>
+  <si>
+    <t>Ryan George</t>
+  </si>
+  <si>
+    <t>Kenneth Anderson</t>
+  </si>
+  <si>
+    <t>Charles Pegg</t>
+  </si>
+  <si>
+    <t>Ben Smith</t>
+  </si>
+  <si>
+    <t>John Batty</t>
+  </si>
+  <si>
+    <t>edd glasper</t>
+  </si>
+  <si>
+    <t>Osprey Pocock</t>
+  </si>
+  <si>
+    <t>Bill Biltcliffe</t>
+  </si>
+  <si>
+    <t>Scott Carpenter</t>
+  </si>
+  <si>
+    <t>Stu Monk</t>
+  </si>
+  <si>
+    <t>Nathaniel Foresyth</t>
+  </si>
+  <si>
+    <t>Warlocs</t>
+  </si>
+  <si>
+    <t>HU2.36</t>
+  </si>
+  <si>
+    <t>Megan Bettinson</t>
+  </si>
+  <si>
+    <t>Rebecca Milner</t>
+  </si>
+  <si>
+    <t>Stewart Jenkins</t>
+  </si>
+  <si>
+    <t>Emily Carter</t>
+  </si>
+  <si>
+    <t>Abigail Bailey-Unsworth</t>
+  </si>
+  <si>
+    <t>Sean Smith</t>
+  </si>
+  <si>
+    <t>Garion Lloyd</t>
+  </si>
+  <si>
+    <t>Torjei Raine</t>
+  </si>
+  <si>
+    <t>Nick Huxtable</t>
+  </si>
+  <si>
+    <t>Cullen Lewis (3)</t>
+  </si>
+  <si>
+    <t>University of Nottingham</t>
+  </si>
+  <si>
+    <t>Corey Davies</t>
+  </si>
+  <si>
+    <t>Sandy Mcmaster</t>
+  </si>
+  <si>
+    <t>Nate Bradley</t>
+  </si>
+  <si>
+    <t>Declan Nelson</t>
+  </si>
+  <si>
+    <t>Mike Moriarty (2nd)</t>
+  </si>
+  <si>
+    <t>alex blundell</t>
+  </si>
+  <si>
+    <t>Conor Powell</t>
+  </si>
+  <si>
+    <t>Will Tracey</t>
+  </si>
+  <si>
+    <t>Lawie Mason</t>
+  </si>
+  <si>
+    <t>Gav Thompson</t>
+  </si>
+  <si>
+    <t>Darragh Kempson</t>
+  </si>
+  <si>
+    <t>Darren Hill</t>
+  </si>
+  <si>
+    <t>Emma Steadman</t>
+  </si>
+  <si>
+    <t>Emerald Kenny (2nd)</t>
+  </si>
+  <si>
+    <t>John Donensghn</t>
+  </si>
+  <si>
+    <t>Timothy Hind</t>
+  </si>
+  <si>
+    <t>Douglas Young</t>
+  </si>
+  <si>
+    <t>Charlotte Williamson</t>
+  </si>
+  <si>
+    <t>Mark Bolton</t>
+  </si>
+  <si>
+    <t>Lee Ryder</t>
+  </si>
+  <si>
+    <t>Bernard Watney</t>
+  </si>
+  <si>
+    <t>Sasha Thirlby-Flynn</t>
+  </si>
+  <si>
+    <t>Natasha Deery</t>
+  </si>
+  <si>
+    <t>Zoe Baily</t>
+  </si>
+  <si>
+    <t>Gareth Roberts</t>
+  </si>
+  <si>
+    <t>Rachael Nicholson</t>
+  </si>
+  <si>
+    <t>Catriona Richards</t>
+  </si>
+  <si>
+    <t>Erica Kirk</t>
+  </si>
+  <si>
+    <t>Damian Osmond</t>
+  </si>
+  <si>
+    <t>Liam Butler</t>
+  </si>
+  <si>
+    <t>HU2.38</t>
+  </si>
+  <si>
+    <t>Holly Louise</t>
+  </si>
+  <si>
+    <t>Pete Seed</t>
+  </si>
+  <si>
+    <t>Adam Hurst</t>
+  </si>
+  <si>
+    <t>Rose Fenge</t>
+  </si>
+  <si>
+    <t>Dan Atkinson</t>
+  </si>
+  <si>
+    <t>HU2.40</t>
+  </si>
+  <si>
+    <t>Beth Shaw</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>Charlotte Steels</t>
+  </si>
+  <si>
+    <t>Sarah Coell-Pemberton</t>
+  </si>
+  <si>
+    <t>Steel City Vets</t>
+  </si>
+  <si>
+    <t>Renate Bakken</t>
+  </si>
+  <si>
+    <t>Holly Young</t>
+  </si>
+  <si>
+    <t>Q0.11</t>
+  </si>
+  <si>
+    <t>Bret Smith</t>
+  </si>
+  <si>
+    <t>Andy Holland</t>
+  </si>
+  <si>
+    <t>Raymond Lamb</t>
+  </si>
+  <si>
+    <t>Chrissie Lacey-Hatton</t>
+  </si>
+  <si>
+    <t>Peter Warnock</t>
+  </si>
+  <si>
+    <t>Peter Stannard</t>
+  </si>
+  <si>
+    <t>Thomas Bickley</t>
+  </si>
+  <si>
+    <t>Simon Clements</t>
+  </si>
+  <si>
+    <t>Sam Carrington</t>
+  </si>
+  <si>
+    <t>jack rowsell</t>
+  </si>
+  <si>
+    <t>Q.013</t>
+  </si>
+  <si>
+    <t>Megan Pearce</t>
+  </si>
+  <si>
+    <t>Mike Dore</t>
+  </si>
+  <si>
+    <t>Eleanor Jones</t>
+  </si>
+  <si>
+    <t>Jen Thursfield</t>
+  </si>
+  <si>
+    <t>Euan Reid</t>
+  </si>
+  <si>
+    <t>Q0.14</t>
+  </si>
+  <si>
+    <t>Nick Bates</t>
+  </si>
+  <si>
+    <t>Christopher Liggins</t>
+  </si>
+  <si>
+    <t>Marina 'sirname'</t>
+  </si>
+  <si>
+    <t>Teodora Cube (3rd)</t>
+  </si>
+  <si>
+    <t>University of Derby</t>
+  </si>
+  <si>
+    <t>Charlie Arnold</t>
+  </si>
+  <si>
+    <t>Matt Haliday</t>
+  </si>
+  <si>
+    <t>Che Wilbraham</t>
+  </si>
+  <si>
+    <t>Ryan Leahy</t>
+  </si>
+  <si>
+    <t>Charles Richards</t>
+  </si>
+  <si>
+    <t>Sam Albon</t>
+  </si>
+  <si>
+    <t>Alan Jackson</t>
+  </si>
+  <si>
+    <t>Anouckka Harris</t>
+  </si>
+  <si>
+    <t>Nick McCarthy</t>
+  </si>
+  <si>
+    <t>Jess Shahan</t>
+  </si>
+  <si>
+    <t>Brian Dawkins</t>
+  </si>
+  <si>
+    <t>Hel Apocalypse</t>
+  </si>
+  <si>
+    <t>Alex Moreton</t>
+  </si>
+  <si>
+    <t>Warlocks</t>
+  </si>
+  <si>
+    <t>HU2.42</t>
+  </si>
+  <si>
+    <t>Cat Stephens</t>
+  </si>
+  <si>
+    <t>Christin Kluge</t>
+  </si>
+  <si>
+    <t>Anna Rutherford</t>
+  </si>
+  <si>
+    <t>Stephen Murphy</t>
+  </si>
+  <si>
+    <t>Andrew Brown (2)</t>
+  </si>
+  <si>
+    <t>Mike Arnold</t>
+  </si>
+  <si>
+    <t>HU3.92</t>
+  </si>
+  <si>
+    <t>Diane Cawood</t>
+  </si>
+  <si>
+    <t>David Gibbons</t>
+  </si>
+  <si>
+    <t>Craig Randles (2nd)</t>
+  </si>
+  <si>
+    <t>Johnny Clementson</t>
+  </si>
+  <si>
+    <t>Betty Grover (2)</t>
+  </si>
+  <si>
+    <t>HU2.37</t>
+  </si>
+  <si>
+    <t>Andy Jones</t>
+  </si>
+  <si>
+    <t>Mercenaries</t>
+  </si>
+  <si>
+    <t>Kathryn Fradley</t>
+  </si>
+  <si>
+    <t>Pete Gregory</t>
+  </si>
+  <si>
+    <t>Chris Haywood</t>
+  </si>
+  <si>
+    <t>Mark Buffey</t>
+  </si>
+  <si>
+    <t>Richard Mutton</t>
+  </si>
+  <si>
+    <t>HU2.39</t>
+  </si>
+  <si>
+    <t>Robert James</t>
+  </si>
+  <si>
+    <t>Debbie Jackson</t>
+  </si>
+  <si>
+    <t>David Beaumont</t>
+  </si>
+  <si>
+    <t>Henry Wilson</t>
+  </si>
+  <si>
+    <t>James Webb</t>
+  </si>
+  <si>
+    <t>Matthew Brown</t>
+  </si>
+  <si>
+    <t>HU1.48</t>
+  </si>
+  <si>
+    <t>Nem Nemmington</t>
+  </si>
+  <si>
+    <t>Rose Gillingham</t>
+  </si>
+  <si>
+    <t>Bill Smith</t>
+  </si>
+  <si>
+    <t>Krysh Zaremba-Beecroft</t>
+  </si>
+  <si>
+    <t>George Pinto Basto</t>
+  </si>
+  <si>
+    <t>Andrew MacArthur (2nd)</t>
+  </si>
+  <si>
+    <t>HU2.31</t>
+  </si>
+  <si>
+    <t>Nic Ford</t>
+  </si>
+  <si>
+    <t>Robin Adams</t>
+  </si>
+  <si>
+    <t>Holly McLellan</t>
+  </si>
+  <si>
+    <t>Edward Burt</t>
+  </si>
+  <si>
+    <t>Sally Chesters (2nd)</t>
+  </si>
+  <si>
+    <t>Opal Mattila</t>
+  </si>
+  <si>
+    <t>Kat Burton</t>
+  </si>
+  <si>
+    <t>Matthew Campbell</t>
+  </si>
+  <si>
+    <t>Chris Shephard</t>
+  </si>
+  <si>
+    <t>Jon Carter (2nd)</t>
+  </si>
+  <si>
+    <t>Rachel Winter</t>
+  </si>
+  <si>
+    <t>Kieran Smith</t>
+  </si>
+  <si>
+    <t>Allan Brown</t>
+  </si>
+  <si>
+    <t>Kat Flank</t>
+  </si>
+  <si>
+    <t>Adrian Hurt</t>
+  </si>
+  <si>
+    <t>Dave Souter</t>
+  </si>
+  <si>
+    <t>HU2.41</t>
+  </si>
+  <si>
+    <t>Corrine Laird</t>
+  </si>
+  <si>
+    <t>Simon Hardcore</t>
+  </si>
+  <si>
+    <t>Uclan</t>
+  </si>
+  <si>
+    <t>Sam Blackband</t>
+  </si>
+  <si>
+    <t>Jack Pimblott</t>
+  </si>
+  <si>
+    <t>Tristan Harness</t>
+  </si>
+  <si>
+    <t>Chris 'Sirname' (2nd)</t>
+  </si>
+  <si>
+    <t>Laurence Saffin</t>
+  </si>
+  <si>
+    <t>Tim Creamer</t>
+  </si>
+  <si>
+    <t>Rory Giles</t>
+  </si>
+  <si>
+    <t>Honi Gulliver</t>
+  </si>
+  <si>
+    <t>Frankie 'sirname'</t>
+  </si>
+  <si>
+    <t>Michael Bengougam</t>
+  </si>
+  <si>
+    <t>HU3.91</t>
+  </si>
+  <si>
+    <t>Craig Donnelly</t>
+  </si>
+  <si>
+    <t>Stealth 'sirname'</t>
+  </si>
+  <si>
+    <t>Olga Nitschke</t>
+  </si>
+  <si>
+    <t>Rebecca Campbell</t>
+  </si>
+  <si>
+    <t>Grace Cuurah</t>
+  </si>
+  <si>
+    <t>Paul Booth</t>
+  </si>
+  <si>
+    <t>Danny Moss</t>
+  </si>
+  <si>
+    <t>Graham Woodhead</t>
+  </si>
+  <si>
+    <t>Vanguard Vets</t>
+  </si>
+  <si>
+    <t>Mike Francis</t>
+  </si>
+  <si>
+    <t>Deathwish Dunn</t>
+  </si>
+  <si>
+    <t>nathan kerr</t>
+  </si>
+  <si>
+    <t>Q0.16</t>
+  </si>
+  <si>
+    <t>Tom Osborne</t>
+  </si>
+  <si>
+    <t>Savage 'Sirname'</t>
+  </si>
+  <si>
+    <t>Matthew Robertson</t>
+  </si>
+  <si>
+    <t>Blair Smith (2nd)</t>
+  </si>
+  <si>
+    <t>matt milton</t>
+  </si>
+  <si>
+    <t>Robert Hinton</t>
+  </si>
+  <si>
+    <t>Sarah Winter</t>
+  </si>
+  <si>
+    <t>Kat Reid</t>
+  </si>
+  <si>
+    <t>Amanda Tyms</t>
+  </si>
+  <si>
+    <t>Dean Sammut</t>
+  </si>
+  <si>
+    <t>Immy Clayton</t>
+  </si>
+  <si>
+    <t>Tom Manger (2nd)</t>
+  </si>
+  <si>
+    <t>Louise Laws</t>
+  </si>
+  <si>
+    <t>Graham Willighan</t>
+  </si>
+  <si>
+    <t>Adam Challis</t>
+  </si>
+  <si>
+    <t>Claire Slack</t>
+  </si>
+  <si>
+    <t>Callum Taylor</t>
+  </si>
+  <si>
+    <t>conor makinson</t>
+  </si>
+  <si>
+    <t>Q0.12</t>
+  </si>
+  <si>
+    <t>Zhubeen Tavakoli-Keshe</t>
+  </si>
+  <si>
+    <t>Nigel philips</t>
+  </si>
+  <si>
+    <t>Robert Morrell</t>
+  </si>
+  <si>
+    <t>Krysh McGurk</t>
+  </si>
+  <si>
+    <t>Sam Halford</t>
+  </si>
+  <si>
+    <t>Q0.13</t>
+  </si>
+  <si>
+    <t>Isaac Whitehouse</t>
+  </si>
+  <si>
+    <t>Timothy Gardner</t>
+  </si>
+  <si>
+    <t>Andrew Ferris</t>
+  </si>
+  <si>
+    <t>Harriet Connor</t>
+  </si>
+  <si>
+    <t>Afro Dave Mills (3rd)</t>
+  </si>
+  <si>
+    <t>HU1.82</t>
+  </si>
+  <si>
+    <t>Toby Gray</t>
+  </si>
+  <si>
+    <t>Julia Smith</t>
+  </si>
+  <si>
+    <t>David Riley</t>
+  </si>
+  <si>
+    <t>gray forshaw</t>
+  </si>
+  <si>
+    <t>Victoria Sacre</t>
+  </si>
+  <si>
+    <t>Ginette Murray</t>
+  </si>
+  <si>
+    <t>HU1.50</t>
+  </si>
+  <si>
+    <t>Sophie Jarell</t>
+  </si>
+  <si>
+    <t>Eddy Tully</t>
+  </si>
+  <si>
+    <t>Thomas Moulton</t>
+  </si>
+  <si>
+    <t>Angus McEwing</t>
+  </si>
+  <si>
+    <t>Heather Tyms</t>
+  </si>
+  <si>
+    <t>Edward Mingaye</t>
+  </si>
+  <si>
+    <t>P1.06</t>
+  </si>
+  <si>
+    <t>Duncan Scott</t>
+  </si>
+  <si>
+    <t>Stephen Borgars smith</t>
+  </si>
+  <si>
+    <t>James Price</t>
+  </si>
+  <si>
+    <t>Sean Thurgood</t>
+  </si>
+  <si>
+    <t>Michael Sewell</t>
+  </si>
+  <si>
+    <t>P1.09</t>
+  </si>
+  <si>
+    <t>Robb Gossett</t>
+  </si>
+  <si>
+    <t>Oliver Brennan</t>
+  </si>
+  <si>
+    <t>Mark Kerr</t>
+  </si>
+  <si>
+    <t>Matthew Nicholas</t>
+  </si>
+  <si>
+    <t>Azz Bouleghlimat</t>
+  </si>
+  <si>
+    <t>P1.03</t>
+  </si>
+  <si>
+    <t>Ben Wigmore</t>
+  </si>
+  <si>
+    <t>Alan Reader</t>
+  </si>
+  <si>
+    <t>Fluffy</t>
+  </si>
+  <si>
+    <t>Gordon Bailey</t>
+  </si>
+  <si>
+    <t>Max Robinson</t>
+  </si>
+  <si>
+    <t>Neil Yates</t>
+  </si>
+  <si>
+    <t>Matt Swaby</t>
+  </si>
+  <si>
+    <t>Xander Ford</t>
+  </si>
+  <si>
+    <t>Kingsley Baxter</t>
+  </si>
+  <si>
+    <t>P1.05</t>
+  </si>
+  <si>
+    <t>Alex Thompkins (2nd)</t>
+  </si>
+  <si>
+    <t>Colin O'Neil</t>
+  </si>
+  <si>
+    <t>Sam Myers</t>
+  </si>
+  <si>
+    <t>Sheffield wargamers</t>
+  </si>
+  <si>
+    <t>Tom Howle 2nd</t>
+  </si>
+  <si>
+    <t>Clare Challinor</t>
+  </si>
+  <si>
+    <t>Jade Knight</t>
+  </si>
+  <si>
+    <t>Lauren Shaw</t>
+  </si>
+  <si>
+    <t>Joe Roberts</t>
+  </si>
+  <si>
+    <t>Leo Allen</t>
+  </si>
+  <si>
+    <t>Sarah Deevy</t>
+  </si>
+  <si>
+    <t>Mike 'sirname'</t>
+  </si>
+  <si>
+    <t>Joseph Martin</t>
+  </si>
+  <si>
+    <t>Liz Lethal</t>
+  </si>
+  <si>
+    <t>Rebecca Tordoff</t>
+  </si>
+  <si>
+    <t>Simon Jessop</t>
+  </si>
+  <si>
+    <t>Lianne Wilson</t>
+  </si>
+  <si>
+    <t>Jonathan Kyte</t>
+  </si>
+  <si>
+    <t>robert Murray</t>
+  </si>
+  <si>
+    <t>Jackie Waldrom</t>
+  </si>
+  <si>
+    <t>Sam Myatt</t>
+  </si>
+  <si>
+    <t>Michael Seppala</t>
+  </si>
+  <si>
+    <t>Richie Rae</t>
+  </si>
+  <si>
+    <t>Emma Newham (2nd)</t>
+  </si>
+  <si>
+    <t>HU1.80</t>
+  </si>
+  <si>
+    <t>Heather Williams</t>
+  </si>
+  <si>
+    <t>Alan Benito</t>
+  </si>
+  <si>
+    <t>Alfred (owlbear) Hather</t>
+  </si>
+  <si>
+    <t>Faye Smith</t>
+  </si>
+  <si>
+    <t>Zach Hogan</t>
+  </si>
+  <si>
+    <t>Lucille Thompson</t>
+  </si>
+  <si>
+    <t>chris reay (3)</t>
+  </si>
+  <si>
+    <t>Fiona Hartley</t>
+  </si>
+  <si>
+    <t>Catherine Armstrong (2nd)</t>
+  </si>
+  <si>
+    <t>Rebecca Catan</t>
+  </si>
+  <si>
+    <t>Peter Jones</t>
+  </si>
+  <si>
+    <t>Ellie Swinford</t>
+  </si>
+  <si>
+    <t>David Mumford</t>
+  </si>
+  <si>
+    <t>Lizzie Vialls</t>
+  </si>
+  <si>
+    <t>Jonathan Lees</t>
+  </si>
+  <si>
+    <t>Jade 'Sirname'</t>
+  </si>
+  <si>
+    <t>Mara Wissenbach</t>
+  </si>
+  <si>
+    <t>Delwyn Gee</t>
+  </si>
+  <si>
+    <t>Charlotte Linstead</t>
+  </si>
+  <si>
+    <t>Iain Mitchell</t>
+  </si>
+  <si>
+    <t>Badger</t>
+  </si>
+  <si>
+    <t>Matthew Guthrie</t>
+  </si>
+  <si>
+    <t>Cat Humphries</t>
+  </si>
+  <si>
+    <t>Ian Semmens</t>
+  </si>
+  <si>
+    <t>Robyn McConnell</t>
+  </si>
+  <si>
+    <t>Ivan Causey</t>
+  </si>
+  <si>
+    <t>Sam Wilson</t>
+  </si>
+  <si>
+    <t>Edward Piercy</t>
+  </si>
+  <si>
+    <t>Sam Ball</t>
+  </si>
+  <si>
+    <t>Paul Cordukes</t>
+  </si>
+  <si>
+    <t>Michael Clarke</t>
+  </si>
+  <si>
+    <t>Andrew Coates</t>
+  </si>
+  <si>
+    <t>Shaun Rhodes (2)</t>
+  </si>
+  <si>
+    <t>Ben Lisle</t>
+  </si>
+  <si>
+    <t>Matt Fawcett</t>
+  </si>
+  <si>
+    <t>James Sorrell</t>
+  </si>
+  <si>
+    <t>Gordon Barlow</t>
+  </si>
+  <si>
+    <t>Simon Canham</t>
+  </si>
+  <si>
+    <t>Ross Brain</t>
+  </si>
+  <si>
+    <t>Craig Sambells</t>
+  </si>
+  <si>
+    <t>Ginga Jackson</t>
+  </si>
+  <si>
+    <t>Jack Moran</t>
+  </si>
+  <si>
+    <t>Adam Ford</t>
+  </si>
+  <si>
+    <t>Adam Martin</t>
+  </si>
+  <si>
+    <t>Jack Caesar</t>
+  </si>
+  <si>
+    <t>Michael Sajjad</t>
+  </si>
+  <si>
+    <t>Harry Janes</t>
+  </si>
+  <si>
+    <t>Steven Miller-Hamett</t>
+  </si>
+  <si>
+    <t>Richard Philips</t>
+  </si>
+  <si>
+    <t>Joe 'sirname'</t>
+  </si>
+  <si>
+    <t>Patrick Linett</t>
+  </si>
+  <si>
+    <t>Davie Whyte</t>
+  </si>
+  <si>
+    <t>Reece Johnson</t>
+  </si>
+  <si>
+    <t>Chris Haining</t>
+  </si>
+  <si>
+    <t>Craig Richards</t>
+  </si>
+  <si>
+    <t>Kevin McMail</t>
+  </si>
+  <si>
+    <t>Tony Oliver</t>
+  </si>
+  <si>
+    <t>Andrew Crawford</t>
+  </si>
+  <si>
+    <t>William Ramsey</t>
+  </si>
+  <si>
+    <t>Gemma Boulton</t>
+  </si>
+  <si>
+    <t>Sean Barlett</t>
+  </si>
+  <si>
+    <t>Anne-Marie Garrett</t>
+  </si>
+  <si>
+    <t>jake chambers</t>
+  </si>
+  <si>
+    <t>patrick hunt</t>
+  </si>
+  <si>
+    <t>Alex Hill</t>
+  </si>
+  <si>
+    <t>Kevin Pass</t>
+  </si>
+  <si>
+    <t>Tim Simpson</t>
+  </si>
+  <si>
+    <t>David Swan</t>
+  </si>
+  <si>
+    <t>James Hilt</t>
+  </si>
+  <si>
+    <t>Connor Anderson</t>
+  </si>
+  <si>
+    <t>Alex Acres</t>
+  </si>
+  <si>
+    <t>Thomas Chenery</t>
+  </si>
+  <si>
+    <t>Alex Hynes</t>
+  </si>
+  <si>
+    <t>James Buckley</t>
+  </si>
+  <si>
+    <t>Tom Irwin</t>
+  </si>
+  <si>
+    <t>Charlotte Connolly-Hayes</t>
+  </si>
+  <si>
+    <t>Amy Williams</t>
+  </si>
+  <si>
+    <t>Mark Threlfall</t>
+  </si>
+  <si>
+    <t>Robert Gray</t>
+  </si>
+  <si>
+    <t>Nathan Craven (2rd)</t>
+  </si>
+  <si>
+    <t>Alex Drake</t>
+  </si>
+  <si>
+    <t>crags</t>
+  </si>
+  <si>
+    <t>Michal Zytka</t>
+  </si>
+  <si>
+    <t>Wester Van Urk</t>
+  </si>
+  <si>
+    <t>Zak Banbury</t>
+  </si>
+  <si>
+    <t>Hugh John Harry Gallagher</t>
+  </si>
+  <si>
+    <t>Graham Dickens</t>
+  </si>
+  <si>
+    <t>Tony Williams</t>
+  </si>
+  <si>
+    <t>Avery Kyle Read 'bob'</t>
+  </si>
+  <si>
+    <t>Alan Salaun</t>
+  </si>
+  <si>
+    <t>Chris Parkinson</t>
+  </si>
+  <si>
+    <t>Tracy Kerr</t>
+  </si>
+  <si>
+    <t>Kerry Adam</t>
+  </si>
+  <si>
+    <t>Kayt Ainger</t>
+  </si>
+  <si>
+    <t>Adrian Barnes (2nd)</t>
+  </si>
+  <si>
+    <t>Sue Breakwell</t>
+  </si>
+  <si>
+    <t>Garps</t>
+  </si>
+  <si>
+    <t>Ben Dixon</t>
+  </si>
+  <si>
+    <t>Zak 'sirname'</t>
+  </si>
+  <si>
+    <t>Josh Cohen</t>
+  </si>
+  <si>
+    <t>Cameron Morris</t>
+  </si>
+  <si>
+    <t>Harry Burrell</t>
+  </si>
+  <si>
+    <t>callum dougherty</t>
+  </si>
+  <si>
+    <t>john Breakwell</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>Stuart Smith</t>
+  </si>
+  <si>
+    <t>Amy Van Tromp</t>
+  </si>
+  <si>
+    <t>Amy Bancroft</t>
+  </si>
+  <si>
+    <t>Ben Padwick</t>
+  </si>
+  <si>
+    <t>erys Heath</t>
+  </si>
+  <si>
+    <t>Becky Woodman</t>
+  </si>
+  <si>
+    <t>Sam Silver</t>
+  </si>
+  <si>
+    <t>Bethany Denton</t>
+  </si>
+  <si>
+    <t>Elise Pratt</t>
+  </si>
+  <si>
+    <t>Laura Keeble</t>
+  </si>
+  <si>
+    <t>Ben Percy</t>
+  </si>
+  <si>
+    <t>Emily Hopley</t>
+  </si>
+  <si>
+    <t>Sara Kay</t>
+  </si>
+  <si>
+    <t>stevie harrison</t>
+  </si>
+  <si>
+    <t>Andy Sparks</t>
+  </si>
+  <si>
+    <t>Natasha Ordish</t>
+  </si>
+  <si>
+    <t>Rhys White</t>
+  </si>
+  <si>
+    <t>Mark Randall</t>
+  </si>
+  <si>
+    <t>Peter Juggins</t>
+  </si>
+  <si>
+    <t>charlotte bayliss</t>
+  </si>
+  <si>
+    <t>jonathan boddy</t>
+  </si>
+  <si>
+    <t>Rhidian Barrett</t>
+  </si>
+  <si>
+    <t>David Lablond</t>
+  </si>
+  <si>
+    <t>Collette Yates</t>
+  </si>
+  <si>
+    <t>John Ryan</t>
+  </si>
+  <si>
+    <t>Liam Young</t>
+  </si>
+  <si>
+    <t>Burnie Wilkes</t>
+  </si>
+  <si>
+    <t>Ant Atkins</t>
+  </si>
+  <si>
+    <t>Andrew Swan</t>
+  </si>
+  <si>
+    <t>Luke Fogg</t>
+  </si>
+  <si>
+    <t>Matt Calow</t>
+  </si>
+  <si>
+    <t>Alex Caygill</t>
+  </si>
+  <si>
+    <t>Joe Baldwin</t>
+  </si>
+  <si>
+    <t>Ash Dodsworth</t>
+  </si>
+  <si>
+    <t>Martin 'Sirname'</t>
+  </si>
+  <si>
+    <t>Joshua Paterson</t>
+  </si>
+  <si>
+    <t>Jean-luc Kelly</t>
+  </si>
+  <si>
+    <t>darryl lewis</t>
+  </si>
+  <si>
+    <t>robin graham</t>
+  </si>
+  <si>
+    <t>Andrew Bremmer</t>
+  </si>
+  <si>
+    <t>James Houston</t>
+  </si>
+  <si>
+    <t>Ben Leach</t>
+  </si>
+  <si>
+    <t>Adam Tudor</t>
+  </si>
+  <si>
+    <t>Paul Simson</t>
+  </si>
+  <si>
+    <t>Stuart Killoran</t>
+  </si>
+  <si>
+    <t>Stacey Poole</t>
+  </si>
+  <si>
+    <t>Matt Croad</t>
+  </si>
+  <si>
+    <t>Jonathan Kerr</t>
+  </si>
+  <si>
+    <t>Nicola Lyons</t>
+  </si>
+  <si>
+    <t>Ashley Cox</t>
+  </si>
+  <si>
+    <t>Claire Porter</t>
+  </si>
+  <si>
+    <t>Thomas Haden</t>
+  </si>
+  <si>
+    <t>Bill Lockhart-Richardson</t>
+  </si>
+  <si>
+    <t>Mike Johnstone</t>
+  </si>
+  <si>
+    <t>GEAS Wargamers</t>
+  </si>
+  <si>
+    <t>Robbie MacNiven</t>
+  </si>
+  <si>
+    <t>Ross Crichton</t>
+  </si>
+  <si>
+    <t>Matthew Hobday</t>
+  </si>
+  <si>
+    <t>Neil Rose</t>
+  </si>
+  <si>
+    <t>GEAS Vets</t>
+  </si>
+  <si>
+    <t>David McIlhinney</t>
+  </si>
+  <si>
+    <t>Phillip Somerville</t>
+  </si>
+  <si>
+    <t>Jimmy Marriott</t>
+  </si>
+  <si>
+    <t>Robert Richardson</t>
+  </si>
+  <si>
+    <t>Matthew Grimes</t>
+  </si>
+  <si>
+    <t>Daniel Lane</t>
+  </si>
+  <si>
+    <t>James Morris</t>
+  </si>
+  <si>
+    <t>Ben Cotton</t>
+  </si>
+  <si>
+    <t>Max Ayson</t>
+  </si>
+  <si>
+    <t>Will Lucas</t>
+  </si>
+  <si>
+    <t>Scott Bristow</t>
+  </si>
+  <si>
+    <t>Alex Mason</t>
+  </si>
+  <si>
+    <t>Tim Ennion</t>
+  </si>
+  <si>
+    <t>Jordan Cockram</t>
+  </si>
+  <si>
+    <t>Nattasha Tombs</t>
+  </si>
+  <si>
+    <t>Owen Bass</t>
+  </si>
+  <si>
+    <t>Hamish Walker</t>
+  </si>
+  <si>
+    <t>Timothy Maguire</t>
+  </si>
+  <si>
+    <t>Jamie Hancock</t>
+  </si>
+  <si>
+    <t>Gavin Wilkinson</t>
+  </si>
+  <si>
+    <t>Jeremy Anderson</t>
+  </si>
+  <si>
+    <t>Eleanor Bridge</t>
+  </si>
+  <si>
+    <t>Henry Kay</t>
+  </si>
+  <si>
+    <t>Alex Chan</t>
+  </si>
+  <si>
+    <t>Richard Howe</t>
+  </si>
+  <si>
+    <t>Ashley Green</t>
+  </si>
+  <si>
+    <t>Jake Perry</t>
+  </si>
+  <si>
+    <t>Jack Thomas</t>
+  </si>
+  <si>
+    <t>Craig Ross</t>
+  </si>
+  <si>
+    <t>Stuart Coutts</t>
+  </si>
+  <si>
+    <t>Joseph Clark</t>
+  </si>
+  <si>
+    <t>Elliot Crags</t>
+  </si>
+  <si>
+    <t>Euan McIntosh</t>
+  </si>
+  <si>
+    <t>Will Morriss</t>
+  </si>
+  <si>
+    <t>Benjamin Brain</t>
+  </si>
+  <si>
+    <t>Topher Buckle</t>
+  </si>
+  <si>
+    <t>Sam Wrightson</t>
+  </si>
+  <si>
+    <t>Damian Broadley</t>
+  </si>
+  <si>
+    <t>Anthony Porter</t>
+  </si>
+  <si>
+    <t>Ross edwards</t>
+  </si>
+  <si>
+    <t>Matthew Clayton</t>
+  </si>
+  <si>
+    <t>Bruno Brown</t>
+  </si>
+  <si>
+    <t>world of darkness new</t>
+  </si>
+  <si>
+    <t>Warhammer Fantasy Battle</t>
+  </si>
+  <si>
+    <t>War Machine, Hords</t>
   </si>
 </sst>
 </file>
@@ -581,7 +2406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -796,6 +2621,6506 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C630"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" t="s">
+        <v>210</v>
+      </c>
+      <c r="C116" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" t="s">
+        <v>92</v>
+      </c>
+      <c r="C117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" t="s">
+        <v>213</v>
+      </c>
+      <c r="C118" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="s">
+        <v>215</v>
+      </c>
+      <c r="C120" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" t="s">
+        <v>216</v>
+      </c>
+      <c r="C121" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>47</v>
+      </c>
+      <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>47</v>
+      </c>
+      <c r="B124" t="s">
+        <v>217</v>
+      </c>
+      <c r="C124" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B125" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>47</v>
+      </c>
+      <c r="B126" t="s">
+        <v>219</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>47</v>
+      </c>
+      <c r="B128" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>47</v>
+      </c>
+      <c r="B129" t="s">
+        <v>92</v>
+      </c>
+      <c r="C129" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>47</v>
+      </c>
+      <c r="B130" t="s">
+        <v>222</v>
+      </c>
+      <c r="C130" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>47</v>
+      </c>
+      <c r="B131" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>47</v>
+      </c>
+      <c r="B132" t="s">
+        <v>225</v>
+      </c>
+      <c r="C132" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>47</v>
+      </c>
+      <c r="B133" t="s">
+        <v>226</v>
+      </c>
+      <c r="C133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134" t="s">
+        <v>227</v>
+      </c>
+      <c r="C134" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B135" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>47</v>
+      </c>
+      <c r="B136" t="s">
+        <v>228</v>
+      </c>
+      <c r="C136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>47</v>
+      </c>
+      <c r="B137" t="s">
+        <v>229</v>
+      </c>
+      <c r="C137" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" t="s">
+        <v>230</v>
+      </c>
+      <c r="C138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>47</v>
+      </c>
+      <c r="B139" t="s">
+        <v>231</v>
+      </c>
+      <c r="C139" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>47</v>
+      </c>
+      <c r="B140" t="s">
+        <v>232</v>
+      </c>
+      <c r="C140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" t="s">
+        <v>79</v>
+      </c>
+      <c r="C142" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" t="s">
+        <v>233</v>
+      </c>
+      <c r="C143" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" t="s">
+        <v>234</v>
+      </c>
+      <c r="C144" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" t="s">
+        <v>235</v>
+      </c>
+      <c r="C145" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" t="s">
+        <v>236</v>
+      </c>
+      <c r="C146" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" t="s">
+        <v>237</v>
+      </c>
+      <c r="C147" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>48</v>
+      </c>
+      <c r="B149" t="s">
+        <v>238</v>
+      </c>
+      <c r="C149" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" t="s">
+        <v>239</v>
+      </c>
+      <c r="C150" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>48</v>
+      </c>
+      <c r="B151" t="s">
+        <v>240</v>
+      </c>
+      <c r="C151" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>48</v>
+      </c>
+      <c r="B152" t="s">
+        <v>241</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>48</v>
+      </c>
+      <c r="B153" t="s">
+        <v>242</v>
+      </c>
+      <c r="C153" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>48</v>
+      </c>
+      <c r="B154" t="s">
+        <v>99</v>
+      </c>
+      <c r="C154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>48</v>
+      </c>
+      <c r="B155" t="s">
+        <v>243</v>
+      </c>
+      <c r="C155" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>48</v>
+      </c>
+      <c r="B156" t="s">
+        <v>244</v>
+      </c>
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>48</v>
+      </c>
+      <c r="B157" t="s">
+        <v>245</v>
+      </c>
+      <c r="C157" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" t="s">
+        <v>246</v>
+      </c>
+      <c r="C158" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" t="s">
+        <v>247</v>
+      </c>
+      <c r="C159" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>49</v>
+      </c>
+      <c r="B161" t="s">
+        <v>79</v>
+      </c>
+      <c r="C161" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" t="s">
+        <v>248</v>
+      </c>
+      <c r="C162" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>49</v>
+      </c>
+      <c r="B163" t="s">
+        <v>249</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>49</v>
+      </c>
+      <c r="B164" t="s">
+        <v>250</v>
+      </c>
+      <c r="C164" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>49</v>
+      </c>
+      <c r="B165" t="s">
+        <v>251</v>
+      </c>
+      <c r="C165" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>49</v>
+      </c>
+      <c r="B166" t="s">
+        <v>252</v>
+      </c>
+      <c r="C166" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>49</v>
+      </c>
+      <c r="B167" t="s">
+        <v>253</v>
+      </c>
+      <c r="C167" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>49</v>
+      </c>
+      <c r="B168" t="s">
+        <v>92</v>
+      </c>
+      <c r="C168" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>49</v>
+      </c>
+      <c r="B169" t="s">
+        <v>255</v>
+      </c>
+      <c r="C169" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>49</v>
+      </c>
+      <c r="B170" t="s">
+        <v>256</v>
+      </c>
+      <c r="C170" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>49</v>
+      </c>
+      <c r="B171" t="s">
+        <v>257</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>49</v>
+      </c>
+      <c r="B172" t="s">
+        <v>258</v>
+      </c>
+      <c r="C172" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" t="s">
+        <v>259</v>
+      </c>
+      <c r="C173" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>49</v>
+      </c>
+      <c r="B174" t="s">
+        <v>99</v>
+      </c>
+      <c r="C174" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>49</v>
+      </c>
+      <c r="B175" t="s">
+        <v>261</v>
+      </c>
+      <c r="C175" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>49</v>
+      </c>
+      <c r="B176" t="s">
+        <v>263</v>
+      </c>
+      <c r="C176" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" t="s">
+        <v>264</v>
+      </c>
+      <c r="C177" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" t="s">
+        <v>266</v>
+      </c>
+      <c r="C178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>49</v>
+      </c>
+      <c r="B179" t="s">
+        <v>267</v>
+      </c>
+      <c r="C179" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>50</v>
+      </c>
+      <c r="B181" t="s">
+        <v>79</v>
+      </c>
+      <c r="C181" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>50</v>
+      </c>
+      <c r="B182" t="s">
+        <v>269</v>
+      </c>
+      <c r="C182" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>50</v>
+      </c>
+      <c r="B183" t="s">
+        <v>270</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184" t="s">
+        <v>271</v>
+      </c>
+      <c r="C184" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>50</v>
+      </c>
+      <c r="B185" t="s">
+        <v>272</v>
+      </c>
+      <c r="C185" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>50</v>
+      </c>
+      <c r="B186" t="s">
+        <v>273</v>
+      </c>
+      <c r="C186" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>50</v>
+      </c>
+      <c r="B187" t="s">
+        <v>92</v>
+      </c>
+      <c r="C187" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>50</v>
+      </c>
+      <c r="B188" t="s">
+        <v>274</v>
+      </c>
+      <c r="C188" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>50</v>
+      </c>
+      <c r="B189" t="s">
+        <v>275</v>
+      </c>
+      <c r="C189" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" t="s">
+        <v>276</v>
+      </c>
+      <c r="C190" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>50</v>
+      </c>
+      <c r="B191" t="s">
+        <v>277</v>
+      </c>
+      <c r="C191" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>50</v>
+      </c>
+      <c r="B192" t="s">
+        <v>278</v>
+      </c>
+      <c r="C192" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>51</v>
+      </c>
+      <c r="B194" t="s">
+        <v>79</v>
+      </c>
+      <c r="C194" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>51</v>
+      </c>
+      <c r="B195" t="s">
+        <v>280</v>
+      </c>
+      <c r="C195" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>51</v>
+      </c>
+      <c r="B196" t="s">
+        <v>281</v>
+      </c>
+      <c r="C196" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>51</v>
+      </c>
+      <c r="B197" t="s">
+        <v>282</v>
+      </c>
+      <c r="C197" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>51</v>
+      </c>
+      <c r="B198" t="s">
+        <v>283</v>
+      </c>
+      <c r="C198" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>51</v>
+      </c>
+      <c r="B199" t="s">
+        <v>284</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>51</v>
+      </c>
+      <c r="B200" t="s">
+        <v>92</v>
+      </c>
+      <c r="C200" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>51</v>
+      </c>
+      <c r="B201" t="s">
+        <v>286</v>
+      </c>
+      <c r="C201" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>51</v>
+      </c>
+      <c r="B202" t="s">
+        <v>287</v>
+      </c>
+      <c r="C202" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>51</v>
+      </c>
+      <c r="B203" t="s">
+        <v>288</v>
+      </c>
+      <c r="C203" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>51</v>
+      </c>
+      <c r="B204" t="s">
+        <v>289</v>
+      </c>
+      <c r="C204" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>51</v>
+      </c>
+      <c r="B205" t="s">
+        <v>291</v>
+      </c>
+      <c r="C205" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>52</v>
+      </c>
+      <c r="B207" t="s">
+        <v>79</v>
+      </c>
+      <c r="C207" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>52</v>
+      </c>
+      <c r="B208" t="s">
+        <v>292</v>
+      </c>
+      <c r="C208" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>52</v>
+      </c>
+      <c r="B209" t="s">
+        <v>293</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>52</v>
+      </c>
+      <c r="B210" t="s">
+        <v>294</v>
+      </c>
+      <c r="C210" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>52</v>
+      </c>
+      <c r="B211" t="s">
+        <v>295</v>
+      </c>
+      <c r="C211" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>52</v>
+      </c>
+      <c r="B212" t="s">
+        <v>296</v>
+      </c>
+      <c r="C212" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>52</v>
+      </c>
+      <c r="B213" t="s">
+        <v>297</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>52</v>
+      </c>
+      <c r="B214" t="s">
+        <v>92</v>
+      </c>
+      <c r="C214" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>52</v>
+      </c>
+      <c r="B215" t="s">
+        <v>298</v>
+      </c>
+      <c r="C215" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>52</v>
+      </c>
+      <c r="B216" t="s">
+        <v>299</v>
+      </c>
+      <c r="C216" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>52</v>
+      </c>
+      <c r="B217" t="s">
+        <v>300</v>
+      </c>
+      <c r="C217" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>52</v>
+      </c>
+      <c r="B218" t="s">
+        <v>301</v>
+      </c>
+      <c r="C218" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>52</v>
+      </c>
+      <c r="B219" t="s">
+        <v>302</v>
+      </c>
+      <c r="C219" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>52</v>
+      </c>
+      <c r="B220" t="s">
+        <v>303</v>
+      </c>
+      <c r="C220" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>53</v>
+      </c>
+      <c r="B222" t="s">
+        <v>79</v>
+      </c>
+      <c r="C222" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>53</v>
+      </c>
+      <c r="B223" t="s">
+        <v>306</v>
+      </c>
+      <c r="C223" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>53</v>
+      </c>
+      <c r="B224" t="s">
+        <v>307</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>53</v>
+      </c>
+      <c r="B225" t="s">
+        <v>308</v>
+      </c>
+      <c r="C225" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>53</v>
+      </c>
+      <c r="B226" t="s">
+        <v>309</v>
+      </c>
+      <c r="C226" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>53</v>
+      </c>
+      <c r="B227" t="s">
+        <v>310</v>
+      </c>
+      <c r="C227" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>53</v>
+      </c>
+      <c r="B228" t="s">
+        <v>311</v>
+      </c>
+      <c r="C228" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>53</v>
+      </c>
+      <c r="B229" t="s">
+        <v>92</v>
+      </c>
+      <c r="C229" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>53</v>
+      </c>
+      <c r="B230" t="s">
+        <v>313</v>
+      </c>
+      <c r="C230" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>53</v>
+      </c>
+      <c r="B231" t="s">
+        <v>314</v>
+      </c>
+      <c r="C231" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>53</v>
+      </c>
+      <c r="B232" t="s">
+        <v>315</v>
+      </c>
+      <c r="C232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>53</v>
+      </c>
+      <c r="B233" t="s">
+        <v>316</v>
+      </c>
+      <c r="C233" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>53</v>
+      </c>
+      <c r="B234" t="s">
+        <v>317</v>
+      </c>
+      <c r="C234" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>54</v>
+      </c>
+      <c r="B236" t="s">
+        <v>79</v>
+      </c>
+      <c r="C236" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>54</v>
+      </c>
+      <c r="B237" t="s">
+        <v>319</v>
+      </c>
+      <c r="C237" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>54</v>
+      </c>
+      <c r="B238" t="s">
+        <v>321</v>
+      </c>
+      <c r="C238" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>54</v>
+      </c>
+      <c r="B239" t="s">
+        <v>322</v>
+      </c>
+      <c r="C239" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>54</v>
+      </c>
+      <c r="B240" t="s">
+        <v>323</v>
+      </c>
+      <c r="C240" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>54</v>
+      </c>
+      <c r="B241" t="s">
+        <v>324</v>
+      </c>
+      <c r="C241" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>54</v>
+      </c>
+      <c r="B242" t="s">
+        <v>325</v>
+      </c>
+      <c r="C242" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>54</v>
+      </c>
+      <c r="B243" t="s">
+        <v>92</v>
+      </c>
+      <c r="C243" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>54</v>
+      </c>
+      <c r="B244" t="s">
+        <v>327</v>
+      </c>
+      <c r="C244" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>54</v>
+      </c>
+      <c r="B245" t="s">
+        <v>328</v>
+      </c>
+      <c r="C245" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>54</v>
+      </c>
+      <c r="B246" t="s">
+        <v>329</v>
+      </c>
+      <c r="C246" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>54</v>
+      </c>
+      <c r="B247" t="s">
+        <v>330</v>
+      </c>
+      <c r="C247" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>54</v>
+      </c>
+      <c r="B248" t="s">
+        <v>331</v>
+      </c>
+      <c r="C248" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>54</v>
+      </c>
+      <c r="B249" t="s">
+        <v>332</v>
+      </c>
+      <c r="C249" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>55</v>
+      </c>
+      <c r="B251" t="s">
+        <v>79</v>
+      </c>
+      <c r="C251" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>55</v>
+      </c>
+      <c r="B252" t="s">
+        <v>334</v>
+      </c>
+      <c r="C252" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>55</v>
+      </c>
+      <c r="B253" t="s">
+        <v>335</v>
+      </c>
+      <c r="C253" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>55</v>
+      </c>
+      <c r="B254" t="s">
+        <v>336</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>55</v>
+      </c>
+      <c r="B255" t="s">
+        <v>337</v>
+      </c>
+      <c r="C255" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>55</v>
+      </c>
+      <c r="B256" t="s">
+        <v>338</v>
+      </c>
+      <c r="C256" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>55</v>
+      </c>
+      <c r="B257" t="s">
+        <v>339</v>
+      </c>
+      <c r="C257" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>55</v>
+      </c>
+      <c r="B258" t="s">
+        <v>92</v>
+      </c>
+      <c r="C258" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>55</v>
+      </c>
+      <c r="B259" t="s">
+        <v>341</v>
+      </c>
+      <c r="C259" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>55</v>
+      </c>
+      <c r="B260" t="s">
+        <v>342</v>
+      </c>
+      <c r="C260" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>55</v>
+      </c>
+      <c r="B261" t="s">
+        <v>343</v>
+      </c>
+      <c r="C261" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>55</v>
+      </c>
+      <c r="B262" t="s">
+        <v>344</v>
+      </c>
+      <c r="C262" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>55</v>
+      </c>
+      <c r="B263" t="s">
+        <v>345</v>
+      </c>
+      <c r="C263" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>55</v>
+      </c>
+      <c r="B264" t="s">
+        <v>99</v>
+      </c>
+      <c r="C264" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>55</v>
+      </c>
+      <c r="B265" t="s">
+        <v>346</v>
+      </c>
+      <c r="C265" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>55</v>
+      </c>
+      <c r="B266" t="s">
+        <v>347</v>
+      </c>
+      <c r="C266" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>55</v>
+      </c>
+      <c r="B267" t="s">
+        <v>348</v>
+      </c>
+      <c r="C267" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>55</v>
+      </c>
+      <c r="B268" t="s">
+        <v>349</v>
+      </c>
+      <c r="C268" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>55</v>
+      </c>
+      <c r="B269" t="s">
+        <v>350</v>
+      </c>
+      <c r="C269" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>56</v>
+      </c>
+      <c r="B271" t="s">
+        <v>79</v>
+      </c>
+      <c r="C271" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>56</v>
+      </c>
+      <c r="B272" t="s">
+        <v>351</v>
+      </c>
+      <c r="C272" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>56</v>
+      </c>
+      <c r="B273" t="s">
+        <v>352</v>
+      </c>
+      <c r="C273" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>56</v>
+      </c>
+      <c r="B274" t="s">
+        <v>353</v>
+      </c>
+      <c r="C274" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>56</v>
+      </c>
+      <c r="B275" t="s">
+        <v>354</v>
+      </c>
+      <c r="C275" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>56</v>
+      </c>
+      <c r="B276" t="s">
+        <v>355</v>
+      </c>
+      <c r="C276" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>56</v>
+      </c>
+      <c r="B277" t="s">
+        <v>356</v>
+      </c>
+      <c r="C277" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>56</v>
+      </c>
+      <c r="B278" t="s">
+        <v>92</v>
+      </c>
+      <c r="C278" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>56</v>
+      </c>
+      <c r="B279" t="s">
+        <v>358</v>
+      </c>
+      <c r="C279" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>56</v>
+      </c>
+      <c r="B280" t="s">
+        <v>359</v>
+      </c>
+      <c r="C280" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>56</v>
+      </c>
+      <c r="B281" t="s">
+        <v>361</v>
+      </c>
+      <c r="C281" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>56</v>
+      </c>
+      <c r="B282" t="s">
+        <v>362</v>
+      </c>
+      <c r="C282" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>56</v>
+      </c>
+      <c r="B283" t="s">
+        <v>363</v>
+      </c>
+      <c r="C283" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>56</v>
+      </c>
+      <c r="B284" t="s">
+        <v>364</v>
+      </c>
+      <c r="C284" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>57</v>
+      </c>
+      <c r="B286" t="s">
+        <v>79</v>
+      </c>
+      <c r="C286" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>57</v>
+      </c>
+      <c r="B287" t="s">
+        <v>365</v>
+      </c>
+      <c r="C287" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>57</v>
+      </c>
+      <c r="B288" t="s">
+        <v>366</v>
+      </c>
+      <c r="C288" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>57</v>
+      </c>
+      <c r="B289" t="s">
+        <v>367</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>57</v>
+      </c>
+      <c r="B290" t="s">
+        <v>368</v>
+      </c>
+      <c r="C290" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>57</v>
+      </c>
+      <c r="B291" t="s">
+        <v>369</v>
+      </c>
+      <c r="C291" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>57</v>
+      </c>
+      <c r="B292" t="s">
+        <v>370</v>
+      </c>
+      <c r="C292" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>57</v>
+      </c>
+      <c r="B293" t="s">
+        <v>92</v>
+      </c>
+      <c r="C293" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>57</v>
+      </c>
+      <c r="B294" t="s">
+        <v>372</v>
+      </c>
+      <c r="C294" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>57</v>
+      </c>
+      <c r="B295" t="s">
+        <v>373</v>
+      </c>
+      <c r="C295" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>57</v>
+      </c>
+      <c r="B296" t="s">
+        <v>374</v>
+      </c>
+      <c r="C296" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>57</v>
+      </c>
+      <c r="B297" t="s">
+        <v>375</v>
+      </c>
+      <c r="C297" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>57</v>
+      </c>
+      <c r="B298" t="s">
+        <v>376</v>
+      </c>
+      <c r="C298" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>58</v>
+      </c>
+      <c r="B300" t="s">
+        <v>79</v>
+      </c>
+      <c r="C300" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>58</v>
+      </c>
+      <c r="B301" t="s">
+        <v>377</v>
+      </c>
+      <c r="C301" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>58</v>
+      </c>
+      <c r="B302" t="s">
+        <v>378</v>
+      </c>
+      <c r="C302" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>58</v>
+      </c>
+      <c r="B303" t="s">
+        <v>379</v>
+      </c>
+      <c r="C303" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>58</v>
+      </c>
+      <c r="B304" t="s">
+        <v>381</v>
+      </c>
+      <c r="C304" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>58</v>
+      </c>
+      <c r="B305" t="s">
+        <v>382</v>
+      </c>
+      <c r="C305" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>58</v>
+      </c>
+      <c r="B306" t="s">
+        <v>383</v>
+      </c>
+      <c r="C306" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>58</v>
+      </c>
+      <c r="B307" t="s">
+        <v>92</v>
+      </c>
+      <c r="C307" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>58</v>
+      </c>
+      <c r="B308" t="s">
+        <v>385</v>
+      </c>
+      <c r="C308" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>58</v>
+      </c>
+      <c r="B309" t="s">
+        <v>386</v>
+      </c>
+      <c r="C309" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>58</v>
+      </c>
+      <c r="B310" t="s">
+        <v>387</v>
+      </c>
+      <c r="C310" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>58</v>
+      </c>
+      <c r="B311" t="s">
+        <v>388</v>
+      </c>
+      <c r="C311" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>58</v>
+      </c>
+      <c r="B312" t="s">
+        <v>389</v>
+      </c>
+      <c r="C312" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>58</v>
+      </c>
+      <c r="B313" t="s">
+        <v>390</v>
+      </c>
+      <c r="C313" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>59</v>
+      </c>
+      <c r="B315" t="s">
+        <v>79</v>
+      </c>
+      <c r="C315" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>59</v>
+      </c>
+      <c r="B316" t="s">
+        <v>391</v>
+      </c>
+      <c r="C316" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>59</v>
+      </c>
+      <c r="B317" t="s">
+        <v>392</v>
+      </c>
+      <c r="C317" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>59</v>
+      </c>
+      <c r="B318" t="s">
+        <v>393</v>
+      </c>
+      <c r="C318" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>59</v>
+      </c>
+      <c r="B319" t="s">
+        <v>394</v>
+      </c>
+      <c r="C319" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>59</v>
+      </c>
+      <c r="B320" t="s">
+        <v>395</v>
+      </c>
+      <c r="C320" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>59</v>
+      </c>
+      <c r="B321" t="s">
+        <v>396</v>
+      </c>
+      <c r="C321" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>59</v>
+      </c>
+      <c r="B322" t="s">
+        <v>92</v>
+      </c>
+      <c r="C322" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>59</v>
+      </c>
+      <c r="B323" t="s">
+        <v>397</v>
+      </c>
+      <c r="C323" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>59</v>
+      </c>
+      <c r="B324" t="s">
+        <v>398</v>
+      </c>
+      <c r="C324" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>59</v>
+      </c>
+      <c r="B325" t="s">
+        <v>399</v>
+      </c>
+      <c r="C325" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>59</v>
+      </c>
+      <c r="B326" t="s">
+        <v>400</v>
+      </c>
+      <c r="C326" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>59</v>
+      </c>
+      <c r="B327" t="s">
+        <v>401</v>
+      </c>
+      <c r="C327" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>59</v>
+      </c>
+      <c r="B328" t="s">
+        <v>402</v>
+      </c>
+      <c r="C328" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>60</v>
+      </c>
+      <c r="B330" t="s">
+        <v>79</v>
+      </c>
+      <c r="C330" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>60</v>
+      </c>
+      <c r="B331" t="s">
+        <v>404</v>
+      </c>
+      <c r="C331" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>60</v>
+      </c>
+      <c r="B332" t="s">
+        <v>405</v>
+      </c>
+      <c r="C332" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>60</v>
+      </c>
+      <c r="B333" t="s">
+        <v>406</v>
+      </c>
+      <c r="C333" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>60</v>
+      </c>
+      <c r="B334" t="s">
+        <v>407</v>
+      </c>
+      <c r="C334" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>60</v>
+      </c>
+      <c r="B335" t="s">
+        <v>408</v>
+      </c>
+      <c r="C335" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>60</v>
+      </c>
+      <c r="B336" t="s">
+        <v>92</v>
+      </c>
+      <c r="C336" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>60</v>
+      </c>
+      <c r="B337" t="s">
+        <v>410</v>
+      </c>
+      <c r="C337" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>60</v>
+      </c>
+      <c r="B338" t="s">
+        <v>411</v>
+      </c>
+      <c r="C338" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>60</v>
+      </c>
+      <c r="B339" t="s">
+        <v>412</v>
+      </c>
+      <c r="C339" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>60</v>
+      </c>
+      <c r="B340" t="s">
+        <v>413</v>
+      </c>
+      <c r="C340" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>60</v>
+      </c>
+      <c r="B341" t="s">
+        <v>414</v>
+      </c>
+      <c r="C341" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>61</v>
+      </c>
+      <c r="B343" t="s">
+        <v>79</v>
+      </c>
+      <c r="C343" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>61</v>
+      </c>
+      <c r="B344" t="s">
+        <v>416</v>
+      </c>
+      <c r="C344" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>61</v>
+      </c>
+      <c r="B345" t="s">
+        <v>417</v>
+      </c>
+      <c r="C345" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>61</v>
+      </c>
+      <c r="B346" t="s">
+        <v>418</v>
+      </c>
+      <c r="C346" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>61</v>
+      </c>
+      <c r="B347" t="s">
+        <v>419</v>
+      </c>
+      <c r="C347" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>61</v>
+      </c>
+      <c r="B348" t="s">
+        <v>420</v>
+      </c>
+      <c r="C348" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>61</v>
+      </c>
+      <c r="B349" t="s">
+        <v>421</v>
+      </c>
+      <c r="C349" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>61</v>
+      </c>
+      <c r="B350" t="s">
+        <v>92</v>
+      </c>
+      <c r="C350" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>61</v>
+      </c>
+      <c r="B351" t="s">
+        <v>423</v>
+      </c>
+      <c r="C351" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>61</v>
+      </c>
+      <c r="B352" t="s">
+        <v>424</v>
+      </c>
+      <c r="C352" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>61</v>
+      </c>
+      <c r="B353" t="s">
+        <v>425</v>
+      </c>
+      <c r="C353" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>61</v>
+      </c>
+      <c r="B354" t="s">
+        <v>426</v>
+      </c>
+      <c r="C354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>61</v>
+      </c>
+      <c r="B355" t="s">
+        <v>427</v>
+      </c>
+      <c r="C355" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>61</v>
+      </c>
+      <c r="B356" t="s">
+        <v>428</v>
+      </c>
+      <c r="C356" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>62</v>
+      </c>
+      <c r="B358" t="s">
+        <v>79</v>
+      </c>
+      <c r="C358" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>62</v>
+      </c>
+      <c r="B359" t="s">
+        <v>430</v>
+      </c>
+      <c r="C359" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>62</v>
+      </c>
+      <c r="B360" t="s">
+        <v>431</v>
+      </c>
+      <c r="C360" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>62</v>
+      </c>
+      <c r="B361" t="s">
+        <v>432</v>
+      </c>
+      <c r="C361" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>62</v>
+      </c>
+      <c r="B362" t="s">
+        <v>433</v>
+      </c>
+      <c r="C362" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>62</v>
+      </c>
+      <c r="B363" t="s">
+        <v>434</v>
+      </c>
+      <c r="C363" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>62</v>
+      </c>
+      <c r="B364" t="s">
+        <v>92</v>
+      </c>
+      <c r="C364" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>62</v>
+      </c>
+      <c r="B365" t="s">
+        <v>436</v>
+      </c>
+      <c r="C365" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>62</v>
+      </c>
+      <c r="B366" t="s">
+        <v>437</v>
+      </c>
+      <c r="C366" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>62</v>
+      </c>
+      <c r="B367" t="s">
+        <v>438</v>
+      </c>
+      <c r="C367" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>62</v>
+      </c>
+      <c r="B368" t="s">
+        <v>439</v>
+      </c>
+      <c r="C368" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>62</v>
+      </c>
+      <c r="B369" t="s">
+        <v>440</v>
+      </c>
+      <c r="C369" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>62</v>
+      </c>
+      <c r="B370" t="s">
+        <v>99</v>
+      </c>
+      <c r="C370" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>62</v>
+      </c>
+      <c r="B371" t="s">
+        <v>442</v>
+      </c>
+      <c r="C371" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>62</v>
+      </c>
+      <c r="B372" t="s">
+        <v>443</v>
+      </c>
+      <c r="C372" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>62</v>
+      </c>
+      <c r="B373" t="s">
+        <v>444</v>
+      </c>
+      <c r="C373" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>62</v>
+      </c>
+      <c r="B374" t="s">
+        <v>445</v>
+      </c>
+      <c r="C374" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>62</v>
+      </c>
+      <c r="B375" t="s">
+        <v>446</v>
+      </c>
+      <c r="C375" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>63</v>
+      </c>
+      <c r="B377" t="s">
+        <v>79</v>
+      </c>
+      <c r="C377" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>63</v>
+      </c>
+      <c r="B378" t="s">
+        <v>447</v>
+      </c>
+      <c r="C378" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>63</v>
+      </c>
+      <c r="B379" t="s">
+        <v>448</v>
+      </c>
+      <c r="C379" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>63</v>
+      </c>
+      <c r="B380" t="s">
+        <v>449</v>
+      </c>
+      <c r="C380" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>63</v>
+      </c>
+      <c r="B381" t="s">
+        <v>450</v>
+      </c>
+      <c r="C381" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>63</v>
+      </c>
+      <c r="B382" t="s">
+        <v>92</v>
+      </c>
+      <c r="C382" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>63</v>
+      </c>
+      <c r="B383" t="s">
+        <v>452</v>
+      </c>
+      <c r="C383" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>63</v>
+      </c>
+      <c r="B384" t="s">
+        <v>453</v>
+      </c>
+      <c r="C384" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>63</v>
+      </c>
+      <c r="B385" t="s">
+        <v>454</v>
+      </c>
+      <c r="C385" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>63</v>
+      </c>
+      <c r="B386" t="s">
+        <v>456</v>
+      </c>
+      <c r="C386" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>64</v>
+      </c>
+      <c r="B388" t="s">
+        <v>79</v>
+      </c>
+      <c r="C388" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>64</v>
+      </c>
+      <c r="B389" t="s">
+        <v>457</v>
+      </c>
+      <c r="C389" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>64</v>
+      </c>
+      <c r="B390" t="s">
+        <v>458</v>
+      </c>
+      <c r="C390" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>64</v>
+      </c>
+      <c r="B391" t="s">
+        <v>459</v>
+      </c>
+      <c r="C391" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>64</v>
+      </c>
+      <c r="B392" t="s">
+        <v>460</v>
+      </c>
+      <c r="C392" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>64</v>
+      </c>
+      <c r="B393" t="s">
+        <v>461</v>
+      </c>
+      <c r="C393" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>64</v>
+      </c>
+      <c r="B394" t="s">
+        <v>92</v>
+      </c>
+      <c r="C394" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>64</v>
+      </c>
+      <c r="B395" t="s">
+        <v>462</v>
+      </c>
+      <c r="C395" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>64</v>
+      </c>
+      <c r="B396" t="s">
+        <v>463</v>
+      </c>
+      <c r="C396" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>64</v>
+      </c>
+      <c r="B397" t="s">
+        <v>464</v>
+      </c>
+      <c r="C397" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>64</v>
+      </c>
+      <c r="B398" t="s">
+        <v>465</v>
+      </c>
+      <c r="C398" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>65</v>
+      </c>
+      <c r="B400" t="s">
+        <v>79</v>
+      </c>
+      <c r="C400" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>65</v>
+      </c>
+      <c r="B401" t="s">
+        <v>466</v>
+      </c>
+      <c r="C401" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>65</v>
+      </c>
+      <c r="B402" t="s">
+        <v>467</v>
+      </c>
+      <c r="C402" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>65</v>
+      </c>
+      <c r="B403" t="s">
+        <v>468</v>
+      </c>
+      <c r="C403" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>65</v>
+      </c>
+      <c r="B404" t="s">
+        <v>469</v>
+      </c>
+      <c r="C404" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>65</v>
+      </c>
+      <c r="B405" t="s">
+        <v>470</v>
+      </c>
+      <c r="C405" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>65</v>
+      </c>
+      <c r="B406" t="s">
+        <v>92</v>
+      </c>
+      <c r="C406" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>65</v>
+      </c>
+      <c r="B407" t="s">
+        <v>471</v>
+      </c>
+      <c r="C407" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>65</v>
+      </c>
+      <c r="B408" t="s">
+        <v>472</v>
+      </c>
+      <c r="C408" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>65</v>
+      </c>
+      <c r="B409" t="s">
+        <v>473</v>
+      </c>
+      <c r="C409" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>65</v>
+      </c>
+      <c r="B410" t="s">
+        <v>474</v>
+      </c>
+      <c r="C410" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>65</v>
+      </c>
+      <c r="B411" t="s">
+        <v>475</v>
+      </c>
+      <c r="C411" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>684</v>
+      </c>
+      <c r="B413" t="s">
+        <v>79</v>
+      </c>
+      <c r="C413" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>684</v>
+      </c>
+      <c r="B414" t="s">
+        <v>477</v>
+      </c>
+      <c r="C414" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>684</v>
+      </c>
+      <c r="B415" t="s">
+        <v>478</v>
+      </c>
+      <c r="C415" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>684</v>
+      </c>
+      <c r="B416" t="s">
+        <v>479</v>
+      </c>
+      <c r="C416" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>684</v>
+      </c>
+      <c r="B417" t="s">
+        <v>480</v>
+      </c>
+      <c r="C417" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>684</v>
+      </c>
+      <c r="B418" t="s">
+        <v>481</v>
+      </c>
+      <c r="C418" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>684</v>
+      </c>
+      <c r="B419" t="s">
+        <v>92</v>
+      </c>
+      <c r="C419" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>684</v>
+      </c>
+      <c r="B420" t="s">
+        <v>482</v>
+      </c>
+      <c r="C420" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>684</v>
+      </c>
+      <c r="B421" t="s">
+        <v>483</v>
+      </c>
+      <c r="C421" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>684</v>
+      </c>
+      <c r="B422" t="s">
+        <v>484</v>
+      </c>
+      <c r="C422" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>684</v>
+      </c>
+      <c r="B423" t="s">
+        <v>485</v>
+      </c>
+      <c r="C423" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>38</v>
+      </c>
+      <c r="B425" t="s">
+        <v>486</v>
+      </c>
+      <c r="C425" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>38</v>
+      </c>
+      <c r="B426" t="s">
+        <v>487</v>
+      </c>
+      <c r="C426" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>38</v>
+      </c>
+      <c r="B427" t="s">
+        <v>488</v>
+      </c>
+      <c r="C427" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>38</v>
+      </c>
+      <c r="B428" t="s">
+        <v>489</v>
+      </c>
+      <c r="C428" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>38</v>
+      </c>
+      <c r="B429" t="s">
+        <v>490</v>
+      </c>
+      <c r="C429" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>38</v>
+      </c>
+      <c r="B430" t="s">
+        <v>491</v>
+      </c>
+      <c r="C430" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>38</v>
+      </c>
+      <c r="B431" t="s">
+        <v>492</v>
+      </c>
+      <c r="C431" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>38</v>
+      </c>
+      <c r="B432" t="s">
+        <v>493</v>
+      </c>
+      <c r="C432" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>38</v>
+      </c>
+      <c r="B433" t="s">
+        <v>494</v>
+      </c>
+      <c r="C433" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>38</v>
+      </c>
+      <c r="B434" t="s">
+        <v>495</v>
+      </c>
+      <c r="C434" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>38</v>
+      </c>
+      <c r="B435" t="s">
+        <v>496</v>
+      </c>
+      <c r="C435" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>38</v>
+      </c>
+      <c r="B436" t="s">
+        <v>497</v>
+      </c>
+      <c r="C436" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>38</v>
+      </c>
+      <c r="B437" t="s">
+        <v>498</v>
+      </c>
+      <c r="C437" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>38</v>
+      </c>
+      <c r="B438" t="s">
+        <v>499</v>
+      </c>
+      <c r="C438" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>38</v>
+      </c>
+      <c r="B439" t="s">
+        <v>500</v>
+      </c>
+      <c r="C439" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>66</v>
+      </c>
+      <c r="B442" t="s">
+        <v>501</v>
+      </c>
+      <c r="C442" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>66</v>
+      </c>
+      <c r="B443" t="s">
+        <v>502</v>
+      </c>
+      <c r="C443" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>66</v>
+      </c>
+      <c r="B444" t="s">
+        <v>503</v>
+      </c>
+      <c r="C444" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>66</v>
+      </c>
+      <c r="B445" t="s">
+        <v>504</v>
+      </c>
+      <c r="C445" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>66</v>
+      </c>
+      <c r="B446" t="s">
+        <v>505</v>
+      </c>
+      <c r="C446" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>66</v>
+      </c>
+      <c r="B447" t="s">
+        <v>506</v>
+      </c>
+      <c r="C447" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>66</v>
+      </c>
+      <c r="B448" t="s">
+        <v>507</v>
+      </c>
+      <c r="C448" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>66</v>
+      </c>
+      <c r="B449" t="s">
+        <v>508</v>
+      </c>
+      <c r="C449" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>66</v>
+      </c>
+      <c r="B450" t="s">
+        <v>509</v>
+      </c>
+      <c r="C450" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>68</v>
+      </c>
+      <c r="B452" t="s">
+        <v>510</v>
+      </c>
+      <c r="C452" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>68</v>
+      </c>
+      <c r="B453" t="s">
+        <v>511</v>
+      </c>
+      <c r="C453" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>68</v>
+      </c>
+      <c r="B454" t="s">
+        <v>512</v>
+      </c>
+      <c r="C454" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>68</v>
+      </c>
+      <c r="B455" t="s">
+        <v>513</v>
+      </c>
+      <c r="C455" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>68</v>
+      </c>
+      <c r="B456" t="s">
+        <v>514</v>
+      </c>
+      <c r="C456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>68</v>
+      </c>
+      <c r="B457" t="s">
+        <v>515</v>
+      </c>
+      <c r="C457" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>68</v>
+      </c>
+      <c r="B458" t="s">
+        <v>516</v>
+      </c>
+      <c r="C458" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>68</v>
+      </c>
+      <c r="B459" t="s">
+        <v>517</v>
+      </c>
+      <c r="C459" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>68</v>
+      </c>
+      <c r="B460" t="s">
+        <v>518</v>
+      </c>
+      <c r="C460" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>68</v>
+      </c>
+      <c r="B461" t="s">
+        <v>519</v>
+      </c>
+      <c r="C461" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>68</v>
+      </c>
+      <c r="B462" t="s">
+        <v>520</v>
+      </c>
+      <c r="C462" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>68</v>
+      </c>
+      <c r="B463" t="s">
+        <v>521</v>
+      </c>
+      <c r="C463" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>68</v>
+      </c>
+      <c r="B464" t="s">
+        <v>522</v>
+      </c>
+      <c r="C464" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>68</v>
+      </c>
+      <c r="B465" t="s">
+        <v>523</v>
+      </c>
+      <c r="C465" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>69</v>
+      </c>
+      <c r="B467" t="s">
+        <v>524</v>
+      </c>
+      <c r="C467" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>69</v>
+      </c>
+      <c r="B468" t="s">
+        <v>525</v>
+      </c>
+      <c r="C468" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>69</v>
+      </c>
+      <c r="B469" t="s">
+        <v>526</v>
+      </c>
+      <c r="C469" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>69</v>
+      </c>
+      <c r="B470" t="s">
+        <v>527</v>
+      </c>
+      <c r="C470" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>69</v>
+      </c>
+      <c r="B471" t="s">
+        <v>528</v>
+      </c>
+      <c r="C471" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>69</v>
+      </c>
+      <c r="B472" t="s">
+        <v>529</v>
+      </c>
+      <c r="C472" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>69</v>
+      </c>
+      <c r="B473" t="s">
+        <v>530</v>
+      </c>
+      <c r="C473" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>69</v>
+      </c>
+      <c r="B474" t="s">
+        <v>531</v>
+      </c>
+      <c r="C474" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>69</v>
+      </c>
+      <c r="B475" t="s">
+        <v>532</v>
+      </c>
+      <c r="C475" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>69</v>
+      </c>
+      <c r="B476" t="s">
+        <v>533</v>
+      </c>
+      <c r="C476" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>69</v>
+      </c>
+      <c r="B477" t="s">
+        <v>534</v>
+      </c>
+      <c r="C477" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>69</v>
+      </c>
+      <c r="B478" t="s">
+        <v>535</v>
+      </c>
+      <c r="C478" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>69</v>
+      </c>
+      <c r="B479" t="s">
+        <v>536</v>
+      </c>
+      <c r="C479" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>69</v>
+      </c>
+      <c r="B480" t="s">
+        <v>537</v>
+      </c>
+      <c r="C480" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>69</v>
+      </c>
+      <c r="B481" t="s">
+        <v>538</v>
+      </c>
+      <c r="C481" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>69</v>
+      </c>
+      <c r="B482" t="s">
+        <v>539</v>
+      </c>
+      <c r="C482" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>69</v>
+      </c>
+      <c r="B483" t="s">
+        <v>540</v>
+      </c>
+      <c r="C483" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>69</v>
+      </c>
+      <c r="B484" t="s">
+        <v>541</v>
+      </c>
+      <c r="C484" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>69</v>
+      </c>
+      <c r="B485" t="s">
+        <v>542</v>
+      </c>
+      <c r="C485" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>70</v>
+      </c>
+      <c r="B487" t="s">
+        <v>543</v>
+      </c>
+      <c r="C487" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>70</v>
+      </c>
+      <c r="B488" t="s">
+        <v>544</v>
+      </c>
+      <c r="C488" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>70</v>
+      </c>
+      <c r="B489" t="s">
+        <v>545</v>
+      </c>
+      <c r="C489" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>70</v>
+      </c>
+      <c r="B490" t="s">
+        <v>546</v>
+      </c>
+      <c r="C490" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>70</v>
+      </c>
+      <c r="B491" t="s">
+        <v>547</v>
+      </c>
+      <c r="C491" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>70</v>
+      </c>
+      <c r="B492" t="s">
+        <v>548</v>
+      </c>
+      <c r="C492" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>70</v>
+      </c>
+      <c r="B493" t="s">
+        <v>549</v>
+      </c>
+      <c r="C493" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>70</v>
+      </c>
+      <c r="B494" t="s">
+        <v>550</v>
+      </c>
+      <c r="C494" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>71</v>
+      </c>
+      <c r="B496" t="s">
+        <v>551</v>
+      </c>
+      <c r="C496" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>71</v>
+      </c>
+      <c r="B497" t="s">
+        <v>552</v>
+      </c>
+      <c r="C497" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>71</v>
+      </c>
+      <c r="B498" t="s">
+        <v>553</v>
+      </c>
+      <c r="C498" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>71</v>
+      </c>
+      <c r="B499" t="s">
+        <v>554</v>
+      </c>
+      <c r="C499" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>71</v>
+      </c>
+      <c r="B500" t="s">
+        <v>555</v>
+      </c>
+      <c r="C500" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>71</v>
+      </c>
+      <c r="B501" t="s">
+        <v>556</v>
+      </c>
+      <c r="C501" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>71</v>
+      </c>
+      <c r="B502" t="s">
+        <v>557</v>
+      </c>
+      <c r="C502" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>71</v>
+      </c>
+      <c r="B503" t="s">
+        <v>559</v>
+      </c>
+      <c r="C503" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>71</v>
+      </c>
+      <c r="B504" t="s">
+        <v>560</v>
+      </c>
+      <c r="C504" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>71</v>
+      </c>
+      <c r="B505" t="s">
+        <v>561</v>
+      </c>
+      <c r="C505" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>71</v>
+      </c>
+      <c r="B506" t="s">
+        <v>562</v>
+      </c>
+      <c r="C506" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>71</v>
+      </c>
+      <c r="B507" t="s">
+        <v>563</v>
+      </c>
+      <c r="C507" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>71</v>
+      </c>
+      <c r="B508" t="s">
+        <v>564</v>
+      </c>
+      <c r="C508" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>71</v>
+      </c>
+      <c r="B509" t="s">
+        <v>565</v>
+      </c>
+      <c r="C509" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>71</v>
+      </c>
+      <c r="B510" t="s">
+        <v>566</v>
+      </c>
+      <c r="C510" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>71</v>
+      </c>
+      <c r="B511" t="s">
+        <v>567</v>
+      </c>
+      <c r="C511" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>71</v>
+      </c>
+      <c r="B512" t="s">
+        <v>568</v>
+      </c>
+      <c r="C512" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>71</v>
+      </c>
+      <c r="B513" t="s">
+        <v>569</v>
+      </c>
+      <c r="C513" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>71</v>
+      </c>
+      <c r="B514" t="s">
+        <v>570</v>
+      </c>
+      <c r="C514" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>71</v>
+      </c>
+      <c r="B515" t="s">
+        <v>571</v>
+      </c>
+      <c r="C515" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>71</v>
+      </c>
+      <c r="B516" t="s">
+        <v>572</v>
+      </c>
+      <c r="C516" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>71</v>
+      </c>
+      <c r="B517" t="s">
+        <v>574</v>
+      </c>
+      <c r="C517" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>71</v>
+      </c>
+      <c r="B518" t="s">
+        <v>575</v>
+      </c>
+      <c r="C518" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>71</v>
+      </c>
+      <c r="B519" t="s">
+        <v>576</v>
+      </c>
+      <c r="C519" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>71</v>
+      </c>
+      <c r="B520" t="s">
+        <v>577</v>
+      </c>
+      <c r="C520" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>71</v>
+      </c>
+      <c r="B521" t="s">
+        <v>578</v>
+      </c>
+      <c r="C521" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>71</v>
+      </c>
+      <c r="B522" t="s">
+        <v>579</v>
+      </c>
+      <c r="C522" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>71</v>
+      </c>
+      <c r="B523" t="s">
+        <v>580</v>
+      </c>
+      <c r="C523" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>72</v>
+      </c>
+      <c r="B525" t="s">
+        <v>582</v>
+      </c>
+      <c r="C525" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>72</v>
+      </c>
+      <c r="B526" t="s">
+        <v>583</v>
+      </c>
+      <c r="C526" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>72</v>
+      </c>
+      <c r="B527" t="s">
+        <v>584</v>
+      </c>
+      <c r="C527" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>72</v>
+      </c>
+      <c r="B528" t="s">
+        <v>585</v>
+      </c>
+      <c r="C528" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>72</v>
+      </c>
+      <c r="B529" t="s">
+        <v>586</v>
+      </c>
+      <c r="C529" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>72</v>
+      </c>
+      <c r="B530" t="s">
+        <v>587</v>
+      </c>
+      <c r="C530" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>72</v>
+      </c>
+      <c r="B531" t="s">
+        <v>588</v>
+      </c>
+      <c r="C531" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>72</v>
+      </c>
+      <c r="B532" t="s">
+        <v>589</v>
+      </c>
+      <c r="C532" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>72</v>
+      </c>
+      <c r="B533" t="s">
+        <v>590</v>
+      </c>
+      <c r="C533" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>72</v>
+      </c>
+      <c r="B534" t="s">
+        <v>591</v>
+      </c>
+      <c r="C534" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>72</v>
+      </c>
+      <c r="B535" t="s">
+        <v>592</v>
+      </c>
+      <c r="C535" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>72</v>
+      </c>
+      <c r="B536" t="s">
+        <v>593</v>
+      </c>
+      <c r="C536" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>72</v>
+      </c>
+      <c r="B537" t="s">
+        <v>594</v>
+      </c>
+      <c r="C537" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>72</v>
+      </c>
+      <c r="B538" t="s">
+        <v>595</v>
+      </c>
+      <c r="C538" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>72</v>
+      </c>
+      <c r="B539" t="s">
+        <v>596</v>
+      </c>
+      <c r="C539" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>72</v>
+      </c>
+      <c r="B540" t="s">
+        <v>597</v>
+      </c>
+      <c r="C540" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>72</v>
+      </c>
+      <c r="B541" t="s">
+        <v>598</v>
+      </c>
+      <c r="C541" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>72</v>
+      </c>
+      <c r="B542" t="s">
+        <v>599</v>
+      </c>
+      <c r="C542" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>72</v>
+      </c>
+      <c r="B543" t="s">
+        <v>600</v>
+      </c>
+      <c r="C543" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>72</v>
+      </c>
+      <c r="B544" t="s">
+        <v>601</v>
+      </c>
+      <c r="C544" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>72</v>
+      </c>
+      <c r="B545" t="s">
+        <v>602</v>
+      </c>
+      <c r="C545" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>72</v>
+      </c>
+      <c r="B546" t="s">
+        <v>603</v>
+      </c>
+      <c r="C546" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>72</v>
+      </c>
+      <c r="B547" t="s">
+        <v>604</v>
+      </c>
+      <c r="C547" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>72</v>
+      </c>
+      <c r="B548" t="s">
+        <v>605</v>
+      </c>
+      <c r="C548" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>73</v>
+      </c>
+      <c r="B550" t="s">
+        <v>606</v>
+      </c>
+      <c r="C550" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>73</v>
+      </c>
+      <c r="B551" t="s">
+        <v>607</v>
+      </c>
+      <c r="C551" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>73</v>
+      </c>
+      <c r="B552" t="s">
+        <v>608</v>
+      </c>
+      <c r="C552" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>73</v>
+      </c>
+      <c r="B553" t="s">
+        <v>609</v>
+      </c>
+      <c r="C553" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>73</v>
+      </c>
+      <c r="B554" t="s">
+        <v>610</v>
+      </c>
+      <c r="C554" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>73</v>
+      </c>
+      <c r="B555" t="s">
+        <v>611</v>
+      </c>
+      <c r="C555" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>73</v>
+      </c>
+      <c r="B556" t="s">
+        <v>612</v>
+      </c>
+      <c r="C556" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>73</v>
+      </c>
+      <c r="B557" t="s">
+        <v>613</v>
+      </c>
+      <c r="C557" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>73</v>
+      </c>
+      <c r="B558" t="s">
+        <v>614</v>
+      </c>
+      <c r="C558" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>73</v>
+      </c>
+      <c r="B559" t="s">
+        <v>615</v>
+      </c>
+      <c r="C559" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>73</v>
+      </c>
+      <c r="B560" t="s">
+        <v>616</v>
+      </c>
+      <c r="C560" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>73</v>
+      </c>
+      <c r="B561" t="s">
+        <v>617</v>
+      </c>
+      <c r="C561" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>73</v>
+      </c>
+      <c r="B562" t="s">
+        <v>618</v>
+      </c>
+      <c r="C562" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>73</v>
+      </c>
+      <c r="B563" t="s">
+        <v>619</v>
+      </c>
+      <c r="C563" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>73</v>
+      </c>
+      <c r="B564" t="s">
+        <v>620</v>
+      </c>
+      <c r="C564" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>73</v>
+      </c>
+      <c r="B565" t="s">
+        <v>621</v>
+      </c>
+      <c r="C565" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>73</v>
+      </c>
+      <c r="B566" t="s">
+        <v>622</v>
+      </c>
+      <c r="C566" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>685</v>
+      </c>
+      <c r="B569" t="s">
+        <v>623</v>
+      </c>
+      <c r="C569" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>685</v>
+      </c>
+      <c r="B570" t="s">
+        <v>624</v>
+      </c>
+      <c r="C570" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>685</v>
+      </c>
+      <c r="B571" t="s">
+        <v>625</v>
+      </c>
+      <c r="C571" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>685</v>
+      </c>
+      <c r="B572" t="s">
+        <v>626</v>
+      </c>
+      <c r="C572" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>685</v>
+      </c>
+      <c r="B573" t="s">
+        <v>627</v>
+      </c>
+      <c r="C573" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>685</v>
+      </c>
+      <c r="B574" t="s">
+        <v>628</v>
+      </c>
+      <c r="C574" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>685</v>
+      </c>
+      <c r="B575" t="s">
+        <v>629</v>
+      </c>
+      <c r="C575" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>685</v>
+      </c>
+      <c r="B576" t="s">
+        <v>630</v>
+      </c>
+      <c r="C576" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>685</v>
+      </c>
+      <c r="B577" t="s">
+        <v>631</v>
+      </c>
+      <c r="C577" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>685</v>
+      </c>
+      <c r="B578" t="s">
+        <v>632</v>
+      </c>
+      <c r="C578" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>685</v>
+      </c>
+      <c r="B579" t="s">
+        <v>633</v>
+      </c>
+      <c r="C579" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>685</v>
+      </c>
+      <c r="B580" t="s">
+        <v>634</v>
+      </c>
+      <c r="C580" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>685</v>
+      </c>
+      <c r="B581" t="s">
+        <v>635</v>
+      </c>
+      <c r="C581" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>685</v>
+      </c>
+      <c r="B582" t="s">
+        <v>637</v>
+      </c>
+      <c r="C582" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>685</v>
+      </c>
+      <c r="B583" t="s">
+        <v>638</v>
+      </c>
+      <c r="C583" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>685</v>
+      </c>
+      <c r="B584" t="s">
+        <v>639</v>
+      </c>
+      <c r="C584" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>685</v>
+      </c>
+      <c r="B585" t="s">
+        <v>640</v>
+      </c>
+      <c r="C585" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>685</v>
+      </c>
+      <c r="B586" t="s">
+        <v>642</v>
+      </c>
+      <c r="C586" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>685</v>
+      </c>
+      <c r="B587" t="s">
+        <v>643</v>
+      </c>
+      <c r="C587" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>685</v>
+      </c>
+      <c r="B588" t="s">
+        <v>644</v>
+      </c>
+      <c r="C588" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>685</v>
+      </c>
+      <c r="B589" t="s">
+        <v>645</v>
+      </c>
+      <c r="C589" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>685</v>
+      </c>
+      <c r="B590" t="s">
+        <v>646</v>
+      </c>
+      <c r="C590" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>685</v>
+      </c>
+      <c r="B591" t="s">
+        <v>647</v>
+      </c>
+      <c r="C591" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>685</v>
+      </c>
+      <c r="B592" t="s">
+        <v>648</v>
+      </c>
+      <c r="C592" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>685</v>
+      </c>
+      <c r="B593" t="s">
+        <v>649</v>
+      </c>
+      <c r="C593" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>685</v>
+      </c>
+      <c r="B594" t="s">
+        <v>650</v>
+      </c>
+      <c r="C594" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>685</v>
+      </c>
+      <c r="B595" t="s">
+        <v>651</v>
+      </c>
+      <c r="C595" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>685</v>
+      </c>
+      <c r="B596" t="s">
+        <v>652</v>
+      </c>
+      <c r="C596" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>686</v>
+      </c>
+      <c r="B598" t="s">
+        <v>653</v>
+      </c>
+      <c r="C598" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>686</v>
+      </c>
+      <c r="B599" t="s">
+        <v>654</v>
+      </c>
+      <c r="C599" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>686</v>
+      </c>
+      <c r="B600" t="s">
+        <v>655</v>
+      </c>
+      <c r="C600" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>686</v>
+      </c>
+      <c r="B601" t="s">
+        <v>656</v>
+      </c>
+      <c r="C601" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>686</v>
+      </c>
+      <c r="B602" t="s">
+        <v>657</v>
+      </c>
+      <c r="C602" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>686</v>
+      </c>
+      <c r="B603" t="s">
+        <v>658</v>
+      </c>
+      <c r="C603" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>686</v>
+      </c>
+      <c r="B604" t="s">
+        <v>659</v>
+      </c>
+      <c r="C604" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>686</v>
+      </c>
+      <c r="B605" t="s">
+        <v>660</v>
+      </c>
+      <c r="C605" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>686</v>
+      </c>
+      <c r="B606" t="s">
+        <v>661</v>
+      </c>
+      <c r="C606" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>686</v>
+      </c>
+      <c r="B607" t="s">
+        <v>662</v>
+      </c>
+      <c r="C607" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>76</v>
+      </c>
+      <c r="B609" t="s">
+        <v>663</v>
+      </c>
+      <c r="C609" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>76</v>
+      </c>
+      <c r="B610" t="s">
+        <v>664</v>
+      </c>
+      <c r="C610" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>76</v>
+      </c>
+      <c r="B611" t="s">
+        <v>665</v>
+      </c>
+      <c r="C611" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>76</v>
+      </c>
+      <c r="B612" t="s">
+        <v>666</v>
+      </c>
+      <c r="C612" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>76</v>
+      </c>
+      <c r="B613" t="s">
+        <v>667</v>
+      </c>
+      <c r="C613" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>76</v>
+      </c>
+      <c r="B614" t="s">
+        <v>668</v>
+      </c>
+      <c r="C614" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>76</v>
+      </c>
+      <c r="B615" t="s">
+        <v>669</v>
+      </c>
+      <c r="C615" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>76</v>
+      </c>
+      <c r="B616" t="s">
+        <v>670</v>
+      </c>
+      <c r="C616" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>76</v>
+      </c>
+      <c r="B617" t="s">
+        <v>671</v>
+      </c>
+      <c r="C617" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>76</v>
+      </c>
+      <c r="B618" t="s">
+        <v>672</v>
+      </c>
+      <c r="C618" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>76</v>
+      </c>
+      <c r="B619" t="s">
+        <v>673</v>
+      </c>
+      <c r="C619" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>76</v>
+      </c>
+      <c r="B620" t="s">
+        <v>674</v>
+      </c>
+      <c r="C620" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>77</v>
+      </c>
+      <c r="B622" t="s">
+        <v>675</v>
+      </c>
+      <c r="C622" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>77</v>
+      </c>
+      <c r="B623" t="s">
+        <v>676</v>
+      </c>
+      <c r="C623" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>77</v>
+      </c>
+      <c r="B624" t="s">
+        <v>677</v>
+      </c>
+      <c r="C624" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>77</v>
+      </c>
+      <c r="B625" t="s">
+        <v>678</v>
+      </c>
+      <c r="C625" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>77</v>
+      </c>
+      <c r="B626" t="s">
+        <v>679</v>
+      </c>
+      <c r="C626" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>77</v>
+      </c>
+      <c r="B627" t="s">
+        <v>680</v>
+      </c>
+      <c r="C627" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>77</v>
+      </c>
+      <c r="B628" t="s">
+        <v>681</v>
+      </c>
+      <c r="C628" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>77</v>
+      </c>
+      <c r="B629" t="s">
+        <v>682</v>
+      </c>
+      <c r="C629" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>77</v>
+      </c>
+      <c r="B630" t="s">
+        <v>683</v>
+      </c>
+      <c r="C630" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Teams (Needs Verifying)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="690">
   <si>
     <t>INDEPENDENT</t>
   </si>
@@ -2087,6 +2087,15 @@
   </si>
   <si>
     <t>War Machine, Hords</t>
+  </si>
+  <si>
+    <t>Pokemon TCG</t>
+  </si>
+  <si>
+    <t>Adi Hardwick (no 2nd or 3rd)</t>
+  </si>
+  <si>
+    <t>Nick Pierce (no 2nd 3rd)</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2621,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C630"/>
+  <dimension ref="A1:C633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A610" workbookViewId="0">
+      <selection activeCell="A632" sqref="A632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9113,6 +9122,28 @@
         <v>304</v>
       </c>
     </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>687</v>
+      </c>
+      <c r="B632" t="s">
+        <v>688</v>
+      </c>
+      <c r="C632" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>687</v>
+      </c>
+      <c r="B633" t="s">
+        <v>689</v>
+      </c>
+      <c r="C633" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9121,11 +9152,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9330,6 +9366,11 @@
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben.g\Documents\nationalsSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ben\Documents\nationals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teams (Needs Verifying)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Players (Needs Verifying)" sheetId="3" r:id="rId2"/>
     <sheet name="Categories (Needs Verifying)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="649">
   <si>
     <t>INDEPENDENT</t>
   </si>
@@ -265,12 +265,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Group 1</t>
-  </si>
-  <si>
-    <t>HU1.47</t>
-  </si>
-  <si>
     <t>Amber Furgeson</t>
   </si>
   <si>
@@ -304,12 +298,6 @@
     <t>Callum Hayden</t>
   </si>
   <si>
-    <t>Group 2</t>
-  </si>
-  <si>
-    <t>HU1.49</t>
-  </si>
-  <si>
     <t>Simon Morley</t>
   </si>
   <si>
@@ -325,12 +313,6 @@
     <t>Tasmin Cotton</t>
   </si>
   <si>
-    <t>Group 3</t>
-  </si>
-  <si>
-    <t>HU1.51</t>
-  </si>
-  <si>
     <t>Louise Cooper</t>
   </si>
   <si>
@@ -358,9 +340,6 @@
     <t>LSU RawSoc</t>
   </si>
   <si>
-    <t>HU2.30</t>
-  </si>
-  <si>
     <t>Alan Bently</t>
   </si>
   <si>
@@ -388,9 +367,6 @@
     <t>BWRPS Banger</t>
   </si>
   <si>
-    <t>HU2.32</t>
-  </si>
-  <si>
     <t>Duncan Adamson</t>
   </si>
   <si>
@@ -409,12 +385,6 @@
     <t>michael smith</t>
   </si>
   <si>
-    <t>Dan Geoghan (2nd)</t>
-  </si>
-  <si>
-    <t>HU2.34</t>
-  </si>
-  <si>
     <t>Rachel Brown</t>
   </si>
   <si>
@@ -436,9 +406,6 @@
     <t>Sarah Hancock</t>
   </si>
   <si>
-    <t>HU2.08</t>
-  </si>
-  <si>
     <t>Jack Reid</t>
   </si>
   <si>
@@ -451,30 +418,18 @@
     <t>Miskatonic</t>
   </si>
   <si>
-    <t>Kieran Horan 3rd</t>
-  </si>
-  <si>
-    <t>Myke Edwards (3rd)</t>
-  </si>
-  <si>
     <t>Joshua Montesdeoca</t>
   </si>
   <si>
     <t>Rhodri Harris</t>
   </si>
   <si>
-    <t>Chris Kimmons (2nd)</t>
-  </si>
-  <si>
     <t>Mr Alzis</t>
   </si>
   <si>
     <t>Stephen Thomson</t>
   </si>
   <si>
-    <t>HU2.33</t>
-  </si>
-  <si>
     <t>Sally Connolly</t>
   </si>
   <si>
@@ -496,9 +451,6 @@
     <t>Harriet Lowe</t>
   </si>
   <si>
-    <t>HU3.93</t>
-  </si>
-  <si>
     <t>Sam Howell</t>
   </si>
   <si>
@@ -517,9 +469,6 @@
     <t>Matt Hall</t>
   </si>
   <si>
-    <t>HU2.86</t>
-  </si>
-  <si>
     <t>Sarah Ransome</t>
   </si>
   <si>
@@ -541,9 +490,6 @@
     <t>Joe Charlton</t>
   </si>
   <si>
-    <t>HU3.94</t>
-  </si>
-  <si>
     <t>Kieran Harwood</t>
   </si>
   <si>
@@ -556,12 +502,6 @@
     <t>Duncan Mclean</t>
   </si>
   <si>
-    <t>Kiah Greenwood (2nd)</t>
-  </si>
-  <si>
-    <t>Q0.15</t>
-  </si>
-  <si>
     <t>Margaret Eve</t>
   </si>
   <si>
@@ -586,9 +526,6 @@
     <t>Will Tolson</t>
   </si>
   <si>
-    <t>Q.0.16</t>
-  </si>
-  <si>
     <t>Alex Wolfe</t>
   </si>
   <si>
@@ -604,9 +541,6 @@
     <t>Clara Asmussen</t>
   </si>
   <si>
-    <t>HU3.96</t>
-  </si>
-  <si>
     <t>Jak Thraves</t>
   </si>
   <si>
@@ -625,9 +559,6 @@
     <t>marcus hartley</t>
   </si>
   <si>
-    <t>HU3.95</t>
-  </si>
-  <si>
     <t>Ryan George</t>
   </si>
   <si>
@@ -664,9 +595,6 @@
     <t>Warlocs</t>
   </si>
   <si>
-    <t>HU2.36</t>
-  </si>
-  <si>
     <t>Megan Bettinson</t>
   </si>
   <si>
@@ -694,9 +622,6 @@
     <t>Nick Huxtable</t>
   </si>
   <si>
-    <t>Cullen Lewis (3)</t>
-  </si>
-  <si>
     <t>University of Nottingham</t>
   </si>
   <si>
@@ -712,9 +637,6 @@
     <t>Declan Nelson</t>
   </si>
   <si>
-    <t>Mike Moriarty (2nd)</t>
-  </si>
-  <si>
     <t>alex blundell</t>
   </si>
   <si>
@@ -739,9 +661,6 @@
     <t>Emma Steadman</t>
   </si>
   <si>
-    <t>Emerald Kenny (2nd)</t>
-  </si>
-  <si>
     <t>John Donensghn</t>
   </si>
   <si>
@@ -790,9 +709,6 @@
     <t>Liam Butler</t>
   </si>
   <si>
-    <t>HU2.38</t>
-  </si>
-  <si>
     <t>Holly Louise</t>
   </si>
   <si>
@@ -808,9 +724,6 @@
     <t>Dan Atkinson</t>
   </si>
   <si>
-    <t>HU2.40</t>
-  </si>
-  <si>
     <t>Beth Shaw</t>
   </si>
   <si>
@@ -832,9 +745,6 @@
     <t>Holly Young</t>
   </si>
   <si>
-    <t>Q0.11</t>
-  </si>
-  <si>
     <t>Bret Smith</t>
   </si>
   <si>
@@ -865,9 +775,6 @@
     <t>jack rowsell</t>
   </si>
   <si>
-    <t>Q.013</t>
-  </si>
-  <si>
     <t>Megan Pearce</t>
   </si>
   <si>
@@ -883,9 +790,6 @@
     <t>Euan Reid</t>
   </si>
   <si>
-    <t>Q0.14</t>
-  </si>
-  <si>
     <t>Nick Bates</t>
   </si>
   <si>
@@ -895,9 +799,6 @@
     <t>Marina 'sirname'</t>
   </si>
   <si>
-    <t>Teodora Cube (3rd)</t>
-  </si>
-  <si>
     <t>University of Derby</t>
   </si>
   <si>
@@ -943,9 +844,6 @@
     <t>Warlocks</t>
   </si>
   <si>
-    <t>HU2.42</t>
-  </si>
-  <si>
     <t>Cat Stephens</t>
   </si>
   <si>
@@ -958,33 +856,18 @@
     <t>Stephen Murphy</t>
   </si>
   <si>
-    <t>Andrew Brown (2)</t>
-  </si>
-  <si>
     <t>Mike Arnold</t>
   </si>
   <si>
-    <t>HU3.92</t>
-  </si>
-  <si>
     <t>Diane Cawood</t>
   </si>
   <si>
     <t>David Gibbons</t>
   </si>
   <si>
-    <t>Craig Randles (2nd)</t>
-  </si>
-  <si>
     <t>Johnny Clementson</t>
   </si>
   <si>
-    <t>Betty Grover (2)</t>
-  </si>
-  <si>
-    <t>HU2.37</t>
-  </si>
-  <si>
     <t>Andy Jones</t>
   </si>
   <si>
@@ -1006,9 +889,6 @@
     <t>Richard Mutton</t>
   </si>
   <si>
-    <t>HU2.39</t>
-  </si>
-  <si>
     <t>Robert James</t>
   </si>
   <si>
@@ -1027,9 +907,6 @@
     <t>Matthew Brown</t>
   </si>
   <si>
-    <t>HU1.48</t>
-  </si>
-  <si>
     <t>Nem Nemmington</t>
   </si>
   <si>
@@ -1045,12 +922,6 @@
     <t>George Pinto Basto</t>
   </si>
   <si>
-    <t>Andrew MacArthur (2nd)</t>
-  </si>
-  <si>
-    <t>HU2.31</t>
-  </si>
-  <si>
     <t>Nic Ford</t>
   </si>
   <si>
@@ -1063,9 +934,6 @@
     <t>Edward Burt</t>
   </si>
   <si>
-    <t>Sally Chesters (2nd)</t>
-  </si>
-  <si>
     <t>Opal Mattila</t>
   </si>
   <si>
@@ -1078,9 +946,6 @@
     <t>Chris Shephard</t>
   </si>
   <si>
-    <t>Jon Carter (2nd)</t>
-  </si>
-  <si>
     <t>Rachel Winter</t>
   </si>
   <si>
@@ -1099,9 +964,6 @@
     <t>Dave Souter</t>
   </si>
   <si>
-    <t>HU2.41</t>
-  </si>
-  <si>
     <t>Corrine Laird</t>
   </si>
   <si>
@@ -1120,9 +982,6 @@
     <t>Tristan Harness</t>
   </si>
   <si>
-    <t>Chris 'Sirname' (2nd)</t>
-  </si>
-  <si>
     <t>Laurence Saffin</t>
   </si>
   <si>
@@ -1141,9 +1000,6 @@
     <t>Michael Bengougam</t>
   </si>
   <si>
-    <t>HU3.91</t>
-  </si>
-  <si>
     <t>Craig Donnelly</t>
   </si>
   <si>
@@ -1180,9 +1036,6 @@
     <t>nathan kerr</t>
   </si>
   <si>
-    <t>Q0.16</t>
-  </si>
-  <si>
     <t>Tom Osborne</t>
   </si>
   <si>
@@ -1192,9 +1045,6 @@
     <t>Matthew Robertson</t>
   </si>
   <si>
-    <t>Blair Smith (2nd)</t>
-  </si>
-  <si>
     <t>matt milton</t>
   </si>
   <si>
@@ -1216,9 +1066,6 @@
     <t>Immy Clayton</t>
   </si>
   <si>
-    <t>Tom Manger (2nd)</t>
-  </si>
-  <si>
     <t>Louise Laws</t>
   </si>
   <si>
@@ -1237,9 +1084,6 @@
     <t>conor makinson</t>
   </si>
   <si>
-    <t>Q0.12</t>
-  </si>
-  <si>
     <t>Zhubeen Tavakoli-Keshe</t>
   </si>
   <si>
@@ -1255,9 +1099,6 @@
     <t>Sam Halford</t>
   </si>
   <si>
-    <t>Q0.13</t>
-  </si>
-  <si>
     <t>Isaac Whitehouse</t>
   </si>
   <si>
@@ -1270,12 +1111,6 @@
     <t>Harriet Connor</t>
   </si>
   <si>
-    <t>Afro Dave Mills (3rd)</t>
-  </si>
-  <si>
-    <t>HU1.82</t>
-  </si>
-  <si>
     <t>Toby Gray</t>
   </si>
   <si>
@@ -1294,9 +1129,6 @@
     <t>Ginette Murray</t>
   </si>
   <si>
-    <t>HU1.50</t>
-  </si>
-  <si>
     <t>Sophie Jarell</t>
   </si>
   <si>
@@ -1315,9 +1147,6 @@
     <t>Edward Mingaye</t>
   </si>
   <si>
-    <t>P1.06</t>
-  </si>
-  <si>
     <t>Duncan Scott</t>
   </si>
   <si>
@@ -1333,9 +1162,6 @@
     <t>Michael Sewell</t>
   </si>
   <si>
-    <t>P1.09</t>
-  </si>
-  <si>
     <t>Robb Gossett</t>
   </si>
   <si>
@@ -1351,9 +1177,6 @@
     <t>Azz Bouleghlimat</t>
   </si>
   <si>
-    <t>P1.03</t>
-  </si>
-  <si>
     <t>Ben Wigmore</t>
   </si>
   <si>
@@ -1381,12 +1204,6 @@
     <t>Kingsley Baxter</t>
   </si>
   <si>
-    <t>P1.05</t>
-  </si>
-  <si>
-    <t>Alex Thompkins (2nd)</t>
-  </si>
-  <si>
     <t>Colin O'Neil</t>
   </si>
   <si>
@@ -1396,9 +1213,6 @@
     <t>Sheffield wargamers</t>
   </si>
   <si>
-    <t>Tom Howle 2nd</t>
-  </si>
-  <si>
     <t>Clare Challinor</t>
   </si>
   <si>
@@ -1453,12 +1267,6 @@
     <t>Richie Rae</t>
   </si>
   <si>
-    <t>Emma Newham (2nd)</t>
-  </si>
-  <si>
-    <t>HU1.80</t>
-  </si>
-  <si>
     <t>Heather Williams</t>
   </si>
   <si>
@@ -1477,18 +1285,9 @@
     <t>Lucille Thompson</t>
   </si>
   <si>
-    <t>chris reay (3)</t>
-  </si>
-  <si>
     <t>Fiona Hartley</t>
   </si>
   <si>
-    <t>Catherine Armstrong (2nd)</t>
-  </si>
-  <si>
-    <t>Rebecca Catan</t>
-  </si>
-  <si>
     <t>Peter Jones</t>
   </si>
   <si>
@@ -1555,9 +1354,6 @@
     <t>Andrew Coates</t>
   </si>
   <si>
-    <t>Shaun Rhodes (2)</t>
-  </si>
-  <si>
     <t>Ben Lisle</t>
   </si>
   <si>
@@ -1696,9 +1492,6 @@
     <t>Robert Gray</t>
   </si>
   <si>
-    <t>Nathan Craven (2rd)</t>
-  </si>
-  <si>
     <t>Alex Drake</t>
   </si>
   <si>
@@ -1741,9 +1534,6 @@
     <t>Kayt Ainger</t>
   </si>
   <si>
-    <t>Adrian Barnes (2nd)</t>
-  </si>
-  <si>
     <t>Sue Breakwell</t>
   </si>
   <si>
@@ -2092,10 +1882,97 @@
     <t>Pokemon TCG</t>
   </si>
   <si>
-    <t>Adi Hardwick (no 2nd or 3rd)</t>
-  </si>
-  <si>
-    <t>Nick Pierce (no 2nd 3rd)</t>
+    <t>Dan Geoghan</t>
+  </si>
+  <si>
+    <t>Myke Edwards</t>
+  </si>
+  <si>
+    <t>Kieran Horan</t>
+  </si>
+  <si>
+    <t>Chris Kimmons</t>
+  </si>
+  <si>
+    <t>Cullen Lewis</t>
+  </si>
+  <si>
+    <t>Mike Moriarty</t>
+  </si>
+  <si>
+    <t>Emerald Kenny</t>
+  </si>
+  <si>
+    <t>Teodora Cube</t>
+  </si>
+  <si>
+    <t>Andrew Brown</t>
+  </si>
+  <si>
+    <t>Craig Randles</t>
+  </si>
+  <si>
+    <t>Betty Grover</t>
+  </si>
+  <si>
+    <t>Andrew MacArthur</t>
+  </si>
+  <si>
+    <t>Sally Chesters</t>
+  </si>
+  <si>
+    <t>Jon Carter</t>
+  </si>
+  <si>
+    <t>Chris 'Sirname'</t>
+  </si>
+  <si>
+    <t>Blair Smith</t>
+  </si>
+  <si>
+    <t>Tom Manger</t>
+  </si>
+  <si>
+    <t>Afro Dave Mills</t>
+  </si>
+  <si>
+    <t>Alex Thompkins</t>
+  </si>
+  <si>
+    <t>Tom Howle</t>
+  </si>
+  <si>
+    <t>chris reay</t>
+  </si>
+  <si>
+    <t>Emma Newham</t>
+  </si>
+  <si>
+    <t>Catherine Armstrong</t>
+  </si>
+  <si>
+    <t>Shaun Rhodes</t>
+  </si>
+  <si>
+    <t>Nathan Craven</t>
+  </si>
+  <si>
+    <t>Adrian Barnes</t>
+  </si>
+  <si>
+    <t>Adi Hardwick</t>
+  </si>
+  <si>
+    <t>Nick Pierce</t>
+  </si>
+  <si>
+    <t>Kiah Greenwood</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -2630,6518 +2507,5858 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C633"/>
+  <dimension ref="A1:C531"/>
   <sheetViews>
-    <sheetView topLeftCell="A610" workbookViewId="0">
-      <selection activeCell="A632" sqref="A632"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>647</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
         <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
         <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
         <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
         <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>618</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
         <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
         <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
         <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
         <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
         <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
         <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
         <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
         <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>620</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
         <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>619</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
         <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
         <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>621</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
         <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
         <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
         <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
         <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" t="s">
         <v>42</v>
-      </c>
-      <c r="B54" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
         <v>42</v>
-      </c>
-      <c r="B55" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
         <v>42</v>
-      </c>
-      <c r="B56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
         <v>42</v>
-      </c>
-      <c r="B57" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>646</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" t="s">
         <v>43</v>
-      </c>
-      <c r="B68" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>119</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="C101" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="B102" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="B104" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="B105" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>45</v>
+        <v>622</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="B109" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>623</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C111" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="C112" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="C113" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>211</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="B117" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="C118" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>624</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="C121" t="s">
-        <v>113</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>212</v>
+      </c>
+      <c r="B122" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C123" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="B124" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="B125" t="s">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="C125" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="B126" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="C126" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="B127" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="C127" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="B129" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C129" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="C130" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="C131" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="B132" t="s">
-        <v>225</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="B133" t="s">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="C133" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="B134" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="C134" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C135" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="C136" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="C137" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="C138" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="B139" t="s">
-        <v>231</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="B140" t="s">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>231</v>
+      </c>
+      <c r="B141" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="C142" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="B143" t="s">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="C143" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B144" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C144" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="B145" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="C145" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="C146" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="B147" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="C147" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="B148" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="B149" t="s">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="C149" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="C150" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="C151" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C153" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C154" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="C155" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
-        <v>244</v>
+        <v>98</v>
       </c>
       <c r="C156" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="C157" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="C158" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="C159" t="s">
-        <v>125</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>252</v>
+      </c>
+      <c r="B160" t="s">
+        <v>198</v>
+      </c>
+      <c r="C160" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="C162" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="C163" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="C164" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>49</v>
+        <v>625</v>
       </c>
       <c r="B165" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C165" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="B166" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="C166" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="B167" t="s">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="C167" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>49</v>
+        <v>260</v>
       </c>
       <c r="B168" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>254</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="B169" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="C169" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="B170" t="s">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>49</v>
+        <v>263</v>
       </c>
       <c r="B171" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="C171" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
       <c r="B172" t="s">
-        <v>258</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="B173" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="B174" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C174" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>49</v>
+        <v>267</v>
       </c>
       <c r="B175" t="s">
-        <v>261</v>
+        <v>96</v>
       </c>
       <c r="C175" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>49</v>
+        <v>268</v>
       </c>
       <c r="B176" t="s">
-        <v>263</v>
+        <v>110</v>
       </c>
       <c r="C176" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="B177" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="C177" t="s">
-        <v>265</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>49</v>
+        <v>270</v>
       </c>
       <c r="B178" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C178" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="B179" t="s">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="C179" t="s">
-        <v>140</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>273</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
       <c r="B181" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C181" t="s">
-        <v>268</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="B182" t="s">
-        <v>269</v>
+        <v>110</v>
       </c>
       <c r="C182" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>50</v>
+        <v>626</v>
       </c>
       <c r="B183" t="s">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="B184" t="s">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="C184" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>50</v>
+        <v>277</v>
       </c>
       <c r="B185" t="s">
-        <v>272</v>
+        <v>86</v>
       </c>
       <c r="C185" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="B186" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C186" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>50</v>
+        <v>627</v>
       </c>
       <c r="B187" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="C188" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>628</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="C189" t="s">
-        <v>265</v>
+        <v>53</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C190" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>50</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="C191" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
-        <v>278</v>
+        <v>106</v>
       </c>
       <c r="C192" t="s">
-        <v>104</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>284</v>
+      </c>
+      <c r="B193" t="s">
+        <v>129</v>
+      </c>
+      <c r="C193" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C194" t="s">
-        <v>279</v>
+        <v>54</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>51</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="C195" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="C196" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>51</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="C197" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="C198" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
-        <v>284</v>
+        <v>25</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C200" t="s">
-        <v>285</v>
+        <v>54</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C201" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>51</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="C202" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>51</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
-        <v>288</v>
+        <v>106</v>
       </c>
       <c r="C203" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
-        <v>289</v>
+        <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>297</v>
+      </c>
+      <c r="B206" t="s">
+        <v>103</v>
+      </c>
+      <c r="C206" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>52</v>
+        <v>629</v>
       </c>
       <c r="B207" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C207" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>52</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="C208" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>52</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="C209" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
-        <v>294</v>
+        <v>138</v>
       </c>
       <c r="C210" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="C211" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>52</v>
+        <v>630</v>
       </c>
       <c r="B212" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="C212" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="B213" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="B214" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C214" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>52</v>
+        <v>304</v>
       </c>
       <c r="B215" t="s">
-        <v>298</v>
+        <v>96</v>
       </c>
       <c r="C215" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="B216" t="s">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="C216" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>52</v>
+        <v>631</v>
       </c>
       <c r="B217" t="s">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="C217" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="B218" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C218" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>52</v>
+        <v>307</v>
       </c>
       <c r="B219" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="C219" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>52</v>
+        <v>308</v>
       </c>
       <c r="B220" t="s">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="C220" t="s">
-        <v>304</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>309</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
       <c r="B222" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C222" t="s">
-        <v>305</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="B223" t="s">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="C223" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>53</v>
+        <v>312</v>
       </c>
       <c r="B224" t="s">
-        <v>307</v>
+        <v>129</v>
       </c>
       <c r="C224" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="B225" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C225" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>53</v>
+        <v>315</v>
       </c>
       <c r="B226" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="C226" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>53</v>
+        <v>316</v>
       </c>
       <c r="B227" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
       <c r="C227" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>53</v>
+        <v>317</v>
       </c>
       <c r="B228" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="C228" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>53</v>
+        <v>632</v>
       </c>
       <c r="B229" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C229" t="s">
-        <v>312</v>
+        <v>56</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>53</v>
+        <v>318</v>
       </c>
       <c r="B230" t="s">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="C230" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="B231" t="s">
-        <v>314</v>
+        <v>106</v>
       </c>
       <c r="C231" t="s">
-        <v>265</v>
+        <v>57</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>53</v>
+        <v>320</v>
       </c>
       <c r="B232" t="s">
-        <v>315</v>
+        <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>53</v>
+        <v>321</v>
       </c>
       <c r="B233" t="s">
-        <v>316</v>
+        <v>110</v>
       </c>
       <c r="C233" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>53</v>
+        <v>322</v>
       </c>
       <c r="B234" t="s">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="C234" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>323</v>
+      </c>
+      <c r="B235" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>54</v>
+        <v>324</v>
       </c>
       <c r="B236" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C236" t="s">
-        <v>318</v>
+        <v>57</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>54</v>
+        <v>325</v>
       </c>
       <c r="B237" t="s">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="C237" t="s">
-        <v>320</v>
+        <v>57</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>54</v>
+        <v>326</v>
       </c>
       <c r="B238" t="s">
-        <v>321</v>
+        <v>152</v>
       </c>
       <c r="C238" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>54</v>
+        <v>327</v>
       </c>
       <c r="B239" t="s">
-        <v>322</v>
+        <v>100</v>
       </c>
       <c r="C239" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>54</v>
+        <v>328</v>
       </c>
       <c r="B240" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="C240" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>54</v>
+        <v>329</v>
       </c>
       <c r="B241" t="s">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="C241" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>54</v>
+        <v>330</v>
       </c>
       <c r="B242" t="s">
-        <v>325</v>
+        <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>54</v>
+        <v>331</v>
       </c>
       <c r="B243" t="s">
-        <v>92</v>
+        <v>332</v>
       </c>
       <c r="C243" t="s">
-        <v>326</v>
+        <v>58</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>54</v>
+        <v>333</v>
       </c>
       <c r="B244" t="s">
-        <v>327</v>
+        <v>159</v>
       </c>
       <c r="C244" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>54</v>
+        <v>334</v>
       </c>
       <c r="B245" t="s">
-        <v>328</v>
+        <v>86</v>
       </c>
       <c r="C245" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>54</v>
+        <v>335</v>
       </c>
       <c r="B246" t="s">
-        <v>329</v>
+        <v>98</v>
       </c>
       <c r="C246" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>54</v>
+        <v>336</v>
       </c>
       <c r="B247" t="s">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>54</v>
+        <v>337</v>
       </c>
       <c r="B248" t="s">
-        <v>331</v>
+        <v>103</v>
       </c>
       <c r="C248" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="B249" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
       <c r="C249" t="s">
-        <v>304</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>633</v>
+      </c>
+      <c r="B250" t="s">
+        <v>110</v>
+      </c>
+      <c r="C250" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>55</v>
+        <v>339</v>
       </c>
       <c r="B251" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C251" t="s">
-        <v>333</v>
+        <v>58</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>55</v>
+        <v>340</v>
       </c>
       <c r="B252" t="s">
-        <v>334</v>
+        <v>112</v>
       </c>
       <c r="C252" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>55</v>
+        <v>341</v>
       </c>
       <c r="B253" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="C253" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>55</v>
+        <v>342</v>
       </c>
       <c r="B254" t="s">
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="C254" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="B255" t="s">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="C255" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="B256" t="s">
-        <v>338</v>
+        <v>106</v>
       </c>
       <c r="C256" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>55</v>
+        <v>345</v>
       </c>
       <c r="B257" t="s">
-        <v>339</v>
+        <v>86</v>
       </c>
       <c r="C257" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>55</v>
+        <v>634</v>
       </c>
       <c r="B258" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="C258" t="s">
-        <v>340</v>
+        <v>59</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="B259" t="s">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="C259" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>55</v>
+        <v>347</v>
       </c>
       <c r="B260" t="s">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="C260" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>55</v>
+        <v>348</v>
       </c>
       <c r="B261" t="s">
-        <v>343</v>
+        <v>86</v>
       </c>
       <c r="C261" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>55</v>
+        <v>349</v>
       </c>
       <c r="B262" t="s">
-        <v>344</v>
+        <v>84</v>
       </c>
       <c r="C262" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="B263" t="s">
-        <v>345</v>
+        <v>112</v>
       </c>
       <c r="C263" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="B264" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C264" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="B265" t="s">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="C265" t="s">
-        <v>265</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>55</v>
+        <v>353</v>
       </c>
       <c r="B266" t="s">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="C266" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>55</v>
+        <v>354</v>
       </c>
       <c r="B267" t="s">
-        <v>348</v>
+        <v>110</v>
       </c>
       <c r="C267" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>55</v>
+        <v>355</v>
       </c>
       <c r="B268" t="s">
-        <v>349</v>
+        <v>86</v>
       </c>
       <c r="C268" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>55</v>
+        <v>356</v>
       </c>
       <c r="B269" t="s">
-        <v>350</v>
+        <v>96</v>
       </c>
       <c r="C269" t="s">
-        <v>113</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>357</v>
+      </c>
+      <c r="B270" t="s">
+        <v>112</v>
+      </c>
+      <c r="C270" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>56</v>
+        <v>358</v>
       </c>
       <c r="B271" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C271" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>56</v>
+        <v>359</v>
       </c>
       <c r="B272" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="C272" t="s">
-        <v>320</v>
+        <v>60</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="B273" t="s">
-        <v>352</v>
+        <v>25</v>
       </c>
       <c r="C273" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>56</v>
+        <v>635</v>
       </c>
       <c r="B274" t="s">
-        <v>353</v>
+        <v>84</v>
       </c>
       <c r="C274" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>56</v>
+        <v>361</v>
       </c>
       <c r="B275" t="s">
-        <v>354</v>
+        <v>233</v>
       </c>
       <c r="C275" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>56</v>
+        <v>362</v>
       </c>
       <c r="B276" t="s">
-        <v>355</v>
+        <v>120</v>
       </c>
       <c r="C276" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>56</v>
+        <v>363</v>
       </c>
       <c r="B277" t="s">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="C277" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>56</v>
+        <v>364</v>
       </c>
       <c r="B278" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C278" t="s">
-        <v>357</v>
+        <v>61</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>56</v>
+        <v>365</v>
       </c>
       <c r="B279" t="s">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="C279" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>56</v>
+        <v>366</v>
       </c>
       <c r="B280" t="s">
-        <v>359</v>
+        <v>110</v>
       </c>
       <c r="C280" t="s">
-        <v>360</v>
+        <v>61</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>56</v>
+        <v>367</v>
       </c>
       <c r="B281" t="s">
-        <v>361</v>
+        <v>159</v>
       </c>
       <c r="C281" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>56</v>
+        <v>368</v>
       </c>
       <c r="B282" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="C282" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>56</v>
+        <v>369</v>
       </c>
       <c r="B283" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="C283" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>56</v>
+        <v>370</v>
       </c>
       <c r="B284" t="s">
-        <v>364</v>
+        <v>8</v>
       </c>
       <c r="C284" t="s">
-        <v>109</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>371</v>
+      </c>
+      <c r="B285" t="s">
+        <v>80</v>
+      </c>
+      <c r="C285" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>57</v>
+        <v>372</v>
       </c>
       <c r="B286" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C286" t="s">
-        <v>305</v>
+        <v>61</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>57</v>
+        <v>373</v>
       </c>
       <c r="B287" t="s">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="C287" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>57</v>
+        <v>374</v>
       </c>
       <c r="B288" t="s">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="C288" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>57</v>
+        <v>375</v>
       </c>
       <c r="B289" t="s">
-        <v>367</v>
+        <v>106</v>
       </c>
       <c r="C289" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="B290" t="s">
-        <v>368</v>
+        <v>117</v>
       </c>
       <c r="C290" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>57</v>
+        <v>377</v>
       </c>
       <c r="B291" t="s">
-        <v>369</v>
+        <v>33</v>
       </c>
       <c r="C291" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B292" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="C292" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>57</v>
+        <v>379</v>
       </c>
       <c r="B293" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C293" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>57</v>
+        <v>380</v>
       </c>
       <c r="B294" t="s">
-        <v>372</v>
+        <v>129</v>
       </c>
       <c r="C294" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>57</v>
+        <v>381</v>
       </c>
       <c r="B295" t="s">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="C295" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>57</v>
+        <v>382</v>
       </c>
       <c r="B296" t="s">
-        <v>374</v>
+        <v>2</v>
       </c>
       <c r="C296" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>57</v>
+        <v>383</v>
       </c>
       <c r="B297" t="s">
-        <v>375</v>
+        <v>33</v>
       </c>
       <c r="C297" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>57</v>
+        <v>384</v>
       </c>
       <c r="B298" t="s">
-        <v>376</v>
+        <v>25</v>
       </c>
       <c r="C298" t="s">
-        <v>223</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>385</v>
+      </c>
+      <c r="B299" t="s">
+        <v>103</v>
+      </c>
+      <c r="C299" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>58</v>
+        <v>386</v>
       </c>
       <c r="B300" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="C300" t="s">
-        <v>268</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>58</v>
+        <v>387</v>
       </c>
       <c r="B301" t="s">
-        <v>377</v>
+        <v>257</v>
       </c>
       <c r="C301" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>58</v>
+        <v>388</v>
       </c>
       <c r="B302" t="s">
-        <v>378</v>
+        <v>120</v>
       </c>
       <c r="C302" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>58</v>
+        <v>389</v>
       </c>
       <c r="B303" t="s">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="C303" t="s">
-        <v>380</v>
+        <v>63</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>58</v>
+        <v>390</v>
       </c>
       <c r="B304" t="s">
-        <v>381</v>
+        <v>106</v>
       </c>
       <c r="C304" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>58</v>
+        <v>391</v>
       </c>
       <c r="B305" t="s">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="C305" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>58</v>
+        <v>636</v>
       </c>
       <c r="B306" t="s">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="C306" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>58</v>
+        <v>392</v>
       </c>
       <c r="B307" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="C307" t="s">
-        <v>384</v>
+        <v>63</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>58</v>
+        <v>393</v>
       </c>
       <c r="B308" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C308" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>58</v>
+        <v>637</v>
       </c>
       <c r="B309" t="s">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="C309" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>58</v>
+        <v>395</v>
       </c>
       <c r="B310" t="s">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="C310" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>58</v>
+        <v>396</v>
       </c>
       <c r="B311" t="s">
-        <v>388</v>
+        <v>2</v>
       </c>
       <c r="C311" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>58</v>
+        <v>397</v>
       </c>
       <c r="B312" t="s">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="C312" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>58</v>
+        <v>398</v>
       </c>
       <c r="B313" t="s">
-        <v>390</v>
+        <v>96</v>
       </c>
       <c r="C313" t="s">
-        <v>119</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>399</v>
+      </c>
+      <c r="B314" t="s">
+        <v>25</v>
+      </c>
+      <c r="C314" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>59</v>
+        <v>400</v>
       </c>
       <c r="B315" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C315" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>59</v>
+        <v>401</v>
       </c>
       <c r="B316" t="s">
-        <v>391</v>
+        <v>103</v>
       </c>
       <c r="C316" t="s">
-        <v>320</v>
+        <v>64</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>59</v>
+        <v>402</v>
       </c>
       <c r="B317" t="s">
-        <v>392</v>
+        <v>96</v>
       </c>
       <c r="C317" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="B318" t="s">
-        <v>393</v>
+        <v>129</v>
       </c>
       <c r="C318" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>59</v>
+        <v>404</v>
       </c>
       <c r="B319" t="s">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C319" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>59</v>
+        <v>405</v>
       </c>
       <c r="B320" t="s">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="C320" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>59</v>
+        <v>406</v>
       </c>
       <c r="B321" t="s">
-        <v>396</v>
+        <v>2</v>
       </c>
       <c r="C321" t="s">
-        <v>290</v>
+        <v>65</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>59</v>
+        <v>407</v>
       </c>
       <c r="B322" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C322" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>59</v>
+        <v>408</v>
       </c>
       <c r="B323" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="C323" t="s">
-        <v>320</v>
+        <v>65</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>59</v>
+        <v>409</v>
       </c>
       <c r="B324" t="s">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="C324" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>59</v>
+        <v>410</v>
       </c>
       <c r="B325" t="s">
-        <v>399</v>
+        <v>152</v>
       </c>
       <c r="C325" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>59</v>
+        <v>411</v>
       </c>
       <c r="B326" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
       <c r="C326" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>59</v>
+        <v>412</v>
       </c>
       <c r="B327" t="s">
-        <v>401</v>
+        <v>86</v>
       </c>
       <c r="C327" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>59</v>
+        <v>639</v>
       </c>
       <c r="B328" t="s">
-        <v>402</v>
+        <v>4</v>
       </c>
       <c r="C328" t="s">
-        <v>29</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>413</v>
+      </c>
+      <c r="B329" t="s">
+        <v>110</v>
+      </c>
+      <c r="C329" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="B330" t="s">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="C330" t="s">
-        <v>403</v>
+        <v>614</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>60</v>
+        <v>415</v>
       </c>
       <c r="B331" t="s">
-        <v>404</v>
+        <v>96</v>
       </c>
       <c r="C331" t="s">
-        <v>82</v>
+        <v>614</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>60</v>
+        <v>416</v>
       </c>
       <c r="B332" t="s">
-        <v>405</v>
+        <v>100</v>
       </c>
       <c r="C332" t="s">
-        <v>113</v>
+        <v>614</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>60</v>
+        <v>417</v>
       </c>
       <c r="B333" t="s">
-        <v>406</v>
+        <v>112</v>
       </c>
       <c r="C333" t="s">
-        <v>117</v>
+        <v>614</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>60</v>
+        <v>418</v>
       </c>
       <c r="B334" t="s">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="C334" t="s">
-        <v>88</v>
+        <v>614</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>60</v>
+        <v>638</v>
       </c>
       <c r="B335" t="s">
-        <v>408</v>
+        <v>98</v>
       </c>
       <c r="C335" t="s">
-        <v>102</v>
+        <v>614</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>60</v>
+        <v>419</v>
       </c>
       <c r="B336" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="C336" t="s">
-        <v>409</v>
+        <v>614</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>60</v>
+        <v>640</v>
       </c>
       <c r="B337" t="s">
-        <v>410</v>
+        <v>96</v>
       </c>
       <c r="C337" t="s">
-        <v>119</v>
+        <v>614</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="B338" t="s">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="C338" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="B339" t="s">
-        <v>412</v>
+        <v>2</v>
       </c>
       <c r="C339" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>60</v>
+        <v>422</v>
       </c>
       <c r="B340" t="s">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="C340" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>60</v>
+        <v>423</v>
       </c>
       <c r="B341" t="s">
-        <v>414</v>
+        <v>117</v>
       </c>
       <c r="C341" t="s">
-        <v>86</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>424</v>
+      </c>
+      <c r="B342" t="s">
+        <v>117</v>
+      </c>
+      <c r="C342" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>61</v>
+        <v>425</v>
       </c>
       <c r="B343" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C343" t="s">
-        <v>415</v>
+        <v>38</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>61</v>
+        <v>426</v>
       </c>
       <c r="B344" t="s">
-        <v>416</v>
+        <v>33</v>
       </c>
       <c r="C344" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>61</v>
+        <v>427</v>
       </c>
       <c r="B345" t="s">
-        <v>417</v>
+        <v>96</v>
       </c>
       <c r="C345" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>61</v>
+        <v>428</v>
       </c>
       <c r="B346" t="s">
-        <v>418</v>
+        <v>96</v>
       </c>
       <c r="C346" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>61</v>
+        <v>429</v>
       </c>
       <c r="B347" t="s">
-        <v>419</v>
+        <v>25</v>
       </c>
       <c r="C347" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>61</v>
+        <v>430</v>
       </c>
       <c r="B348" t="s">
-        <v>420</v>
+        <v>103</v>
       </c>
       <c r="C348" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>61</v>
+        <v>431</v>
       </c>
       <c r="B349" t="s">
-        <v>421</v>
+        <v>198</v>
       </c>
       <c r="C349" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>61</v>
+        <v>432</v>
       </c>
       <c r="B350" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="C350" t="s">
-        <v>422</v>
+        <v>38</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>61</v>
+        <v>433</v>
       </c>
       <c r="B351" t="s">
-        <v>423</v>
+        <v>29</v>
       </c>
       <c r="C351" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>61</v>
+        <v>434</v>
       </c>
       <c r="B352" t="s">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="C352" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>61</v>
+        <v>435</v>
       </c>
       <c r="B353" t="s">
-        <v>425</v>
+        <v>106</v>
       </c>
       <c r="C353" t="s">
-        <v>360</v>
+        <v>66</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>61</v>
+        <v>436</v>
       </c>
       <c r="B354" t="s">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="C354" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>61</v>
+        <v>437</v>
       </c>
       <c r="B355" t="s">
-        <v>427</v>
+        <v>4</v>
       </c>
       <c r="C355" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>61</v>
+        <v>438</v>
       </c>
       <c r="B356" t="s">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="C356" t="s">
-        <v>119</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>439</v>
+      </c>
+      <c r="B357" t="s">
+        <v>82</v>
+      </c>
+      <c r="C357" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>62</v>
+        <v>440</v>
       </c>
       <c r="B358" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C358" t="s">
-        <v>429</v>
+        <v>66</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>62</v>
+        <v>441</v>
       </c>
       <c r="B359" t="s">
-        <v>430</v>
+        <v>257</v>
       </c>
       <c r="C359" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>62</v>
+        <v>641</v>
       </c>
       <c r="B360" t="s">
-        <v>431</v>
+        <v>257</v>
       </c>
       <c r="C360" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>62</v>
+        <v>442</v>
       </c>
       <c r="B361" t="s">
-        <v>432</v>
+        <v>120</v>
       </c>
       <c r="C361" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>62</v>
+        <v>443</v>
       </c>
       <c r="B362" t="s">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="C362" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>62</v>
+        <v>444</v>
       </c>
       <c r="B363" t="s">
-        <v>434</v>
+        <v>106</v>
       </c>
       <c r="C363" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>62</v>
+        <v>445</v>
       </c>
       <c r="B364" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C364" t="s">
-        <v>435</v>
+        <v>68</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>62</v>
+        <v>446</v>
       </c>
       <c r="B365" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C365" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>62</v>
+        <v>447</v>
       </c>
       <c r="B366" t="s">
-        <v>437</v>
+        <v>110</v>
       </c>
       <c r="C366" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>62</v>
+        <v>448</v>
       </c>
       <c r="B367" t="s">
-        <v>438</v>
+        <v>161</v>
       </c>
       <c r="C367" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>62</v>
+        <v>449</v>
       </c>
       <c r="B368" t="s">
-        <v>439</v>
+        <v>86</v>
       </c>
       <c r="C368" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>62</v>
+        <v>450</v>
       </c>
       <c r="B369" t="s">
-        <v>440</v>
+        <v>33</v>
       </c>
       <c r="C369" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>62</v>
+        <v>451</v>
       </c>
       <c r="B370" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="C370" t="s">
-        <v>441</v>
+        <v>68</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>62</v>
+        <v>452</v>
       </c>
       <c r="B371" t="s">
-        <v>442</v>
+        <v>29</v>
       </c>
       <c r="C371" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>62</v>
+        <v>453</v>
       </c>
       <c r="B372" t="s">
-        <v>443</v>
+        <v>117</v>
       </c>
       <c r="C372" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>62</v>
+        <v>454</v>
       </c>
       <c r="B373" t="s">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="C373" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>62</v>
+        <v>455</v>
       </c>
       <c r="B374" t="s">
-        <v>445</v>
+        <v>257</v>
       </c>
       <c r="C374" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>62</v>
+        <v>456</v>
       </c>
       <c r="B375" t="s">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="C375" t="s">
-        <v>290</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>457</v>
+      </c>
+      <c r="B376" t="s">
+        <v>106</v>
+      </c>
+      <c r="C376" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>63</v>
+        <v>458</v>
       </c>
       <c r="B377" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C377" t="s">
-        <v>435</v>
+        <v>69</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>63</v>
+        <v>459</v>
       </c>
       <c r="B378" t="s">
-        <v>447</v>
+        <v>4</v>
       </c>
       <c r="C378" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>63</v>
+        <v>460</v>
       </c>
       <c r="B379" t="s">
-        <v>448</v>
+        <v>2</v>
       </c>
       <c r="C379" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>63</v>
+        <v>461</v>
       </c>
       <c r="B380" t="s">
-        <v>449</v>
+        <v>2</v>
       </c>
       <c r="C380" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>63</v>
+        <v>462</v>
       </c>
       <c r="B381" t="s">
-        <v>450</v>
+        <v>117</v>
       </c>
       <c r="C381" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>63</v>
+        <v>463</v>
       </c>
       <c r="B382" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C382" t="s">
-        <v>451</v>
+        <v>69</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>63</v>
+        <v>464</v>
       </c>
       <c r="B383" t="s">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="C383" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>63</v>
+        <v>465</v>
       </c>
       <c r="B384" t="s">
-        <v>453</v>
+        <v>110</v>
       </c>
       <c r="C384" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>63</v>
+        <v>466</v>
       </c>
       <c r="B385" t="s">
-        <v>454</v>
+        <v>103</v>
       </c>
       <c r="C385" t="s">
-        <v>455</v>
+        <v>69</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>63</v>
+        <v>467</v>
       </c>
       <c r="B386" t="s">
-        <v>456</v>
+        <v>33</v>
       </c>
       <c r="C386" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>468</v>
+      </c>
+      <c r="B387" t="s">
+        <v>257</v>
+      </c>
+      <c r="C387" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>64</v>
+        <v>469</v>
       </c>
       <c r="B388" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="C388" t="s">
-        <v>403</v>
+        <v>69</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="B389" t="s">
-        <v>457</v>
+        <v>198</v>
       </c>
       <c r="C389" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>64</v>
+        <v>471</v>
       </c>
       <c r="B390" t="s">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="C390" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>64</v>
+        <v>472</v>
       </c>
       <c r="B391" t="s">
-        <v>459</v>
+        <v>98</v>
       </c>
       <c r="C391" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>64</v>
+        <v>473</v>
       </c>
       <c r="B392" t="s">
-        <v>460</v>
+        <v>271</v>
       </c>
       <c r="C392" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>64</v>
+        <v>474</v>
       </c>
       <c r="B393" t="s">
-        <v>461</v>
+        <v>110</v>
       </c>
       <c r="C393" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>64</v>
+        <v>475</v>
       </c>
       <c r="B394" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C394" t="s">
-        <v>285</v>
+        <v>70</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>64</v>
+        <v>476</v>
       </c>
       <c r="B395" t="s">
-        <v>462</v>
+        <v>138</v>
       </c>
       <c r="C395" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>64</v>
+        <v>477</v>
       </c>
       <c r="B396" t="s">
-        <v>463</v>
+        <v>103</v>
       </c>
       <c r="C396" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>64</v>
+        <v>478</v>
       </c>
       <c r="B397" t="s">
-        <v>464</v>
+        <v>33</v>
       </c>
       <c r="C397" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>64</v>
+        <v>479</v>
       </c>
       <c r="B398" t="s">
-        <v>465</v>
+        <v>96</v>
       </c>
       <c r="C398" t="s">
-        <v>140</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>480</v>
+      </c>
+      <c r="B399" t="s">
+        <v>257</v>
+      </c>
+      <c r="C399" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>65</v>
+        <v>481</v>
       </c>
       <c r="B400" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C400" t="s">
-        <v>333</v>
+        <v>70</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>65</v>
+        <v>482</v>
       </c>
       <c r="B401" t="s">
-        <v>466</v>
+        <v>98</v>
       </c>
       <c r="C401" t="s">
-        <v>320</v>
+        <v>70</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>65</v>
+        <v>483</v>
       </c>
       <c r="B402" t="s">
-        <v>467</v>
+        <v>120</v>
       </c>
       <c r="C402" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>65</v>
+        <v>484</v>
       </c>
       <c r="B403" t="s">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="C403" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>65</v>
+        <v>485</v>
       </c>
       <c r="B404" t="s">
-        <v>469</v>
+        <v>106</v>
       </c>
       <c r="C404" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>65</v>
+        <v>486</v>
       </c>
       <c r="B405" t="s">
-        <v>470</v>
+        <v>106</v>
       </c>
       <c r="C405" t="s">
-        <v>360</v>
+        <v>71</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>65</v>
+        <v>487</v>
       </c>
       <c r="B406" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C406" t="s">
-        <v>422</v>
+        <v>71</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>65</v>
+        <v>642</v>
       </c>
       <c r="B407" t="s">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="C407" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>65</v>
+        <v>488</v>
       </c>
       <c r="B408" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="C408" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>65</v>
+        <v>490</v>
       </c>
       <c r="B409" t="s">
-        <v>473</v>
+        <v>2</v>
       </c>
       <c r="C409" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>65</v>
+        <v>491</v>
       </c>
       <c r="B410" t="s">
-        <v>474</v>
+        <v>2</v>
       </c>
       <c r="C410" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>65</v>
+        <v>492</v>
       </c>
       <c r="B411" t="s">
-        <v>475</v>
+        <v>2</v>
       </c>
       <c r="C411" t="s">
-        <v>4</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>493</v>
+      </c>
+      <c r="B412" t="s">
+        <v>117</v>
+      </c>
+      <c r="C412" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>684</v>
+        <v>494</v>
       </c>
       <c r="B413" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C413" t="s">
-        <v>476</v>
+        <v>71</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>684</v>
+        <v>495</v>
       </c>
       <c r="B414" t="s">
-        <v>477</v>
+        <v>117</v>
       </c>
       <c r="C414" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>684</v>
+        <v>496</v>
       </c>
       <c r="B415" t="s">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="C415" t="s">
-        <v>360</v>
+        <v>71</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>684</v>
+        <v>497</v>
       </c>
       <c r="B416" t="s">
-        <v>479</v>
+        <v>110</v>
       </c>
       <c r="C416" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>684</v>
+        <v>498</v>
       </c>
       <c r="B417" t="s">
-        <v>480</v>
+        <v>161</v>
       </c>
       <c r="C417" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>684</v>
+        <v>499</v>
       </c>
       <c r="B418" t="s">
-        <v>481</v>
+        <v>86</v>
       </c>
       <c r="C418" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>684</v>
+        <v>500</v>
       </c>
       <c r="B419" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C419" t="s">
-        <v>340</v>
+        <v>71</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>684</v>
+        <v>501</v>
       </c>
       <c r="B420" t="s">
-        <v>482</v>
+        <v>25</v>
       </c>
       <c r="C420" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>684</v>
+        <v>643</v>
       </c>
       <c r="B421" t="s">
-        <v>483</v>
+        <v>84</v>
       </c>
       <c r="C421" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>684</v>
+        <v>502</v>
       </c>
       <c r="B422" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="C422" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>684</v>
+        <v>504</v>
       </c>
       <c r="B423" t="s">
-        <v>485</v>
+        <v>257</v>
       </c>
       <c r="C423" t="s">
-        <v>102</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>505</v>
+      </c>
+      <c r="B424" t="s">
+        <v>198</v>
+      </c>
+      <c r="C424" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>38</v>
+        <v>506</v>
       </c>
       <c r="B425" t="s">
-        <v>486</v>
+        <v>29</v>
       </c>
       <c r="C425" t="s">
-        <v>320</v>
+        <v>71</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>38</v>
+        <v>507</v>
       </c>
       <c r="B426" t="s">
-        <v>487</v>
+        <v>29</v>
       </c>
       <c r="C426" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>38</v>
+        <v>508</v>
       </c>
       <c r="B427" t="s">
-        <v>488</v>
+        <v>29</v>
       </c>
       <c r="C427" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>38</v>
+        <v>509</v>
       </c>
       <c r="B428" t="s">
-        <v>489</v>
+        <v>98</v>
       </c>
       <c r="C428" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>38</v>
+        <v>510</v>
       </c>
       <c r="B429" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="C429" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>38</v>
+        <v>512</v>
       </c>
       <c r="B430" t="s">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="C430" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>38</v>
+        <v>513</v>
       </c>
       <c r="B431" t="s">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="C431" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>38</v>
+        <v>514</v>
       </c>
       <c r="B432" t="s">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="C432" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>38</v>
+        <v>515</v>
       </c>
       <c r="B433" t="s">
-        <v>494</v>
+        <v>138</v>
       </c>
       <c r="C433" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>38</v>
+        <v>516</v>
       </c>
       <c r="B434" t="s">
-        <v>495</v>
+        <v>2</v>
       </c>
       <c r="C434" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>38</v>
+        <v>517</v>
       </c>
       <c r="B435" t="s">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="C435" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>38</v>
+        <v>518</v>
       </c>
       <c r="B436" t="s">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="C436" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>38</v>
+        <v>519</v>
       </c>
       <c r="B437" t="s">
-        <v>498</v>
+        <v>117</v>
       </c>
       <c r="C437" t="s">
-        <v>223</v>
+        <v>72</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>38</v>
+        <v>520</v>
       </c>
       <c r="B438" t="s">
-        <v>499</v>
+        <v>117</v>
       </c>
       <c r="C438" t="s">
-        <v>223</v>
+        <v>72</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>38</v>
+        <v>521</v>
       </c>
       <c r="B439" t="s">
-        <v>500</v>
+        <v>117</v>
       </c>
       <c r="C439" t="s">
-        <v>29</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>522</v>
+      </c>
+      <c r="B440" t="s">
+        <v>161</v>
+      </c>
+      <c r="C440" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>523</v>
+      </c>
+      <c r="B441" t="s">
+        <v>314</v>
+      </c>
+      <c r="C441" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>66</v>
+        <v>524</v>
       </c>
       <c r="B442" t="s">
-        <v>501</v>
+        <v>96</v>
       </c>
       <c r="C442" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>66</v>
+        <v>525</v>
       </c>
       <c r="B443" t="s">
-        <v>502</v>
+        <v>84</v>
       </c>
       <c r="C443" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>66</v>
+        <v>526</v>
       </c>
       <c r="B444" t="s">
-        <v>503</v>
+        <v>84</v>
       </c>
       <c r="C444" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>66</v>
+        <v>527</v>
       </c>
       <c r="B445" t="s">
-        <v>504</v>
+        <v>257</v>
       </c>
       <c r="C445" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>66</v>
+        <v>528</v>
       </c>
       <c r="B446" t="s">
-        <v>505</v>
+        <v>257</v>
       </c>
       <c r="C446" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>66</v>
+        <v>529</v>
       </c>
       <c r="B447" t="s">
-        <v>506</v>
+        <v>29</v>
       </c>
       <c r="C447" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>66</v>
+        <v>530</v>
       </c>
       <c r="B448" t="s">
-        <v>507</v>
+        <v>29</v>
       </c>
       <c r="C448" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>66</v>
+        <v>531</v>
       </c>
       <c r="B449" t="s">
-        <v>508</v>
+        <v>98</v>
       </c>
       <c r="C449" t="s">
-        <v>290</v>
+        <v>72</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>66</v>
+        <v>532</v>
       </c>
       <c r="B450" t="s">
-        <v>509</v>
+        <v>98</v>
       </c>
       <c r="C450" t="s">
-        <v>290</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>533</v>
+      </c>
+      <c r="B451" t="s">
+        <v>271</v>
+      </c>
+      <c r="C451" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>68</v>
+        <v>534</v>
       </c>
       <c r="B452" t="s">
-        <v>510</v>
+        <v>161</v>
       </c>
       <c r="C452" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>68</v>
+        <v>535</v>
       </c>
       <c r="B453" t="s">
-        <v>511</v>
+        <v>271</v>
       </c>
       <c r="C453" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>68</v>
+        <v>536</v>
       </c>
       <c r="B454" t="s">
-        <v>512</v>
+        <v>80</v>
       </c>
       <c r="C454" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>68</v>
+        <v>537</v>
       </c>
       <c r="B455" t="s">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="C455" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>68</v>
+        <v>538</v>
       </c>
       <c r="B456" t="s">
-        <v>514</v>
+        <v>106</v>
       </c>
       <c r="C456" t="s">
-        <v>455</v>
+        <v>73</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>68</v>
+        <v>539</v>
       </c>
       <c r="B457" t="s">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="C457" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>68</v>
+        <v>540</v>
       </c>
       <c r="B458" t="s">
-        <v>516</v>
+        <v>138</v>
       </c>
       <c r="C458" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>68</v>
+        <v>541</v>
       </c>
       <c r="B459" t="s">
-        <v>517</v>
+        <v>117</v>
       </c>
       <c r="C459" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>68</v>
+        <v>542</v>
       </c>
       <c r="B460" t="s">
-        <v>518</v>
+        <v>117</v>
       </c>
       <c r="C460" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>68</v>
+        <v>543</v>
       </c>
       <c r="B461" t="s">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="C461" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>68</v>
+        <v>544</v>
       </c>
       <c r="B462" t="s">
-        <v>520</v>
+        <v>110</v>
       </c>
       <c r="C462" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>68</v>
+        <v>545</v>
       </c>
       <c r="B463" t="s">
-        <v>521</v>
+        <v>86</v>
       </c>
       <c r="C463" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>68</v>
+        <v>546</v>
       </c>
       <c r="B464" t="s">
-        <v>522</v>
+        <v>103</v>
       </c>
       <c r="C464" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>68</v>
+        <v>547</v>
       </c>
       <c r="B465" t="s">
-        <v>523</v>
+        <v>33</v>
       </c>
       <c r="C465" t="s">
-        <v>290</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>548</v>
+      </c>
+      <c r="B466" t="s">
+        <v>96</v>
+      </c>
+      <c r="C466" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>69</v>
+        <v>549</v>
       </c>
       <c r="B467" t="s">
-        <v>524</v>
+        <v>98</v>
       </c>
       <c r="C467" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>69</v>
+        <v>550</v>
       </c>
       <c r="B468" t="s">
-        <v>525</v>
+        <v>98</v>
       </c>
       <c r="C468" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>69</v>
+        <v>551</v>
       </c>
       <c r="B469" t="s">
-        <v>526</v>
+        <v>29</v>
       </c>
       <c r="C469" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>69</v>
+        <v>552</v>
       </c>
       <c r="B470" t="s">
-        <v>527</v>
+        <v>271</v>
       </c>
       <c r="C470" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>69</v>
+        <v>553</v>
       </c>
       <c r="B471" t="s">
-        <v>528</v>
+        <v>120</v>
       </c>
       <c r="C471" t="s">
-        <v>2</v>
+        <v>615</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>69</v>
+        <v>554</v>
       </c>
       <c r="B472" t="s">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="C472" t="s">
-        <v>2</v>
+        <v>615</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>69</v>
+        <v>555</v>
       </c>
       <c r="B473" t="s">
-        <v>530</v>
+        <v>106</v>
       </c>
       <c r="C473" t="s">
-        <v>125</v>
+        <v>615</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>69</v>
+        <v>556</v>
       </c>
       <c r="B474" t="s">
-        <v>531</v>
+        <v>4</v>
       </c>
       <c r="C474" t="s">
-        <v>125</v>
+        <v>615</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>69</v>
+        <v>557</v>
       </c>
       <c r="B475" t="s">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="C475" t="s">
-        <v>84</v>
+        <v>615</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>69</v>
+        <v>558</v>
       </c>
       <c r="B476" t="s">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="C476" t="s">
-        <v>117</v>
+        <v>615</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>69</v>
+        <v>559</v>
       </c>
       <c r="B477" t="s">
-        <v>534</v>
+        <v>332</v>
       </c>
       <c r="C477" t="s">
-        <v>109</v>
+        <v>615</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>69</v>
+        <v>560</v>
       </c>
       <c r="B478" t="s">
-        <v>535</v>
+        <v>332</v>
       </c>
       <c r="C478" t="s">
-        <v>33</v>
+        <v>615</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>69</v>
+        <v>561</v>
       </c>
       <c r="B479" t="s">
-        <v>536</v>
+        <v>332</v>
       </c>
       <c r="C479" t="s">
-        <v>290</v>
+        <v>615</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>69</v>
+        <v>562</v>
       </c>
       <c r="B480" t="s">
-        <v>537</v>
+        <v>84</v>
       </c>
       <c r="C480" t="s">
-        <v>290</v>
+        <v>615</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>69</v>
+        <v>563</v>
       </c>
       <c r="B481" t="s">
-        <v>538</v>
+        <v>96</v>
       </c>
       <c r="C481" t="s">
-        <v>223</v>
+        <v>615</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>69</v>
+        <v>564</v>
       </c>
       <c r="B482" t="s">
-        <v>539</v>
+        <v>96</v>
       </c>
       <c r="C482" t="s">
-        <v>104</v>
+        <v>615</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>69</v>
+        <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="C483" t="s">
-        <v>104</v>
+        <v>615</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>69</v>
+        <v>567</v>
       </c>
       <c r="B484" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="C484" t="s">
-        <v>304</v>
+        <v>615</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>69</v>
+        <v>568</v>
       </c>
       <c r="B485" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="C485" t="s">
-        <v>117</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>569</v>
+      </c>
+      <c r="B486" t="s">
+        <v>233</v>
+      </c>
+      <c r="C486" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>70</v>
+        <v>570</v>
       </c>
       <c r="B487" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="C487" t="s">
-        <v>4</v>
+        <v>615</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>70</v>
+        <v>572</v>
       </c>
       <c r="B488" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="C488" t="s">
-        <v>153</v>
+        <v>615</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>70</v>
+        <v>573</v>
       </c>
       <c r="B489" t="s">
-        <v>545</v>
+        <v>106</v>
       </c>
       <c r="C489" t="s">
-        <v>109</v>
+        <v>615</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>70</v>
+        <v>574</v>
       </c>
       <c r="B490" t="s">
-        <v>546</v>
+        <v>103</v>
       </c>
       <c r="C490" t="s">
-        <v>33</v>
+        <v>615</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>70</v>
+        <v>575</v>
       </c>
       <c r="B491" t="s">
-        <v>547</v>
+        <v>117</v>
       </c>
       <c r="C491" t="s">
-        <v>102</v>
+        <v>615</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>70</v>
+        <v>576</v>
       </c>
       <c r="B492" t="s">
-        <v>548</v>
+        <v>117</v>
       </c>
       <c r="C492" t="s">
-        <v>290</v>
+        <v>615</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>70</v>
+        <v>577</v>
       </c>
       <c r="B493" t="s">
-        <v>549</v>
+        <v>117</v>
       </c>
       <c r="C493" t="s">
-        <v>29</v>
+        <v>615</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>70</v>
+        <v>578</v>
       </c>
       <c r="B494" t="s">
-        <v>550</v>
+        <v>103</v>
       </c>
       <c r="C494" t="s">
-        <v>104</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>579</v>
+      </c>
+      <c r="B495" t="s">
+        <v>394</v>
+      </c>
+      <c r="C495" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>71</v>
+        <v>580</v>
       </c>
       <c r="B496" t="s">
-        <v>551</v>
+        <v>271</v>
       </c>
       <c r="C496" t="s">
-        <v>130</v>
+        <v>615</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>71</v>
+        <v>581</v>
       </c>
       <c r="B497" t="s">
-        <v>552</v>
+        <v>198</v>
       </c>
       <c r="C497" t="s">
-        <v>82</v>
+        <v>615</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>71</v>
+        <v>582</v>
       </c>
       <c r="B498" t="s">
-        <v>553</v>
+        <v>33</v>
       </c>
       <c r="C498" t="s">
-        <v>113</v>
+        <v>615</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>71</v>
+        <v>583</v>
       </c>
       <c r="B499" t="s">
-        <v>554</v>
+        <v>120</v>
       </c>
       <c r="C499" t="s">
-        <v>113</v>
+        <v>616</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>71</v>
+        <v>584</v>
       </c>
       <c r="B500" t="s">
-        <v>555</v>
+        <v>120</v>
       </c>
       <c r="C500" t="s">
-        <v>4</v>
+        <v>616</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>71</v>
+        <v>585</v>
       </c>
       <c r="B501" t="s">
-        <v>556</v>
+        <v>80</v>
       </c>
       <c r="C501" t="s">
-        <v>4</v>
+        <v>616</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>71</v>
+        <v>586</v>
       </c>
       <c r="B502" t="s">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="C502" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>71</v>
+        <v>587</v>
       </c>
       <c r="B503" t="s">
-        <v>559</v>
+        <v>106</v>
       </c>
       <c r="C503" t="s">
-        <v>2</v>
+        <v>616</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>71</v>
+        <v>588</v>
       </c>
       <c r="B504" t="s">
-        <v>560</v>
+        <v>117</v>
       </c>
       <c r="C504" t="s">
-        <v>2</v>
+        <v>616</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>71</v>
+        <v>589</v>
       </c>
       <c r="B505" t="s">
-        <v>561</v>
+        <v>117</v>
       </c>
       <c r="C505" t="s">
-        <v>2</v>
+        <v>616</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>71</v>
+        <v>590</v>
       </c>
       <c r="B506" t="s">
-        <v>562</v>
+        <v>117</v>
       </c>
       <c r="C506" t="s">
-        <v>125</v>
+        <v>616</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>71</v>
+        <v>591</v>
       </c>
       <c r="B507" t="s">
-        <v>563</v>
+        <v>198</v>
       </c>
       <c r="C507" t="s">
-        <v>125</v>
+        <v>616</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>71</v>
+        <v>592</v>
       </c>
       <c r="B508" t="s">
-        <v>564</v>
+        <v>198</v>
       </c>
       <c r="C508" t="s">
-        <v>125</v>
+        <v>616</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>71</v>
+        <v>593</v>
       </c>
       <c r="B509" t="s">
-        <v>565</v>
+        <v>80</v>
       </c>
       <c r="C509" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>71</v>
+        <v>594</v>
       </c>
       <c r="B510" t="s">
-        <v>566</v>
+        <v>80</v>
       </c>
       <c r="C510" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>71</v>
+        <v>595</v>
       </c>
       <c r="B511" t="s">
-        <v>567</v>
+        <v>84</v>
       </c>
       <c r="C511" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>71</v>
+        <v>596</v>
       </c>
       <c r="B512" t="s">
-        <v>568</v>
+        <v>103</v>
       </c>
       <c r="C512" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>71</v>
+        <v>597</v>
       </c>
       <c r="B513" t="s">
-        <v>569</v>
+        <v>96</v>
       </c>
       <c r="C513" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>71</v>
+        <v>598</v>
       </c>
       <c r="B514" t="s">
-        <v>570</v>
+        <v>96</v>
       </c>
       <c r="C514" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>71</v>
+        <v>599</v>
       </c>
       <c r="B515" t="s">
-        <v>571</v>
+        <v>96</v>
       </c>
       <c r="C515" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>71</v>
+        <v>600</v>
       </c>
       <c r="B516" t="s">
-        <v>572</v>
+        <v>110</v>
       </c>
       <c r="C516" t="s">
-        <v>573</v>
+        <v>76</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>71</v>
+        <v>601</v>
       </c>
       <c r="B517" t="s">
-        <v>574</v>
+        <v>29</v>
       </c>
       <c r="C517" t="s">
-        <v>290</v>
+        <v>76</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>71</v>
+        <v>602</v>
       </c>
       <c r="B518" t="s">
-        <v>575</v>
+        <v>96</v>
       </c>
       <c r="C518" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>71</v>
+        <v>603</v>
       </c>
       <c r="B519" t="s">
-        <v>576</v>
+        <v>117</v>
       </c>
       <c r="C519" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>71</v>
+        <v>604</v>
       </c>
       <c r="B520" t="s">
-        <v>577</v>
+        <v>394</v>
       </c>
       <c r="C520" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>71</v>
+        <v>605</v>
       </c>
       <c r="B521" t="s">
-        <v>578</v>
+        <v>2</v>
       </c>
       <c r="C521" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>71</v>
+        <v>606</v>
       </c>
       <c r="B522" t="s">
-        <v>579</v>
+        <v>117</v>
       </c>
       <c r="C522" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>71</v>
+        <v>607</v>
       </c>
       <c r="B523" t="s">
-        <v>580</v>
+        <v>117</v>
       </c>
       <c r="C523" t="s">
-        <v>581</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>608</v>
+      </c>
+      <c r="B524" t="s">
+        <v>117</v>
+      </c>
+      <c r="C524" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>72</v>
+        <v>609</v>
       </c>
       <c r="B525" t="s">
-        <v>582</v>
+        <v>84</v>
       </c>
       <c r="C525" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>72</v>
+        <v>610</v>
       </c>
       <c r="B526" t="s">
-        <v>583</v>
+        <v>84</v>
       </c>
       <c r="C526" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>72</v>
+        <v>611</v>
       </c>
       <c r="B527" t="s">
-        <v>584</v>
+        <v>103</v>
       </c>
       <c r="C527" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>72</v>
+        <v>612</v>
       </c>
       <c r="B528" t="s">
-        <v>585</v>
+        <v>96</v>
       </c>
       <c r="C528" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>72</v>
+        <v>613</v>
       </c>
       <c r="B529" t="s">
-        <v>586</v>
+        <v>271</v>
       </c>
       <c r="C529" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>72</v>
+        <v>644</v>
       </c>
       <c r="B530" t="s">
-        <v>587</v>
+        <v>33</v>
       </c>
       <c r="C530" t="s">
-        <v>2</v>
+        <v>617</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>72</v>
+        <v>645</v>
       </c>
       <c r="B531" t="s">
-        <v>588</v>
+        <v>25</v>
       </c>
       <c r="C531" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>72</v>
-      </c>
-      <c r="B532" t="s">
-        <v>589</v>
-      </c>
-      <c r="C532" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
-        <v>72</v>
-      </c>
-      <c r="B533" t="s">
-        <v>590</v>
-      </c>
-      <c r="C533" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
-        <v>72</v>
-      </c>
-      <c r="B534" t="s">
-        <v>591</v>
-      </c>
-      <c r="C534" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>72</v>
-      </c>
-      <c r="B535" t="s">
-        <v>592</v>
-      </c>
-      <c r="C535" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
-        <v>72</v>
-      </c>
-      <c r="B536" t="s">
-        <v>593</v>
-      </c>
-      <c r="C536" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
-        <v>72</v>
-      </c>
-      <c r="B537" t="s">
-        <v>594</v>
-      </c>
-      <c r="C537" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
-        <v>72</v>
-      </c>
-      <c r="B538" t="s">
-        <v>595</v>
-      </c>
-      <c r="C538" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>72</v>
-      </c>
-      <c r="B539" t="s">
-        <v>596</v>
-      </c>
-      <c r="C539" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
-        <v>72</v>
-      </c>
-      <c r="B540" t="s">
-        <v>597</v>
-      </c>
-      <c r="C540" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
-        <v>72</v>
-      </c>
-      <c r="B541" t="s">
-        <v>598</v>
-      </c>
-      <c r="C541" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>72</v>
-      </c>
-      <c r="B542" t="s">
-        <v>599</v>
-      </c>
-      <c r="C542" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
-        <v>72</v>
-      </c>
-      <c r="B543" t="s">
-        <v>600</v>
-      </c>
-      <c r="C543" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>72</v>
-      </c>
-      <c r="B544" t="s">
-        <v>601</v>
-      </c>
-      <c r="C544" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
-        <v>72</v>
-      </c>
-      <c r="B545" t="s">
-        <v>602</v>
-      </c>
-      <c r="C545" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
-        <v>72</v>
-      </c>
-      <c r="B546" t="s">
-        <v>603</v>
-      </c>
-      <c r="C546" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
-        <v>72</v>
-      </c>
-      <c r="B547" t="s">
-        <v>604</v>
-      </c>
-      <c r="C547" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>72</v>
-      </c>
-      <c r="B548" t="s">
-        <v>605</v>
-      </c>
-      <c r="C548" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>73</v>
-      </c>
-      <c r="B550" t="s">
-        <v>606</v>
-      </c>
-      <c r="C550" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>73</v>
-      </c>
-      <c r="B551" t="s">
-        <v>607</v>
-      </c>
-      <c r="C551" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>73</v>
-      </c>
-      <c r="B552" t="s">
-        <v>608</v>
-      </c>
-      <c r="C552" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>73</v>
-      </c>
-      <c r="B553" t="s">
-        <v>609</v>
-      </c>
-      <c r="C553" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>73</v>
-      </c>
-      <c r="B554" t="s">
-        <v>610</v>
-      </c>
-      <c r="C554" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
-        <v>73</v>
-      </c>
-      <c r="B555" t="s">
-        <v>611</v>
-      </c>
-      <c r="C555" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>73</v>
-      </c>
-      <c r="B556" t="s">
-        <v>612</v>
-      </c>
-      <c r="C556" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
-        <v>73</v>
-      </c>
-      <c r="B557" t="s">
-        <v>613</v>
-      </c>
-      <c r="C557" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
-        <v>73</v>
-      </c>
-      <c r="B558" t="s">
-        <v>614</v>
-      </c>
-      <c r="C558" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
-        <v>73</v>
-      </c>
-      <c r="B559" t="s">
-        <v>615</v>
-      </c>
-      <c r="C559" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
-        <v>73</v>
-      </c>
-      <c r="B560" t="s">
-        <v>616</v>
-      </c>
-      <c r="C560" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
-        <v>73</v>
-      </c>
-      <c r="B561" t="s">
         <v>617</v>
-      </c>
-      <c r="C561" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>73</v>
-      </c>
-      <c r="B562" t="s">
-        <v>618</v>
-      </c>
-      <c r="C562" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>73</v>
-      </c>
-      <c r="B563" t="s">
-        <v>619</v>
-      </c>
-      <c r="C563" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
-        <v>73</v>
-      </c>
-      <c r="B564" t="s">
-        <v>620</v>
-      </c>
-      <c r="C564" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
-        <v>73</v>
-      </c>
-      <c r="B565" t="s">
-        <v>621</v>
-      </c>
-      <c r="C565" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
-        <v>73</v>
-      </c>
-      <c r="B566" t="s">
-        <v>622</v>
-      </c>
-      <c r="C566" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>685</v>
-      </c>
-      <c r="B569" t="s">
-        <v>623</v>
-      </c>
-      <c r="C569" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>685</v>
-      </c>
-      <c r="B570" t="s">
-        <v>624</v>
-      </c>
-      <c r="C570" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>685</v>
-      </c>
-      <c r="B571" t="s">
-        <v>625</v>
-      </c>
-      <c r="C571" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>685</v>
-      </c>
-      <c r="B572" t="s">
-        <v>626</v>
-      </c>
-      <c r="C572" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>685</v>
-      </c>
-      <c r="B573" t="s">
-        <v>627</v>
-      </c>
-      <c r="C573" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
-        <v>685</v>
-      </c>
-      <c r="B574" t="s">
-        <v>628</v>
-      </c>
-      <c r="C574" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
-        <v>685</v>
-      </c>
-      <c r="B575" t="s">
-        <v>629</v>
-      </c>
-      <c r="C575" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>685</v>
-      </c>
-      <c r="B576" t="s">
-        <v>630</v>
-      </c>
-      <c r="C576" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
-        <v>685</v>
-      </c>
-      <c r="B577" t="s">
-        <v>631</v>
-      </c>
-      <c r="C577" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>685</v>
-      </c>
-      <c r="B578" t="s">
-        <v>632</v>
-      </c>
-      <c r="C578" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>685</v>
-      </c>
-      <c r="B579" t="s">
-        <v>633</v>
-      </c>
-      <c r="C579" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
-        <v>685</v>
-      </c>
-      <c r="B580" t="s">
-        <v>634</v>
-      </c>
-      <c r="C580" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>685</v>
-      </c>
-      <c r="B581" t="s">
-        <v>635</v>
-      </c>
-      <c r="C581" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
-        <v>685</v>
-      </c>
-      <c r="B582" t="s">
-        <v>637</v>
-      </c>
-      <c r="C582" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
-        <v>685</v>
-      </c>
-      <c r="B583" t="s">
-        <v>638</v>
-      </c>
-      <c r="C583" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
-        <v>685</v>
-      </c>
-      <c r="B584" t="s">
-        <v>639</v>
-      </c>
-      <c r="C584" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>685</v>
-      </c>
-      <c r="B585" t="s">
-        <v>640</v>
-      </c>
-      <c r="C585" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
-        <v>685</v>
-      </c>
-      <c r="B586" t="s">
-        <v>642</v>
-      </c>
-      <c r="C586" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
-        <v>685</v>
-      </c>
-      <c r="B587" t="s">
-        <v>643</v>
-      </c>
-      <c r="C587" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
-        <v>685</v>
-      </c>
-      <c r="B588" t="s">
-        <v>644</v>
-      </c>
-      <c r="C588" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
-        <v>685</v>
-      </c>
-      <c r="B589" t="s">
-        <v>645</v>
-      </c>
-      <c r="C589" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
-        <v>685</v>
-      </c>
-      <c r="B590" t="s">
-        <v>646</v>
-      </c>
-      <c r="C590" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
-        <v>685</v>
-      </c>
-      <c r="B591" t="s">
-        <v>647</v>
-      </c>
-      <c r="C591" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>685</v>
-      </c>
-      <c r="B592" t="s">
-        <v>648</v>
-      </c>
-      <c r="C592" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
-        <v>685</v>
-      </c>
-      <c r="B593" t="s">
-        <v>649</v>
-      </c>
-      <c r="C593" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
-        <v>685</v>
-      </c>
-      <c r="B594" t="s">
-        <v>650</v>
-      </c>
-      <c r="C594" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
-        <v>685</v>
-      </c>
-      <c r="B595" t="s">
-        <v>651</v>
-      </c>
-      <c r="C595" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
-        <v>685</v>
-      </c>
-      <c r="B596" t="s">
-        <v>652</v>
-      </c>
-      <c r="C596" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
-        <v>686</v>
-      </c>
-      <c r="B598" t="s">
-        <v>653</v>
-      </c>
-      <c r="C598" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
-        <v>686</v>
-      </c>
-      <c r="B599" t="s">
-        <v>654</v>
-      </c>
-      <c r="C599" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
-        <v>686</v>
-      </c>
-      <c r="B600" t="s">
-        <v>655</v>
-      </c>
-      <c r="C600" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
-        <v>686</v>
-      </c>
-      <c r="B601" t="s">
-        <v>656</v>
-      </c>
-      <c r="C601" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
-        <v>686</v>
-      </c>
-      <c r="B602" t="s">
-        <v>657</v>
-      </c>
-      <c r="C602" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
-        <v>686</v>
-      </c>
-      <c r="B603" t="s">
-        <v>658</v>
-      </c>
-      <c r="C603" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
-        <v>686</v>
-      </c>
-      <c r="B604" t="s">
-        <v>659</v>
-      </c>
-      <c r="C604" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
-        <v>686</v>
-      </c>
-      <c r="B605" t="s">
-        <v>660</v>
-      </c>
-      <c r="C605" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
-        <v>686</v>
-      </c>
-      <c r="B606" t="s">
-        <v>661</v>
-      </c>
-      <c r="C606" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
-        <v>686</v>
-      </c>
-      <c r="B607" t="s">
-        <v>662</v>
-      </c>
-      <c r="C607" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
-        <v>76</v>
-      </c>
-      <c r="B609" t="s">
-        <v>663</v>
-      </c>
-      <c r="C609" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
-        <v>76</v>
-      </c>
-      <c r="B610" t="s">
-        <v>664</v>
-      </c>
-      <c r="C610" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
-        <v>76</v>
-      </c>
-      <c r="B611" t="s">
-        <v>665</v>
-      </c>
-      <c r="C611" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
-        <v>76</v>
-      </c>
-      <c r="B612" t="s">
-        <v>666</v>
-      </c>
-      <c r="C612" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
-        <v>76</v>
-      </c>
-      <c r="B613" t="s">
-        <v>667</v>
-      </c>
-      <c r="C613" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
-        <v>76</v>
-      </c>
-      <c r="B614" t="s">
-        <v>668</v>
-      </c>
-      <c r="C614" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
-        <v>76</v>
-      </c>
-      <c r="B615" t="s">
-        <v>669</v>
-      </c>
-      <c r="C615" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>76</v>
-      </c>
-      <c r="B616" t="s">
-        <v>670</v>
-      </c>
-      <c r="C616" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
-        <v>76</v>
-      </c>
-      <c r="B617" t="s">
-        <v>671</v>
-      </c>
-      <c r="C617" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
-        <v>76</v>
-      </c>
-      <c r="B618" t="s">
-        <v>672</v>
-      </c>
-      <c r="C618" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
-        <v>76</v>
-      </c>
-      <c r="B619" t="s">
-        <v>673</v>
-      </c>
-      <c r="C619" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
-        <v>76</v>
-      </c>
-      <c r="B620" t="s">
-        <v>674</v>
-      </c>
-      <c r="C620" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
-        <v>77</v>
-      </c>
-      <c r="B622" t="s">
-        <v>675</v>
-      </c>
-      <c r="C622" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
-        <v>77</v>
-      </c>
-      <c r="B623" t="s">
-        <v>676</v>
-      </c>
-      <c r="C623" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
-        <v>77</v>
-      </c>
-      <c r="B624" t="s">
-        <v>677</v>
-      </c>
-      <c r="C624" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
-        <v>77</v>
-      </c>
-      <c r="B625" t="s">
-        <v>678</v>
-      </c>
-      <c r="C625" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
-        <v>77</v>
-      </c>
-      <c r="B626" t="s">
-        <v>679</v>
-      </c>
-      <c r="C626" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
-        <v>77</v>
-      </c>
-      <c r="B627" t="s">
-        <v>680</v>
-      </c>
-      <c r="C627" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
-        <v>77</v>
-      </c>
-      <c r="B628" t="s">
-        <v>681</v>
-      </c>
-      <c r="C628" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
-        <v>77</v>
-      </c>
-      <c r="B629" t="s">
-        <v>682</v>
-      </c>
-      <c r="C629" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
-        <v>77</v>
-      </c>
-      <c r="B630" t="s">
-        <v>683</v>
-      </c>
-      <c r="C630" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
-        <v>687</v>
-      </c>
-      <c r="B632" t="s">
-        <v>688</v>
-      </c>
-      <c r="C632" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
-        <v>687</v>
-      </c>
-      <c r="B633" t="s">
-        <v>689</v>
-      </c>
-      <c r="C633" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -9154,8 +8371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9370,7 +8587,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>687</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Teams (Needs Verifying)" sheetId="1" r:id="rId1"/>
@@ -26,122 +26,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="649">
-  <si>
-    <t>INDEPENDENT</t>
-  </si>
-  <si>
-    <t>BRADFORD DRAGONS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="626">
   <si>
     <t>BRAWL</t>
   </si>
   <si>
-    <t>BWRPS – BANGOR</t>
-  </si>
-  <si>
     <t>CRAGS</t>
   </si>
   <si>
-    <t>DERBY IMAGINEERS</t>
-  </si>
-  <si>
-    <t>UNIVERSITY OF DERBY CONFEDERACY OF UNIFIED NERDS (GAMING AND IMAGINEERS)</t>
-  </si>
-  <si>
-    <t>GARPS (READING)</t>
-  </si>
-  <si>
     <t>GEAS GAME SOC</t>
   </si>
   <si>
-    <t>GEAS (WARGAMERS)</t>
-  </si>
-  <si>
-    <t>GEAS VETS (SEPARATE)</t>
-  </si>
-  <si>
-    <t>GUGS</t>
-  </si>
-  <si>
     <t>HUGS</t>
   </si>
   <si>
-    <t>HUSSARS</t>
-  </si>
-  <si>
     <t>KCL</t>
   </si>
   <si>
-    <t>K.O.T. EXILES (ABERDEEN)</t>
-  </si>
-  <si>
-    <t>LSU RAWSOC</t>
-  </si>
-  <si>
-    <t>UNIVERSITY OF LEICESTER SABERS</t>
-  </si>
-  <si>
-    <t>MERCENARIES</t>
-  </si>
-  <si>
-    <t>MISKATONIC</t>
-  </si>
-  <si>
-    <t>NODD SOC</t>
-  </si>
-  <si>
-    <t>UNIVERSITY OF NOTTINGHAM</t>
-  </si>
-  <si>
-    <t>PAISLEY HOBBITS</t>
-  </si>
-  <si>
-    <t>SHEFFIELD WARGAMERS INCOMMING</t>
-  </si>
-  <si>
-    <t>STEEL CITY VETS</t>
-  </si>
-  <si>
     <t>SUGS</t>
   </si>
   <si>
-    <t>SUNDERLAND</t>
-  </si>
-  <si>
-    <t>SUSSEX</t>
-  </si>
-  <si>
-    <t>UCLAN</t>
-  </si>
-  <si>
     <t>UWE</t>
   </si>
   <si>
-    <t>VAGUE</t>
-  </si>
-  <si>
-    <t>VAGUE VETS</t>
-  </si>
-  <si>
-    <t>VANGUARD VETS</t>
-  </si>
-  <si>
     <t>WARGS</t>
   </si>
   <si>
-    <t>WARGS VETS</t>
-  </si>
-  <si>
-    <t>WARLOCS</t>
-  </si>
-  <si>
-    <t>WARP SOC</t>
-  </si>
-  <si>
-    <t>WATT GAMERS</t>
-  </si>
-  <si>
     <t>LARP</t>
   </si>
   <si>
@@ -169,9 +79,6 @@
     <t>Dice-less not systemless</t>
   </si>
   <si>
-    <t>Fantasy (open clasic)</t>
-  </si>
-  <si>
     <t>Fantasy (Urban/modern)</t>
   </si>
   <si>
@@ -1973,6 +1880,30 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>VAGUE Vets</t>
+  </si>
+  <si>
+    <t>Vanguard VETS</t>
+  </si>
+  <si>
+    <t>uni of darby</t>
+  </si>
+  <si>
+    <t>uni of nottingham</t>
+  </si>
+  <si>
+    <t>GEAS wargamers</t>
+  </si>
+  <si>
+    <t>sheffield wargaming</t>
+  </si>
+  <si>
+    <t>Steel City vets</t>
+  </si>
+  <si>
+    <t>Fantasy (open classic)</t>
   </si>
 </sst>
 </file>
@@ -2290,215 +2221,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A40" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:A40">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="A40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2509,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C531"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,5843 +2458,5843 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="C1" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>646</v>
+        <v>615</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C91" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B107" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B109" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="B111" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="B113" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C116" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B117" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="B118" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C118" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C119" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C120" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C121" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C122" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C123" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C125" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="B126" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C126" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="B127" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="B128" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C129" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="B130" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C130" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="B131" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C133" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="B134" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C134" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B135" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C135" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="B136" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C136" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B137" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C137" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="B138" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C138" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="B140" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C140" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="B141" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C141" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="B142" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C142" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="B143" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C143" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="C144" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="B145" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C145" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="B146" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C146" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B147" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C147" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="B148" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="B149" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C149" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="B150" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C150" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B151" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C151" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="B152" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C152" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="B153" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="C153" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B154" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C154" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="B155" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C155" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="B156" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C156" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B157" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C157" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="B158" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C158" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C159" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="B160" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="B162" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C162" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="B163" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C163" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="B164" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C164" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="B165" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C165" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="B167" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C167" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="B169" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C169" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="B171" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C171" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="B174" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C174" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B175" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C175" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="B176" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C176" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="B177" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="C177" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="B178" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C178" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="B179" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C179" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="B181" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C181" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="B182" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C182" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="B183" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="B184" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C184" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="B185" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C185" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B186" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="C186" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="B188" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C188" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="B189" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B190" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="C190" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="B191" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C191" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="B192" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C192" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="B193" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C193" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="B194" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C194" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="B195" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B196" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C196" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="B197" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C197" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="B198" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C198" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="B199" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="B200" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="B201" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C201" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="B202" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C202" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="B203" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C203" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="B205" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C205" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="B206" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C206" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>629</v>
+        <v>598</v>
       </c>
       <c r="B207" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C207" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="B208" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C208" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B209" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C209" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="B210" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C210" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="B211" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C211" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="B212" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C212" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B213" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="C213" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="B214" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C214" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="B215" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C215" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="B216" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C216" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="B217" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C217" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="B218" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="C218" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="B219" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C219" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="B220" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C220" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="B222" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C222" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="B223" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C223" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="B224" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C224" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="B225" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="C225" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="B226" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C226" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B227" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C227" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C228" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>632</v>
+        <v>601</v>
       </c>
       <c r="B229" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C229" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="B230" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C230" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="B231" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C231" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="B232" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="B233" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C233" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="B234" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C234" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="B235" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="B236" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C236" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="B237" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C237" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="B238" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C238" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="B239" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C239" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B240" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C240" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="B241" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C241" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="B242" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="B243" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C243" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="B244" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C244" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="B245" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C245" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="B246" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C246" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="B247" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C247" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="B248" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C248" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="B249" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="C249" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
       <c r="B250" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C250" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="B251" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="B252" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C252" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="B253" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="C253" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="B254" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C254" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="B255" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C255" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="B256" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C256" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="B257" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C257" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>634</v>
+        <v>603</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C258" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="B259" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="C259" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="B260" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C260" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="B261" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C261" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="B262" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C262" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="B263" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C263" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="B264" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C264" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="B265" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C265" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="B266" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C266" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="B267" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C267" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="B268" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C268" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="B269" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C269" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B270" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C270" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="B271" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C271" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="B272" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C272" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B273" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
       <c r="B274" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C274" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="B275" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C275" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="B276" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C276" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="B277" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C277" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="B278" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C278" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="B279" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C279" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="B280" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C280" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="B281" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C281" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="B282" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C282" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="B283" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="C283" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C284" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="B285" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C285" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="B286" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C286" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="B287" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C287" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="B288" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C288" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="B289" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C289" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="B290" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C290" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="B291" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C291" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="B292" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C292" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="B293" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C293" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="B294" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C294" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="B295" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C295" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="B296" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C296" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="B297" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="B298" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C298" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="B299" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C299" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="B300" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C300" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="B301" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C301" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="B302" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C302" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="B303" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C303" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="B304" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C304" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="B305" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C305" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
       <c r="B306" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C306" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="B307" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C307" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="B308" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="C308" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="B309" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C309" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="B310" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C310" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="B311" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C311" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="B312" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C312" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="B313" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C313" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="B314" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C314" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="B315" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C315" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="B316" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C316" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="B317" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C317" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="B318" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C318" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="B319" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="C319" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="B320" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C320" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="B321" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C321" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="B322" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C322" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="B323" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="C323" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="B324" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C324" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="B325" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C325" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="B326" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C326" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="B327" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C327" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="B328" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="B329" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C329" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="B330" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="C330" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="B331" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C331" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="B332" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C332" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="B333" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C333" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="B334" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C334" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="B335" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C335" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="B336" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="B337" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C337" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="B338" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C338" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="B339" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C339" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="B340" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C340" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="B341" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C341" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="B342" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C342" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="B343" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C343" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="B344" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C344" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="B345" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C345" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="B346" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C346" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="B347" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C347" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="B348" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C348" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="B349" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C349" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="B350" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C350" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="B351" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C351" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="B352" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C352" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="B353" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C353" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="B354" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C354" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="B355" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C355" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="B356" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C356" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="B357" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C357" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="B358" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C358" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="B359" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C359" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="B360" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C360" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="B361" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C361" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="B362" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C362" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="B363" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C363" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="B364" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C364" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="B365" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="C365" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="B366" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C366" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="B367" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C367" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B368" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C368" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="B369" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C369" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="B370" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="C370" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="B371" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C371" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="B372" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C372" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="B373" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C373" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="B374" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C374" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="B375" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C375" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="B376" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C376" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="B377" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C377" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="B378" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C378" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="B379" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C379" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="B380" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C380" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="B381" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C381" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="B382" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C382" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="B383" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C383" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="B384" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C384" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="B385" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C385" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="B386" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C386" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="B387" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C387" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="B388" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C388" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="B389" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C389" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="B390" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C390" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="B391" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C391" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="B392" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C392" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="B393" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C393" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="B394" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C394" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="B395" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C395" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="B396" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C396" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="B397" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C397" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="B398" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C398" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="B399" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C399" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="B400" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C400" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="B401" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C401" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="B402" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C402" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="B403" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C403" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="B404" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C404" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="B405" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C405" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="B406" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C406" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="B407" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C407" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="B408" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="C408" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="B409" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C409" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="B410" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C410" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="B411" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C411" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="B412" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C412" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="B413" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C413" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="B414" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C414" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="B415" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C415" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="B416" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C416" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="B417" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C417" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="B418" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C418" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="B419" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C419" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="B420" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C420" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="B421" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C421" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="B422" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="C422" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="B423" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C423" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="B424" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C424" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="B425" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C425" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="B426" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C426" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="B427" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C427" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="B428" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C428" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="B429" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="C429" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="B430" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C430" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="B431" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C431" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="B432" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C432" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="B433" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C433" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="B434" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C434" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="B435" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C435" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="B436" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C436" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="B437" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C437" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="B438" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C438" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B439" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C439" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="B440" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C440" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="B441" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="C441" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="B442" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C442" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="B443" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C443" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="B444" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C444" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="B445" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C445" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="B446" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C446" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="B447" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C447" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
       <c r="B448" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C448" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="B449" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C449" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="B450" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C450" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="B451" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C451" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="B452" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C452" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="B453" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C453" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="B454" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C454" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="B455" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C455" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="B456" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C456" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="B457" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C457" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="B458" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C458" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="B459" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C459" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="B460" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C460" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="B461" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C461" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="B462" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C462" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="B463" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C463" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="B464" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C464" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="B465" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C465" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="B466" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C466" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="B467" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C467" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="B468" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C468" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="B469" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C469" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="B470" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C470" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="B471" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C471" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="B472" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C472" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="B473" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C473" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="B474" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C474" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="B475" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C475" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="B476" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C476" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="B477" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C477" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="B478" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C478" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="B479" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C479" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="B480" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C480" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="B481" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C481" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="B482" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C482" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="B483" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="C483" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="B484" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="C484" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="B485" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="C485" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="B486" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C486" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="B487" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="C487" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="B488" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="C488" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="B489" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C489" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="B490" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C490" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="B491" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C491" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="B492" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C492" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="B493" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C493" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="B494" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C494" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="B495" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="C495" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="B496" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C496" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="B497" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C497" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="B498" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C498" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="B499" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C499" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="B500" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C500" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>554</v>
+      </c>
+      <c r="B501" t="s">
+        <v>49</v>
+      </c>
+      <c r="C501" t="s">
         <v>585</v>
-      </c>
-      <c r="B501" t="s">
-        <v>80</v>
-      </c>
-      <c r="C501" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="B502" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C502" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="B503" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C503" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="B504" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C504" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="B505" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C505" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="B506" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C506" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="B507" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C507" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="B508" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C508" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="B509" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C509" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="B510" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C510" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="B511" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C511" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C512" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="B513" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C513" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="B514" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C514" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="B515" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C515" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>600</v>
+        <v>569</v>
       </c>
       <c r="B516" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C516" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="B517" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C517" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="B518" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C518" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="B519" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C519" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="B520" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="C520" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="B521" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C521" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="B522" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C522" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
       <c r="B523" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C523" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="B524" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C524" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="B525" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C525" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="B526" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C526" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="B527" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C527" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="B528" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C528" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>613</v>
+        <v>582</v>
       </c>
       <c r="B529" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C529" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="B530" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C530" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="B531" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C531" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -8371,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8382,212 +8318,212 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Teams (Needs Verifying)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="620">
   <si>
     <t>BRAWL</t>
   </si>
@@ -157,12 +157,6 @@
     <t>Warhammer 40k</t>
   </si>
   <si>
-    <t xml:space="preserve">Warhammer Fantasy Battle </t>
-  </si>
-  <si>
-    <t>War Machine</t>
-  </si>
-  <si>
     <t>Infinity</t>
   </si>
   <si>
@@ -499,9 +493,6 @@
     <t>Nathaniel Foresyth</t>
   </si>
   <si>
-    <t>Warlocs</t>
-  </si>
-  <si>
     <t>Megan Bettinson</t>
   </si>
   <si>
@@ -1117,9 +1108,6 @@
     <t>Sam Myers</t>
   </si>
   <si>
-    <t>Sheffield wargamers</t>
-  </si>
-  <si>
     <t>Clare Challinor</t>
   </si>
   <si>
@@ -1777,9 +1765,6 @@
     <t>Bruno Brown</t>
   </si>
   <si>
-    <t>world of darkness new</t>
-  </si>
-  <si>
     <t>Warhammer Fantasy Battle</t>
   </si>
   <si>
@@ -1889,9 +1874,6 @@
   </si>
   <si>
     <t>uni of darby</t>
-  </si>
-  <si>
-    <t>uni of nottingham</t>
   </si>
   <si>
     <t>GEAS wargamers</t>
@@ -2223,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A40" sqref="A2:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,12 +2216,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2249,7 +2231,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2259,12 +2241,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -2274,17 +2256,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -2294,12 +2276,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -2309,52 +2291,52 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2364,27 +2346,27 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>621</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -2394,17 +2376,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -2414,22 +2396,22 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2445,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C531"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="C472" sqref="C472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,21 +2440,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -2480,10 +2462,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2491,10 +2473,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2502,10 +2484,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2513,10 +2495,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2524,7 +2506,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2535,10 +2517,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2546,10 +2528,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2557,10 +2539,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2568,10 +2550,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2579,7 +2561,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -2590,10 +2572,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2601,10 +2583,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2612,10 +2594,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -2623,7 +2605,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -2634,10 +2616,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -2645,10 +2627,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -2656,10 +2638,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -2667,7 +2649,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -2678,7 +2660,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -2689,10 +2671,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -2700,10 +2682,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -2711,10 +2693,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -2722,7 +2704,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -2733,10 +2715,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -2744,10 +2726,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -2755,10 +2737,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -2766,7 +2748,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -2777,10 +2759,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -2788,10 +2770,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -2799,7 +2781,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2810,10 +2792,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -2821,10 +2803,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -2832,10 +2814,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -2843,10 +2825,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -2854,10 +2836,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -2865,10 +2847,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -2876,10 +2858,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -2887,10 +2869,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -2898,10 +2880,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -2909,7 +2891,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -2920,10 +2902,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -2931,10 +2913,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -2942,10 +2924,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -2953,10 +2935,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2964,10 +2946,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2975,7 +2957,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -2986,10 +2968,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2997,10 +2979,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -3008,10 +2990,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -3019,10 +3001,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -3030,10 +3012,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -3041,10 +3023,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -3052,10 +3034,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -3063,10 +3045,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -3074,7 +3056,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -3085,10 +3067,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -3096,7 +3078,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -3107,10 +3089,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -3118,7 +3100,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
@@ -3129,10 +3111,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -3140,10 +3122,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -3151,7 +3133,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -3162,10 +3144,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -3173,7 +3155,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
@@ -3184,10 +3166,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -3195,10 +3177,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -3206,10 +3188,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3217,10 +3199,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3228,10 +3210,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3239,10 +3221,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3250,10 +3232,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3261,10 +3243,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3272,10 +3254,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3283,10 +3265,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3294,10 +3276,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3305,7 +3287,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
@@ -3316,10 +3298,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3327,10 +3309,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
@@ -3338,7 +3320,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
@@ -3349,10 +3331,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
@@ -3360,10 +3342,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
@@ -3371,10 +3353,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
@@ -3382,10 +3364,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
@@ -3393,7 +3375,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
@@ -3404,10 +3386,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
@@ -3415,7 +3397,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -3426,10 +3408,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
@@ -3437,10 +3419,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
@@ -3448,10 +3430,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
@@ -3459,10 +3441,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C92" t="s">
         <v>16</v>
@@ -3470,10 +3452,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
         <v>16</v>
@@ -3481,10 +3463,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
@@ -3492,10 +3474,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B95" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -3503,10 +3485,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
@@ -3514,10 +3496,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
@@ -3525,10 +3507,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
@@ -3536,10 +3518,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
@@ -3547,10 +3529,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C100" t="s">
         <v>16</v>
@@ -3558,175 +3540,175 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C101" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C106" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C107" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C109" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B110" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C111" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B112" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C112" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B116" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C116" t="s">
         <v>17</v>
@@ -3734,10 +3716,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C117" t="s">
         <v>17</v>
@@ -3745,10 +3727,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B118" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
@@ -3756,10 +3738,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C119" t="s">
         <v>17</v>
@@ -3767,10 +3749,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B120" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C120" t="s">
         <v>17</v>
@@ -3778,10 +3760,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
@@ -3789,10 +3771,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B122" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C122" t="s">
         <v>17</v>
@@ -3800,10 +3782,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C123" t="s">
         <v>17</v>
@@ -3811,7 +3793,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -3822,10 +3804,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C125" t="s">
         <v>17</v>
@@ -3833,10 +3815,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B126" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C126" t="s">
         <v>17</v>
@@ -3844,7 +3826,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -3855,10 +3837,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B128" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C128" t="s">
         <v>17</v>
@@ -3866,10 +3848,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C129" t="s">
         <v>17</v>
@@ -3877,10 +3859,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B130" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C130" t="s">
         <v>17</v>
@@ -3888,10 +3870,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C131" t="s">
         <v>18</v>
@@ -3899,7 +3881,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B132" t="s">
         <v>1</v>
@@ -3910,10 +3892,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B133" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C133" t="s">
         <v>18</v>
@@ -3921,10 +3903,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B134" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C134" t="s">
         <v>18</v>
@@ -3932,10 +3914,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B135" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
         <v>18</v>
@@ -3943,10 +3925,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B136" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
@@ -3954,10 +3936,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B137" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C137" t="s">
         <v>18</v>
@@ -3965,10 +3947,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C138" t="s">
         <v>18</v>
@@ -3976,7 +3958,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B139" t="s">
         <v>1</v>
@@ -3987,10 +3969,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
@@ -3998,10 +3980,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B141" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C141" t="s">
         <v>18</v>
@@ -4009,10 +3991,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B142" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C142" t="s">
         <v>18</v>
@@ -4020,10 +4002,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B143" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C143" t="s">
         <v>18</v>
@@ -4031,10 +4013,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B144" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C144" t="s">
         <v>18</v>
@@ -4042,10 +4024,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C145" t="s">
         <v>18</v>
@@ -4053,10 +4035,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B146" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C146" t="s">
         <v>18</v>
@@ -4064,10 +4046,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B147" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C147" t="s">
         <v>19</v>
@@ -4075,7 +4057,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B148" t="s">
         <v>0</v>
@@ -4086,10 +4068,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B149" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C149" t="s">
         <v>19</v>
@@ -4097,10 +4079,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C150" t="s">
         <v>19</v>
@@ -4108,10 +4090,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="C151" t="s">
         <v>19</v>
@@ -4119,10 +4101,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B152" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C152" t="s">
         <v>19</v>
@@ -4130,10 +4112,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B153" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C153" t="s">
         <v>19</v>
@@ -4141,10 +4123,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B154" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C154" t="s">
         <v>19</v>
@@ -4152,10 +4134,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B155" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C155" t="s">
         <v>19</v>
@@ -4163,10 +4145,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B156" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C156" t="s">
         <v>19</v>
@@ -4174,10 +4156,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C157" t="s">
         <v>20</v>
@@ -4185,10 +4167,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C158" t="s">
         <v>20</v>
@@ -4196,10 +4178,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C159" t="s">
         <v>20</v>
@@ -4207,10 +4189,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C160" t="s">
         <v>20</v>
@@ -4218,7 +4200,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B161" t="s">
         <v>2</v>
@@ -4229,10 +4211,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B162" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C162" t="s">
         <v>20</v>
@@ -4240,10 +4222,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B163" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C163" t="s">
         <v>20</v>
@@ -4251,10 +4233,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B164" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C164" t="s">
         <v>20</v>
@@ -4262,10 +4244,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B165" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C165" t="s">
         <v>20</v>
@@ -4273,7 +4255,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4284,10 +4266,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B167" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C167" t="s">
         <v>21</v>
@@ -4295,7 +4277,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B168" t="s">
         <v>0</v>
@@ -4306,10 +4288,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B169" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C169" t="s">
         <v>21</v>
@@ -4317,7 +4299,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B170" t="s">
         <v>4</v>
@@ -4328,10 +4310,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B171" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C171" t="s">
         <v>21</v>
@@ -4339,7 +4321,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B172" t="s">
         <v>2</v>
@@ -4350,7 +4332,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B173" t="s">
         <v>4</v>
@@ -4361,10 +4343,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B174" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C174" t="s">
         <v>21</v>
@@ -4372,10 +4354,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B175" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C175" t="s">
         <v>21</v>
@@ -4383,10 +4365,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B176" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C176" t="s">
         <v>21</v>
@@ -4394,10 +4376,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C177" t="s">
         <v>21</v>
@@ -4405,10 +4387,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B178" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C178" t="s">
         <v>21</v>
@@ -4416,10 +4398,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B179" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C179" t="s">
         <v>22</v>
@@ -4427,7 +4409,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B180" t="s">
         <v>1</v>
@@ -4438,10 +4420,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B181" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C181" t="s">
         <v>22</v>
@@ -4449,10 +4431,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B182" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C182" t="s">
         <v>22</v>
@@ -4460,7 +4442,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4471,10 +4453,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B184" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C184" t="s">
         <v>22</v>
@@ -4482,10 +4464,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B185" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C185" t="s">
         <v>22</v>
@@ -4493,10 +4475,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B186" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C186" t="s">
         <v>22</v>
@@ -4504,7 +4486,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B187" t="s">
         <v>1</v>
@@ -4515,10 +4497,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B188" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C188" t="s">
         <v>22</v>
@@ -4526,7 +4508,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4537,10 +4519,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B190" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C190" t="s">
         <v>23</v>
@@ -4548,10 +4530,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B191" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C191" t="s">
         <v>23</v>
@@ -4559,10 +4541,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B192" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C192" t="s">
         <v>23</v>
@@ -4570,10 +4552,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B193" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C193" t="s">
         <v>23</v>
@@ -4581,10 +4563,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B194" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C194" t="s">
         <v>23</v>
@@ -4592,7 +4574,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4603,10 +4585,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B196" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C196" t="s">
         <v>23</v>
@@ -4614,10 +4596,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B197" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C197" t="s">
         <v>23</v>
@@ -4625,10 +4607,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B198" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C198" t="s">
         <v>23</v>
@@ -4636,7 +4618,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -4647,7 +4629,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -4658,10 +4640,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B201" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C201" t="s">
         <v>23</v>
@@ -4669,10 +4651,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B202" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C202" t="s">
         <v>24</v>
@@ -4680,10 +4662,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B203" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C203" t="s">
         <v>24</v>
@@ -4691,7 +4673,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B204" t="s">
         <v>1</v>
@@ -4702,10 +4684,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B205" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
@@ -4713,10 +4695,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B206" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C206" t="s">
         <v>24</v>
@@ -4724,10 +4706,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B207" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C207" t="s">
         <v>24</v>
@@ -4735,10 +4717,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B208" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C208" t="s">
         <v>24</v>
@@ -4746,10 +4728,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B209" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C209" t="s">
         <v>24</v>
@@ -4757,10 +4739,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B210" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C210" t="s">
         <v>24</v>
@@ -4768,10 +4750,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B211" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C211" t="s">
         <v>24</v>
@@ -4779,10 +4761,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B212" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C212" t="s">
         <v>24</v>
@@ -4790,10 +4772,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B213" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C213" t="s">
         <v>24</v>
@@ -4801,10 +4783,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B214" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C214" t="s">
         <v>24</v>
@@ -4812,10 +4794,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B215" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C215" t="s">
         <v>24</v>
@@ -4823,10 +4805,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B216" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C216" t="s">
         <v>24</v>
@@ -4834,10 +4816,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B217" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C217" t="s">
         <v>24</v>
@@ -4845,10 +4827,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B218" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C218" t="s">
         <v>25</v>
@@ -4856,10 +4838,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B219" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C219" t="s">
         <v>25</v>
@@ -4867,10 +4849,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B220" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C220" t="s">
         <v>25</v>
@@ -4878,7 +4860,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B221" t="s">
         <v>0</v>
@@ -4889,10 +4871,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B222" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C222" t="s">
         <v>25</v>
@@ -4900,10 +4882,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B223" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C223" t="s">
         <v>25</v>
@@ -4911,10 +4893,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B224" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C224" t="s">
         <v>25</v>
@@ -4922,10 +4904,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B225" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C225" t="s">
         <v>25</v>
@@ -4933,10 +4915,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B226" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C226" t="s">
         <v>25</v>
@@ -4944,10 +4926,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B227" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C227" t="s">
         <v>25</v>
@@ -4955,10 +4937,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B228" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C228" t="s">
         <v>25</v>
@@ -4966,10 +4948,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B229" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C229" t="s">
         <v>25</v>
@@ -4977,10 +4959,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B230" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C230" t="s">
         <v>26</v>
@@ -4988,10 +4970,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B231" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C231" t="s">
         <v>26</v>
@@ -4999,7 +4981,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B232" t="s">
         <v>0</v>
@@ -5010,10 +4992,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B233" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C233" t="s">
         <v>26</v>
@@ -5021,10 +5003,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C234" t="s">
         <v>26</v>
@@ -5032,7 +5014,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -5043,10 +5025,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B236" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C236" t="s">
         <v>26</v>
@@ -5054,10 +5036,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B237" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C237" t="s">
         <v>26</v>
@@ -5065,10 +5047,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B238" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C238" t="s">
         <v>26</v>
@@ -5076,10 +5058,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B239" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C239" t="s">
         <v>26</v>
@@ -5087,10 +5069,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B240" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C240" t="s">
         <v>26</v>
@@ -5098,10 +5080,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B241" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C241" t="s">
         <v>27</v>
@@ -5109,7 +5091,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B242" t="s">
         <v>1</v>
@@ -5120,10 +5102,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B243" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C243" t="s">
         <v>27</v>
@@ -5131,10 +5113,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B244" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C244" t="s">
         <v>27</v>
@@ -5142,10 +5124,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B245" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C245" t="s">
         <v>27</v>
@@ -5153,10 +5135,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B246" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C246" t="s">
         <v>27</v>
@@ -5164,10 +5146,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B247" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C247" t="s">
         <v>27</v>
@@ -5175,10 +5157,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B248" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C248" t="s">
         <v>27</v>
@@ -5186,10 +5168,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B249" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C249" t="s">
         <v>27</v>
@@ -5197,10 +5179,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B250" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -5208,7 +5190,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5219,10 +5201,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B252" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
@@ -5230,10 +5212,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B253" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -5241,10 +5223,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B254" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -5252,10 +5234,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B255" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -5263,10 +5245,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B256" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -5274,10 +5256,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B257" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -5285,10 +5267,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B258" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -5296,10 +5278,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B259" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -5307,10 +5289,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B260" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -5318,10 +5300,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B261" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -5329,10 +5311,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B262" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -5340,10 +5322,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B263" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -5351,7 +5333,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -5362,10 +5344,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B265" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C265" t="s">
         <v>29</v>
@@ -5373,10 +5355,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B266" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C266" t="s">
         <v>29</v>
@@ -5384,10 +5366,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B267" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C267" t="s">
         <v>29</v>
@@ -5395,10 +5377,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B268" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -5406,10 +5388,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B269" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -5417,10 +5399,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B270" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -5428,10 +5410,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B271" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -5439,10 +5421,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B272" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C272" t="s">
         <v>29</v>
@@ -5450,7 +5432,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -5461,10 +5443,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B274" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -5472,10 +5454,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B275" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C275" t="s">
         <v>30</v>
@@ -5483,10 +5465,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B276" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C276" t="s">
         <v>30</v>
@@ -5494,10 +5476,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B277" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C277" t="s">
         <v>30</v>
@@ -5505,10 +5487,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B278" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C278" t="s">
         <v>30</v>
@@ -5516,10 +5498,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B279" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C279" t="s">
         <v>30</v>
@@ -5527,10 +5509,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B280" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C280" t="s">
         <v>30</v>
@@ -5538,10 +5520,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B281" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C281" t="s">
         <v>30</v>
@@ -5549,10 +5531,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B282" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C282" t="s">
         <v>30</v>
@@ -5560,10 +5542,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B283" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C283" t="s">
         <v>30</v>
@@ -5571,7 +5553,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B284" t="s">
         <v>2</v>
@@ -5582,10 +5564,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B285" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C285" t="s">
         <v>30</v>
@@ -5593,10 +5575,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B286" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C286" t="s">
         <v>30</v>
@@ -5604,10 +5586,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B287" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C287" t="s">
         <v>31</v>
@@ -5615,10 +5597,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B288" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C288" t="s">
         <v>31</v>
@@ -5626,10 +5608,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B289" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C289" t="s">
         <v>31</v>
@@ -5637,10 +5619,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B290" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C290" t="s">
         <v>31</v>
@@ -5648,7 +5630,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -5659,7 +5641,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
@@ -5670,10 +5652,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B293" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C293" t="s">
         <v>31</v>
@@ -5681,10 +5663,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B294" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C294" t="s">
         <v>31</v>
@@ -5692,10 +5674,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B295" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C295" t="s">
         <v>31</v>
@@ -5703,7 +5685,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B296" t="s">
         <v>0</v>
@@ -5714,7 +5696,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -5725,7 +5707,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -5736,10 +5718,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B299" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C299" t="s">
         <v>31</v>
@@ -5747,10 +5729,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B300" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C300" t="s">
         <v>31</v>
@@ -5758,10 +5740,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B301" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C301" t="s">
         <v>31</v>
@@ -5769,10 +5751,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B302" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C302" t="s">
         <v>32</v>
@@ -5780,10 +5762,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B303" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C303" t="s">
         <v>32</v>
@@ -5791,10 +5773,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B304" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C304" t="s">
         <v>32</v>
@@ -5802,10 +5784,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B305" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C305" t="s">
         <v>32</v>
@@ -5813,10 +5795,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B306" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C306" t="s">
         <v>32</v>
@@ -5824,10 +5806,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B307" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C307" t="s">
         <v>32</v>
@@ -5835,10 +5817,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B308" t="s">
-        <v>363</v>
+        <v>617</v>
       </c>
       <c r="C308" t="s">
         <v>32</v>
@@ -5846,10 +5828,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B309" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C309" t="s">
         <v>32</v>
@@ -5857,10 +5839,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B310" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C310" t="s">
         <v>33</v>
@@ -5868,7 +5850,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B311" t="s">
         <v>0</v>
@@ -5879,10 +5861,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B312" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C312" t="s">
         <v>33</v>
@@ -5890,10 +5872,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B313" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C313" t="s">
         <v>33</v>
@@ -5901,7 +5883,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -5912,10 +5894,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B315" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C315" t="s">
         <v>33</v>
@@ -5923,10 +5905,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B316" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C316" t="s">
         <v>33</v>
@@ -5934,10 +5916,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B317" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C317" t="s">
         <v>33</v>
@@ -5945,10 +5927,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B318" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C318" t="s">
         <v>33</v>
@@ -5956,10 +5938,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B319" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C319" t="s">
         <v>34</v>
@@ -5967,10 +5949,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B320" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C320" t="s">
         <v>34</v>
@@ -5978,7 +5960,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B321" t="s">
         <v>0</v>
@@ -5989,10 +5971,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B322" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C322" t="s">
         <v>34</v>
@@ -6000,10 +5982,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B323" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C323" t="s">
         <v>34</v>
@@ -6011,10 +5993,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B324" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C324" t="s">
         <v>34</v>
@@ -6022,10 +6004,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B325" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C325" t="s">
         <v>34</v>
@@ -6033,10 +6015,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B326" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C326" t="s">
         <v>34</v>
@@ -6044,10 +6026,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B327" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C327" t="s">
         <v>34</v>
@@ -6055,7 +6037,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B328" t="s">
         <v>1</v>
@@ -6066,109 +6048,109 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B329" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C329" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B330" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C330" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B331" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C331" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B332" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C332" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B333" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C333" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B334" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C334" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B335" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C335" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B336" t="s">
         <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B337" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C337" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B338" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C338" t="s">
         <v>8</v>
@@ -6176,7 +6158,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B339" t="s">
         <v>0</v>
@@ -6187,7 +6169,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B340" t="s">
         <v>0</v>
@@ -6198,10 +6180,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B341" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C341" t="s">
         <v>8</v>
@@ -6209,10 +6191,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B342" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C342" t="s">
         <v>8</v>
@@ -6220,10 +6202,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B343" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C343" t="s">
         <v>8</v>
@@ -6231,7 +6213,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B344" t="s">
         <v>7</v>
@@ -6242,10 +6224,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B345" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C345" t="s">
         <v>8</v>
@@ -6253,10 +6235,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B346" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C346" t="s">
         <v>8</v>
@@ -6264,7 +6246,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -6275,10 +6257,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B348" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C348" t="s">
         <v>8</v>
@@ -6286,10 +6268,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B349" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C349" t="s">
         <v>8</v>
@@ -6297,10 +6279,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B350" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C350" t="s">
         <v>8</v>
@@ -6308,7 +6290,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B351" t="s">
         <v>6</v>
@@ -6319,10 +6301,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B352" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C352" t="s">
         <v>35</v>
@@ -6330,10 +6312,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B353" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C353" t="s">
         <v>35</v>
@@ -6341,7 +6323,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B354" t="s">
         <v>1</v>
@@ -6352,7 +6334,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B355" t="s">
         <v>1</v>
@@ -6363,10 +6345,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B356" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C356" t="s">
         <v>35</v>
@@ -6374,10 +6356,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B357" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C357" t="s">
         <v>35</v>
@@ -6385,7 +6367,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
@@ -6396,10 +6378,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B359" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C359" t="s">
         <v>35</v>
@@ -6407,10 +6389,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B360" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C360" t="s">
         <v>35</v>
@@ -6418,10 +6400,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B361" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C361" t="s">
         <v>37</v>
@@ -6429,10 +6411,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B362" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C362" t="s">
         <v>37</v>
@@ -6440,10 +6422,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B363" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C363" t="s">
         <v>37</v>
@@ -6451,7 +6433,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B364" t="s">
         <v>1</v>
@@ -6462,10 +6444,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B365" t="s">
-        <v>363</v>
+        <v>617</v>
       </c>
       <c r="C365" t="s">
         <v>37</v>
@@ -6473,10 +6455,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B366" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C366" t="s">
         <v>37</v>
@@ -6484,10 +6466,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B367" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C367" t="s">
         <v>37</v>
@@ -6495,10 +6477,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B368" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C368" t="s">
         <v>37</v>
@@ -6506,7 +6488,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B369" t="s">
         <v>7</v>
@@ -6517,10 +6499,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B370" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C370" t="s">
         <v>37</v>
@@ -6528,7 +6510,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -6539,10 +6521,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B372" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C372" t="s">
         <v>37</v>
@@ -6550,10 +6532,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B373" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C373" t="s">
         <v>37</v>
@@ -6561,10 +6543,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B374" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C374" t="s">
         <v>37</v>
@@ -6572,10 +6554,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B375" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C375" t="s">
         <v>38</v>
@@ -6583,10 +6565,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B376" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C376" t="s">
         <v>38</v>
@@ -6594,7 +6576,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B377" t="s">
         <v>1</v>
@@ -6605,7 +6587,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B378" t="s">
         <v>1</v>
@@ -6616,7 +6598,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B379" t="s">
         <v>0</v>
@@ -6627,7 +6609,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B380" t="s">
         <v>0</v>
@@ -6638,10 +6620,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B381" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C381" t="s">
         <v>38</v>
@@ -6649,10 +6631,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B382" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C382" t="s">
         <v>38</v>
@@ -6660,10 +6642,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B383" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C383" t="s">
         <v>38</v>
@@ -6671,10 +6653,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B384" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C384" t="s">
         <v>38</v>
@@ -6682,10 +6664,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B385" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C385" t="s">
         <v>38</v>
@@ -6693,7 +6675,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
@@ -6704,10 +6686,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B387" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C387" t="s">
         <v>38</v>
@@ -6715,10 +6697,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B388" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C388" t="s">
         <v>38</v>
@@ -6726,10 +6708,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B389" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C389" t="s">
         <v>38</v>
@@ -6737,10 +6719,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B390" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C390" t="s">
         <v>38</v>
@@ -6748,10 +6730,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B391" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C391" t="s">
         <v>38</v>
@@ -6759,10 +6741,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B392" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C392" t="s">
         <v>38</v>
@@ -6770,10 +6752,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B393" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C393" t="s">
         <v>38</v>
@@ -6781,7 +6763,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B394" t="s">
         <v>1</v>
@@ -6792,10 +6774,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B395" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C395" t="s">
         <v>39</v>
@@ -6803,10 +6785,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B396" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C396" t="s">
         <v>39</v>
@@ -6814,7 +6796,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B397" t="s">
         <v>7</v>
@@ -6825,10 +6807,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B398" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C398" t="s">
         <v>39</v>
@@ -6836,10 +6818,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B399" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C399" t="s">
         <v>39</v>
@@ -6847,7 +6829,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B400" t="s">
         <v>6</v>
@@ -6858,10 +6840,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B401" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C401" t="s">
         <v>39</v>
@@ -6869,10 +6851,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B402" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C402" t="s">
         <v>40</v>
@@ -6880,10 +6862,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B403" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C403" t="s">
         <v>40</v>
@@ -6891,10 +6873,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B404" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C404" t="s">
         <v>40</v>
@@ -6902,10 +6884,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B405" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C405" t="s">
         <v>40</v>
@@ -6913,7 +6895,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B406" t="s">
         <v>1</v>
@@ -6924,7 +6906,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B407" t="s">
         <v>1</v>
@@ -6935,10 +6917,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B408" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C408" t="s">
         <v>40</v>
@@ -6946,7 +6928,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B409" t="s">
         <v>0</v>
@@ -6957,7 +6939,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B410" t="s">
         <v>0</v>
@@ -6968,7 +6950,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B411" t="s">
         <v>0</v>
@@ -6979,10 +6961,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B412" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C412" t="s">
         <v>40</v>
@@ -6990,10 +6972,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B413" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C413" t="s">
         <v>40</v>
@@ -7001,10 +6983,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B414" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C414" t="s">
         <v>40</v>
@@ -7012,10 +6994,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B415" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C415" t="s">
         <v>40</v>
@@ -7023,10 +7005,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B416" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C416" t="s">
         <v>40</v>
@@ -7034,10 +7016,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B417" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C417" t="s">
         <v>40</v>
@@ -7045,10 +7027,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B418" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C418" t="s">
         <v>40</v>
@@ -7056,10 +7038,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B419" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C419" t="s">
         <v>40</v>
@@ -7067,7 +7049,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B420" t="s">
         <v>5</v>
@@ -7078,10 +7060,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B421" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C421" t="s">
         <v>40</v>
@@ -7089,10 +7071,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B422" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C422" t="s">
         <v>40</v>
@@ -7100,10 +7082,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B423" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C423" t="s">
         <v>40</v>
@@ -7111,10 +7093,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B424" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C424" t="s">
         <v>40</v>
@@ -7122,7 +7104,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B425" t="s">
         <v>6</v>
@@ -7133,7 +7115,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B426" t="s">
         <v>6</v>
@@ -7144,7 +7126,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B427" t="s">
         <v>6</v>
@@ -7155,10 +7137,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B428" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C428" t="s">
         <v>40</v>
@@ -7166,10 +7148,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B429" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C429" t="s">
         <v>40</v>
@@ -7177,7 +7159,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B430" t="s">
         <v>1</v>
@@ -7188,7 +7170,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B431" t="s">
         <v>1</v>
@@ -7199,7 +7181,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B432" t="s">
         <v>1</v>
@@ -7210,10 +7192,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B433" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C433" t="s">
         <v>41</v>
@@ -7221,7 +7203,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B434" t="s">
         <v>0</v>
@@ -7232,7 +7214,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B435" t="s">
         <v>0</v>
@@ -7243,7 +7225,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B436" t="s">
         <v>0</v>
@@ -7254,10 +7236,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B437" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C437" t="s">
         <v>41</v>
@@ -7265,10 +7247,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B438" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C438" t="s">
         <v>41</v>
@@ -7276,10 +7258,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B439" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C439" t="s">
         <v>41</v>
@@ -7287,10 +7269,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B440" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C440" t="s">
         <v>41</v>
@@ -7298,10 +7280,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B441" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C441" t="s">
         <v>41</v>
@@ -7309,10 +7291,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B442" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C442" t="s">
         <v>41</v>
@@ -7320,10 +7302,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B443" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C443" t="s">
         <v>41</v>
@@ -7331,10 +7313,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B444" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C444" t="s">
         <v>41</v>
@@ -7342,10 +7324,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B445" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C445" t="s">
         <v>41</v>
@@ -7353,10 +7335,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B446" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C446" t="s">
         <v>41</v>
@@ -7364,7 +7346,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B447" t="s">
         <v>6</v>
@@ -7375,7 +7357,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B448" t="s">
         <v>6</v>
@@ -7386,10 +7368,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B449" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C449" t="s">
         <v>41</v>
@@ -7397,10 +7379,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B450" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C450" t="s">
         <v>41</v>
@@ -7408,10 +7390,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B451" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C451" t="s">
         <v>41</v>
@@ -7419,10 +7401,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B452" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C452" t="s">
         <v>41</v>
@@ -7430,10 +7412,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B453" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C453" t="s">
         <v>41</v>
@@ -7441,10 +7423,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B454" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C454" t="s">
         <v>42</v>
@@ -7452,10 +7434,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B455" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C455" t="s">
         <v>42</v>
@@ -7463,10 +7445,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B456" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C456" t="s">
         <v>42</v>
@@ -7474,7 +7456,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B457" t="s">
         <v>1</v>
@@ -7485,10 +7467,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B458" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C458" t="s">
         <v>42</v>
@@ -7496,10 +7478,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B459" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C459" t="s">
         <v>42</v>
@@ -7507,10 +7489,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B460" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C460" t="s">
         <v>42</v>
@@ -7518,10 +7500,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B461" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C461" t="s">
         <v>42</v>
@@ -7529,10 +7511,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B462" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C462" t="s">
         <v>42</v>
@@ -7540,10 +7522,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B463" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C463" t="s">
         <v>42</v>
@@ -7551,10 +7533,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B464" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C464" t="s">
         <v>42</v>
@@ -7562,7 +7544,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B465" t="s">
         <v>7</v>
@@ -7573,10 +7555,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B466" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C466" t="s">
         <v>42</v>
@@ -7584,10 +7566,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B467" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C467" t="s">
         <v>42</v>
@@ -7595,10 +7577,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B468" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C468" t="s">
         <v>42</v>
@@ -7606,7 +7588,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B469" t="s">
         <v>6</v>
@@ -7617,10 +7599,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B470" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C470" t="s">
         <v>42</v>
@@ -7628,673 +7610,673 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B471" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C471" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B472" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C472" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B473" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C473" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B474" t="s">
         <v>1</v>
       </c>
       <c r="C474" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B475" t="s">
         <v>1</v>
       </c>
       <c r="C475" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B476" t="s">
         <v>0</v>
       </c>
       <c r="C476" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B477" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C477" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B478" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C478" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B479" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C479" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B480" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C480" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B481" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C481" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B482" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C482" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B483" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C483" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B484" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C484" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B485" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C485" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B486" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C486" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B487" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C487" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B488" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C488" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B489" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C489" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B490" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C490" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B491" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C491" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B492" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C492" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B493" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C493" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B494" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C494" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B495" t="s">
-        <v>363</v>
+        <v>617</v>
       </c>
       <c r="C495" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B496" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C496" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B497" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C497" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B498" t="s">
         <v>7</v>
       </c>
       <c r="C498" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B499" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C499" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B500" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C500" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B501" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C501" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B502" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C502" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B503" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C503" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B504" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C504" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B505" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C505" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B506" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C506" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B507" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C507" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B508" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C508" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B509" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C509" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B510" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C510" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B511" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C511" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B512" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C512" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B513" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C513" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B514" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C514" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B515" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C515" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C516" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B517" t="s">
         <v>6</v>
       </c>
       <c r="C517" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B518" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C518" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B519" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C519" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B520" t="s">
-        <v>363</v>
+        <v>617</v>
       </c>
       <c r="C520" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B521" t="s">
         <v>0</v>
       </c>
       <c r="C521" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B522" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C522" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B523" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C523" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B524" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C524" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B525" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C525" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B526" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C526" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B527" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C527" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B528" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C528" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B529" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C529" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B530" t="s">
         <v>7</v>
       </c>
       <c r="C530" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B531" t="s">
         <v>5</v>
       </c>
       <c r="C531" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -8307,8 +8289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8318,7 +8300,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -8363,7 +8345,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -8503,27 +8485,27 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="619">
   <si>
     <t>BRAWL</t>
   </si>
@@ -1861,21 +1861,12 @@
     <t>Kiah Greenwood</t>
   </si>
   <si>
-    <t>university</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>VAGUE Vets</t>
   </si>
   <si>
     <t>Vanguard VETS</t>
   </si>
   <si>
-    <t>uni of darby</t>
-  </si>
-  <si>
     <t>GEAS wargamers</t>
   </si>
   <si>
@@ -1886,6 +1877,12 @@
   </si>
   <si>
     <t>Fantasy (open classic)</t>
+  </si>
+  <si>
+    <t>university_name</t>
+  </si>
+  <si>
+    <t>category_name</t>
   </si>
 </sst>
 </file>
@@ -2205,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,7 +2258,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2331,12 +2328,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2361,7 +2358,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>615</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -2381,12 +2378,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -2427,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C531"/>
   <sheetViews>
-    <sheetView topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="C472" sqref="C472"/>
+    <sheetView topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="B374" sqref="B374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,10 +2440,10 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3546,7 +3543,7 @@
         <v>47</v>
       </c>
       <c r="C101" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3557,7 +3554,7 @@
         <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3568,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3579,7 +3576,7 @@
         <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,7 +3587,7 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3601,7 +3598,7 @@
         <v>164</v>
       </c>
       <c r="C106" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3612,7 +3609,7 @@
         <v>47</v>
       </c>
       <c r="C107" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3623,7 +3620,7 @@
         <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3634,7 +3631,7 @@
         <v>51</v>
       </c>
       <c r="C109" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3645,7 +3642,7 @@
         <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3656,7 +3653,7 @@
         <v>51</v>
       </c>
       <c r="C111" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3667,7 +3664,7 @@
         <v>65</v>
       </c>
       <c r="C112" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3678,7 +3675,7 @@
         <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3689,7 +3686,7 @@
         <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3700,7 +3697,7 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5820,7 +5817,7 @@
         <v>359</v>
       </c>
       <c r="B308" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C308" t="s">
         <v>32</v>
@@ -6447,7 +6444,7 @@
         <v>411</v>
       </c>
       <c r="B365" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C365" t="s">
         <v>37</v>
@@ -7877,7 +7874,7 @@
         <v>544</v>
       </c>
       <c r="B495" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C495" t="s">
         <v>579</v>
@@ -8152,7 +8149,7 @@
         <v>569</v>
       </c>
       <c r="B520" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C520" t="s">
         <v>43</v>
@@ -8289,8 +8286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8345,7 +8342,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="619">
   <si>
     <t>BRAWL</t>
   </si>
@@ -1861,21 +1861,12 @@
     <t>Kiah Greenwood</t>
   </si>
   <si>
-    <t>university</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>VAGUE Vets</t>
   </si>
   <si>
     <t>Vanguard VETS</t>
   </si>
   <si>
-    <t>uni of darby</t>
-  </si>
-  <si>
     <t>GEAS wargamers</t>
   </si>
   <si>
@@ -1886,6 +1877,12 @@
   </si>
   <si>
     <t>Fantasy (open classic)</t>
+  </si>
+  <si>
+    <t>university_name</t>
+  </si>
+  <si>
+    <t>category_name</t>
   </si>
 </sst>
 </file>
@@ -2205,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,7 +2258,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2331,12 +2328,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2361,7 +2358,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>615</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -2381,12 +2378,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -2427,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C531"/>
   <sheetViews>
-    <sheetView topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="C472" sqref="C472"/>
+    <sheetView topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="B374" sqref="B374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,10 +2440,10 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3546,7 +3543,7 @@
         <v>47</v>
       </c>
       <c r="C101" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3557,7 +3554,7 @@
         <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3568,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3579,7 +3576,7 @@
         <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,7 +3587,7 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3601,7 +3598,7 @@
         <v>164</v>
       </c>
       <c r="C106" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3612,7 +3609,7 @@
         <v>47</v>
       </c>
       <c r="C107" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3623,7 +3620,7 @@
         <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3634,7 +3631,7 @@
         <v>51</v>
       </c>
       <c r="C109" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3645,7 +3642,7 @@
         <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3656,7 +3653,7 @@
         <v>51</v>
       </c>
       <c r="C111" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3667,7 +3664,7 @@
         <v>65</v>
       </c>
       <c r="C112" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3678,7 +3675,7 @@
         <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3689,7 +3686,7 @@
         <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3700,7 +3697,7 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5820,7 +5817,7 @@
         <v>359</v>
       </c>
       <c r="B308" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C308" t="s">
         <v>32</v>
@@ -6447,7 +6444,7 @@
         <v>411</v>
       </c>
       <c r="B365" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C365" t="s">
         <v>37</v>
@@ -7877,7 +7874,7 @@
         <v>544</v>
       </c>
       <c r="B495" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C495" t="s">
         <v>579</v>
@@ -8152,7 +8149,7 @@
         <v>569</v>
       </c>
       <c r="B520" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C520" t="s">
         <v>43</v>
@@ -8289,8 +8286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8345,7 +8342,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -2202,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
